--- a/results/results_1_main.xlsx
+++ b/results/results_1_main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TM\Dropbox\DS\RNN-for-TS\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA9E16D-8241-4B77-B293-F3436A10A08A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C884382E-C603-4D23-A719-CBF6B7CD4208}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="19200" windowHeight="10140" tabRatio="818" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12420" yWindow="4130" windowWidth="19420" windowHeight="10420" tabRatio="818" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data dictionary" sheetId="30" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2746" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2757" uniqueCount="372">
   <si>
     <t>epochs</t>
   </si>
@@ -1155,6 +1155,9 @@
   </si>
   <si>
     <t>43*</t>
+  </si>
+  <si>
+    <t>deepstate</t>
   </si>
 </sst>
 </file>
@@ -3469,11 +3472,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E1F683-F06B-4E20-80D1-BE6D024EC21F}">
-  <dimension ref="A1:T186"/>
+  <dimension ref="A1:T188"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X19" sqref="X19"/>
+      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P192" sqref="P192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10542,6 +10545,32 @@
         <v>0.46523599999999998</v>
       </c>
     </row>
+    <row r="188" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="F188" s="11">
+        <v>12.835369999999999</v>
+      </c>
+      <c r="G188" s="11">
+        <v>0.33447399999999999</v>
+      </c>
+      <c r="H188" s="11">
+        <v>167.10718900000001</v>
+      </c>
+      <c r="I188" s="11">
+        <v>0.69409600000000005</v>
+      </c>
+      <c r="J188" s="11">
+        <v>1.159834</v>
+      </c>
+      <c r="K188" s="11">
+        <v>42</v>
+      </c>
+      <c r="L188" s="11">
+        <v>500</v>
+      </c>
+      <c r="M188" s="11">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A14:T14"/>
@@ -10557,11 +10586,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08AF3A36-8329-4641-8F20-69FE4A8D253B}">
-  <dimension ref="A1:R231"/>
+  <dimension ref="A1:R247"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N241" sqref="N241"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D248" sqref="D245:D248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19232,6 +19261,240 @@
       <c r="Q231" s="86"/>
       <c r="R231" s="86"/>
     </row>
+    <row r="233" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E233" s="11">
+        <v>40.758588000000003</v>
+      </c>
+      <c r="F233" s="11">
+        <v>0.34166200000000002</v>
+      </c>
+      <c r="G233" s="11">
+        <v>1535.7783810000001</v>
+      </c>
+      <c r="H233" s="11">
+        <v>0.44831500000000002</v>
+      </c>
+      <c r="I233" s="11">
+        <v>0.77879900000000002</v>
+      </c>
+      <c r="J233" s="11">
+        <v>42</v>
+      </c>
+      <c r="K233" s="11">
+        <v>100</v>
+      </c>
+      <c r="L233" s="11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="234" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E234" s="11">
+        <v>61.517119999999998</v>
+      </c>
+      <c r="F234" s="11">
+        <v>0.61292199999999997</v>
+      </c>
+      <c r="G234" s="11">
+        <v>2349.9176769999999</v>
+      </c>
+      <c r="H234" s="11">
+        <v>0.65082799999999996</v>
+      </c>
+      <c r="I234" s="11">
+        <v>1.137383</v>
+      </c>
+      <c r="J234" s="11">
+        <v>43</v>
+      </c>
+      <c r="K234" s="11">
+        <v>100</v>
+      </c>
+      <c r="L234" s="11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="235" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E235" s="11">
+        <v>58.310296999999998</v>
+      </c>
+      <c r="F235" s="11">
+        <v>0.50709000000000004</v>
+      </c>
+      <c r="G235" s="11">
+        <v>1949.316233</v>
+      </c>
+      <c r="H235" s="11">
+        <v>0.53766199999999997</v>
+      </c>
+      <c r="I235" s="11">
+        <v>0.92556799999999995</v>
+      </c>
+      <c r="J235" s="11">
+        <v>44</v>
+      </c>
+      <c r="K235" s="11">
+        <v>100</v>
+      </c>
+      <c r="L235" s="11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="239" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E239" s="11">
+        <v>17.583158000000001</v>
+      </c>
+      <c r="F239" s="11">
+        <v>0.12534799999999999</v>
+      </c>
+      <c r="G239" s="11">
+        <v>427.19698399999999</v>
+      </c>
+      <c r="H239" s="11">
+        <v>0.16303699999999999</v>
+      </c>
+      <c r="I239" s="11">
+        <v>0.20463700000000001</v>
+      </c>
+      <c r="J239" s="11">
+        <v>42</v>
+      </c>
+      <c r="K239" s="11">
+        <v>200</v>
+      </c>
+      <c r="L239" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="240" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E240" s="11">
+        <v>18.822189000000002</v>
+      </c>
+      <c r="F240" s="11">
+        <v>0.13622100000000001</v>
+      </c>
+      <c r="G240" s="11">
+        <v>381.339361</v>
+      </c>
+      <c r="H240" s="11">
+        <v>0.164493</v>
+      </c>
+      <c r="I240" s="11">
+        <v>0.182782</v>
+      </c>
+      <c r="J240" s="11">
+        <v>43</v>
+      </c>
+      <c r="K240" s="11">
+        <v>200</v>
+      </c>
+      <c r="L240" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="241" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E241" s="11">
+        <v>10.641532</v>
+      </c>
+      <c r="F241" s="11">
+        <v>7.3127999999999999E-2</v>
+      </c>
+      <c r="G241" s="11">
+        <v>205.02352999999999</v>
+      </c>
+      <c r="H241" s="11">
+        <v>9.3799999999999994E-2</v>
+      </c>
+      <c r="I241" s="11">
+        <v>9.6484E-2</v>
+      </c>
+      <c r="J241" s="11">
+        <v>44</v>
+      </c>
+      <c r="K241" s="11">
+        <v>200</v>
+      </c>
+      <c r="L241" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="245" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E245" s="11">
+        <v>10.226603000000001</v>
+      </c>
+      <c r="F245" s="11">
+        <v>7.1059999999999998E-2</v>
+      </c>
+      <c r="G245" s="11">
+        <v>183.172042</v>
+      </c>
+      <c r="H245" s="11">
+        <v>9.9126000000000006E-2</v>
+      </c>
+      <c r="I245" s="11">
+        <v>7.9305E-2</v>
+      </c>
+      <c r="J245" s="11">
+        <v>42</v>
+      </c>
+      <c r="K245" s="11">
+        <v>500</v>
+      </c>
+      <c r="L245" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="246" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E246" s="11">
+        <v>6.4850519999999996</v>
+      </c>
+      <c r="F246" s="11">
+        <v>4.7446000000000002E-2</v>
+      </c>
+      <c r="G246" s="11">
+        <v>108.484582</v>
+      </c>
+      <c r="H246" s="11">
+        <v>5.7175999999999998E-2</v>
+      </c>
+      <c r="I246" s="11">
+        <v>4.6226000000000003E-2</v>
+      </c>
+      <c r="J246" s="11">
+        <v>43</v>
+      </c>
+      <c r="K246" s="11">
+        <v>500</v>
+      </c>
+      <c r="L246" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="247" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E247" s="11">
+        <v>6.6186800000000003</v>
+      </c>
+      <c r="F247" s="11">
+        <v>4.6519999999999999E-2</v>
+      </c>
+      <c r="G247" s="11">
+        <v>115.37019100000001</v>
+      </c>
+      <c r="H247" s="11">
+        <v>6.0663000000000002E-2</v>
+      </c>
+      <c r="I247" s="11">
+        <v>5.0026000000000001E-2</v>
+      </c>
+      <c r="J247" s="11">
+        <v>44</v>
+      </c>
+      <c r="K247" s="11">
+        <v>500</v>
+      </c>
+      <c r="L247" s="11">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:R2"/>
@@ -19247,11 +19510,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S222"/>
+  <dimension ref="A1:S244"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P93" sqref="P93"/>
+      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D242" sqref="D242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27265,6 +27528,318 @@
       <c r="R222" s="88"/>
       <c r="S222" s="88"/>
     </row>
+    <row r="224" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="E224" s="12">
+        <v>25.858443000000001</v>
+      </c>
+      <c r="F224" s="11">
+        <v>0.23639499999999999</v>
+      </c>
+      <c r="G224" s="11">
+        <v>732.20280500000001</v>
+      </c>
+      <c r="H224" s="11">
+        <v>0.31151000000000001</v>
+      </c>
+      <c r="I224" s="11">
+        <v>0.43567299999999998</v>
+      </c>
+      <c r="J224" s="12">
+        <v>42</v>
+      </c>
+      <c r="K224" s="11">
+        <v>100</v>
+      </c>
+      <c r="L224" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="225" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E225" s="12">
+        <v>28.263915999999998</v>
+      </c>
+      <c r="F225" s="11">
+        <v>0.25178</v>
+      </c>
+      <c r="G225" s="11">
+        <v>897.40585999999996</v>
+      </c>
+      <c r="H225" s="11">
+        <v>0.35002699999999998</v>
+      </c>
+      <c r="I225" s="11">
+        <v>0.51899099999999998</v>
+      </c>
+      <c r="J225" s="12">
+        <v>43</v>
+      </c>
+      <c r="K225" s="11">
+        <v>100</v>
+      </c>
+      <c r="L225" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="226" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E226" s="12">
+        <v>27.171398</v>
+      </c>
+      <c r="F226" s="11">
+        <v>0.25001499999999999</v>
+      </c>
+      <c r="G226" s="11">
+        <v>846.664941</v>
+      </c>
+      <c r="H226" s="11">
+        <v>0.33487299999999998</v>
+      </c>
+      <c r="I226" s="11">
+        <v>0.489541</v>
+      </c>
+      <c r="J226" s="12">
+        <v>44</v>
+      </c>
+      <c r="K226" s="11">
+        <v>100</v>
+      </c>
+      <c r="L226" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="230" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E230" s="12">
+        <v>20.319655000000001</v>
+      </c>
+      <c r="F230" s="11">
+        <v>0.203568</v>
+      </c>
+      <c r="G230" s="11">
+        <v>519.28715299999999</v>
+      </c>
+      <c r="H230" s="11">
+        <v>0.27148</v>
+      </c>
+      <c r="I230" s="11">
+        <v>0.328878</v>
+      </c>
+      <c r="J230" s="12">
+        <v>42</v>
+      </c>
+      <c r="K230" s="11">
+        <v>100</v>
+      </c>
+      <c r="L230" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="231" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E231" s="12">
+        <v>17.618680999999999</v>
+      </c>
+      <c r="F231" s="11">
+        <v>0.172211</v>
+      </c>
+      <c r="G231" s="11">
+        <v>413.439008</v>
+      </c>
+      <c r="H231" s="11">
+        <v>0.24035999999999999</v>
+      </c>
+      <c r="I231" s="11">
+        <v>0.27303100000000002</v>
+      </c>
+      <c r="J231" s="12">
+        <v>43</v>
+      </c>
+      <c r="K231" s="11">
+        <v>100</v>
+      </c>
+      <c r="L231" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="232" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E232" s="12">
+        <v>22.067944000000001</v>
+      </c>
+      <c r="F232" s="11">
+        <v>0.210178</v>
+      </c>
+      <c r="G232" s="11">
+        <v>495.03079400000001</v>
+      </c>
+      <c r="H232" s="11">
+        <v>0.27793499999999999</v>
+      </c>
+      <c r="I232" s="11">
+        <v>0.32074200000000003</v>
+      </c>
+      <c r="J232" s="12">
+        <v>44</v>
+      </c>
+      <c r="K232" s="11">
+        <v>100</v>
+      </c>
+      <c r="L232" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="236" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E236" s="12">
+        <v>7.9735519999999998</v>
+      </c>
+      <c r="F236" s="11">
+        <v>0.122498</v>
+      </c>
+      <c r="G236" s="11">
+        <v>127.04212800000001</v>
+      </c>
+      <c r="H236" s="11">
+        <v>0.13008600000000001</v>
+      </c>
+      <c r="I236" s="11">
+        <v>0.113943</v>
+      </c>
+      <c r="J236" s="12">
+        <v>42</v>
+      </c>
+      <c r="K236" s="11">
+        <v>200</v>
+      </c>
+      <c r="L236" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="237" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E237" s="12">
+        <v>10.033874000000001</v>
+      </c>
+      <c r="F237" s="11">
+        <v>0.135106</v>
+      </c>
+      <c r="G237" s="11">
+        <v>161.39575199999999</v>
+      </c>
+      <c r="H237" s="11">
+        <v>0.15354499999999999</v>
+      </c>
+      <c r="I237" s="11">
+        <v>0.140792</v>
+      </c>
+      <c r="J237" s="12">
+        <v>43</v>
+      </c>
+      <c r="K237" s="11">
+        <v>200</v>
+      </c>
+      <c r="L237" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="238" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E238" s="12">
+        <v>9.394164</v>
+      </c>
+      <c r="F238" s="11">
+        <v>0.140822</v>
+      </c>
+      <c r="G238" s="11">
+        <v>146.69404700000001</v>
+      </c>
+      <c r="H238" s="11">
+        <v>0.14267099999999999</v>
+      </c>
+      <c r="I238" s="11">
+        <v>0.124385</v>
+      </c>
+      <c r="J238" s="12">
+        <v>44</v>
+      </c>
+      <c r="K238" s="11">
+        <v>200</v>
+      </c>
+      <c r="L238" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="242" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E242" s="12">
+        <v>6.1612999999999998</v>
+      </c>
+      <c r="F242" s="11">
+        <v>0.110333</v>
+      </c>
+      <c r="G242" s="11">
+        <v>84.950532999999993</v>
+      </c>
+      <c r="H242" s="11">
+        <v>0.102973</v>
+      </c>
+      <c r="I242" s="11">
+        <v>8.8020000000000001E-2</v>
+      </c>
+      <c r="J242" s="12">
+        <v>42</v>
+      </c>
+      <c r="K242" s="11">
+        <v>500</v>
+      </c>
+      <c r="L242" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="243" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E243" s="12">
+        <v>6.3268209999999998</v>
+      </c>
+      <c r="F243" s="11">
+        <v>0.121006</v>
+      </c>
+      <c r="G243" s="11">
+        <v>73.818029999999993</v>
+      </c>
+      <c r="H243" s="11">
+        <v>0.102062</v>
+      </c>
+      <c r="I243" s="11">
+        <v>8.2475000000000007E-2</v>
+      </c>
+      <c r="J243" s="12">
+        <v>43</v>
+      </c>
+      <c r="K243" s="11">
+        <v>500</v>
+      </c>
+      <c r="L243" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="244" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E244" s="12">
+        <v>5.2421350000000002</v>
+      </c>
+      <c r="F244" s="11">
+        <v>0.114664</v>
+      </c>
+      <c r="G244" s="11">
+        <v>68.920016000000004</v>
+      </c>
+      <c r="H244" s="11">
+        <v>9.1569999999999999E-2</v>
+      </c>
+      <c r="I244" s="11">
+        <v>7.5484999999999997E-2</v>
+      </c>
+      <c r="J244" s="12">
+        <v>44</v>
+      </c>
+      <c r="K244" s="11">
+        <v>500</v>
+      </c>
+      <c r="L244" s="12">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:S2"/>
@@ -27281,11 +27856,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F380316F-4817-4EA0-A0F4-1C2E6B415461}">
-  <dimension ref="A1:R228"/>
+  <dimension ref="A1:R250"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I86" sqref="I86"/>
+      <pane ySplit="1" topLeftCell="A228" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B246" sqref="B246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -30566,7 +31141,10 @@
         <v>50</v>
       </c>
       <c r="M92" s="12"/>
-      <c r="N92" s="29"/>
+      <c r="N92" s="77">
+        <f t="shared" ref="N92:N99" si="15">(32*K92*L92)/B92</f>
+        <v>3.3333333333333335</v>
+      </c>
       <c r="O92" s="12"/>
       <c r="P92" s="12">
         <v>13463</v>
@@ -30612,7 +31190,10 @@
         <v>100</v>
       </c>
       <c r="M93" s="12"/>
-      <c r="N93" s="29"/>
+      <c r="N93" s="77">
+        <f t="shared" si="15"/>
+        <v>6.666666666666667</v>
+      </c>
       <c r="O93" s="12"/>
       <c r="P93" s="12">
         <v>13463</v>
@@ -30658,7 +31239,10 @@
         <v>200</v>
       </c>
       <c r="M94" s="12"/>
-      <c r="N94" s="29"/>
+      <c r="N94" s="77">
+        <f t="shared" si="15"/>
+        <v>13.333333333333334</v>
+      </c>
       <c r="O94" s="12"/>
       <c r="P94" s="12">
         <v>13463</v>
@@ -30704,7 +31288,10 @@
         <v>400</v>
       </c>
       <c r="M95" s="12"/>
-      <c r="N95" s="29"/>
+      <c r="N95" s="77">
+        <f t="shared" si="15"/>
+        <v>26.666666666666668</v>
+      </c>
       <c r="O95" s="12"/>
       <c r="P95" s="12">
         <v>13463</v>
@@ -30750,7 +31337,10 @@
         <v>50</v>
       </c>
       <c r="M96" s="12"/>
-      <c r="N96" s="29"/>
+      <c r="N96" s="77">
+        <f t="shared" si="15"/>
+        <v>6.666666666666667</v>
+      </c>
       <c r="O96" s="12"/>
       <c r="P96" s="12">
         <v>13463</v>
@@ -30796,7 +31386,10 @@
         <v>100</v>
       </c>
       <c r="M97" s="12"/>
-      <c r="N97" s="29"/>
+      <c r="N97" s="77">
+        <f t="shared" si="15"/>
+        <v>13.333333333333334</v>
+      </c>
       <c r="O97" s="12"/>
       <c r="P97" s="12">
         <v>13463</v>
@@ -30842,7 +31435,10 @@
         <v>200</v>
       </c>
       <c r="M98" s="12"/>
-      <c r="N98" s="29"/>
+      <c r="N98" s="77">
+        <f t="shared" si="15"/>
+        <v>26.666666666666668</v>
+      </c>
       <c r="O98" s="12"/>
       <c r="P98" s="12">
         <v>13463</v>
@@ -30885,7 +31481,10 @@
         <v>400</v>
       </c>
       <c r="M99" s="12"/>
-      <c r="N99" s="12"/>
+      <c r="N99" s="77">
+        <f t="shared" si="15"/>
+        <v>53.333333333333336</v>
+      </c>
       <c r="O99" s="12"/>
       <c r="P99" s="12">
         <v>13463</v>
@@ -30919,7 +31518,7 @@
         <v>6</v>
       </c>
       <c r="D101" s="7">
-        <f t="shared" ref="D101:D103" si="15">((E101/$E$8)+(F101/$F$8))/2</f>
+        <f t="shared" ref="D101:D103" si="16">((E101/$E$8)+(F101/$F$8))/2</f>
         <v>0.99422960347618317</v>
       </c>
       <c r="E101" s="26">
@@ -30949,7 +31548,10 @@
       <c r="M101" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N101" s="13"/>
+      <c r="N101" s="77">
+        <f t="shared" ref="N101:N103" si="17">(32*K101*L101)/B101</f>
+        <v>3.3333333333333335</v>
+      </c>
       <c r="O101" s="12"/>
       <c r="P101" s="12">
         <v>973443</v>
@@ -30967,7 +31569,7 @@
         <v>6</v>
       </c>
       <c r="D102" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.95450501849222935</v>
       </c>
       <c r="E102" s="26">
@@ -30997,7 +31599,10 @@
       <c r="M102" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N102" s="13"/>
+      <c r="N102" s="77">
+        <f t="shared" si="17"/>
+        <v>3.3333333333333335</v>
+      </c>
       <c r="O102" s="12"/>
       <c r="P102" s="12">
         <v>973443</v>
@@ -31015,7 +31620,7 @@
         <v>6</v>
       </c>
       <c r="D103" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.0022820301532984</v>
       </c>
       <c r="E103" s="26">
@@ -31045,7 +31650,10 @@
       <c r="M103" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N103" s="13"/>
+      <c r="N103" s="77">
+        <f t="shared" si="17"/>
+        <v>3.3333333333333335</v>
+      </c>
       <c r="O103" s="12"/>
       <c r="P103" s="12">
         <v>973443</v>
@@ -31095,7 +31703,7 @@
         <v>6</v>
       </c>
       <c r="D106" s="7">
-        <f t="shared" ref="D106:D108" si="16">((E106/$E$8)+(F106/$F$8))/2</f>
+        <f t="shared" ref="D106:D108" si="18">((E106/$E$8)+(F106/$F$8))/2</f>
         <v>1.0232864100482262</v>
       </c>
       <c r="E106" s="26">
@@ -31125,7 +31733,10 @@
       <c r="M106" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N106" s="13"/>
+      <c r="N106" s="77">
+        <f t="shared" ref="N106:N108" si="19">(32*K106*L106)/B106</f>
+        <v>5</v>
+      </c>
       <c r="O106" s="12"/>
       <c r="P106" s="12">
         <v>973443</v>
@@ -31143,7 +31754,7 @@
         <v>6</v>
       </c>
       <c r="D107" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.0113875200566957</v>
       </c>
       <c r="E107" s="26">
@@ -31173,7 +31784,10 @@
       <c r="M107" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N107" s="13"/>
+      <c r="N107" s="77">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
       <c r="O107" s="12"/>
       <c r="P107" s="12">
         <v>973443</v>
@@ -31191,7 +31805,7 @@
         <v>6</v>
       </c>
       <c r="D108" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.97030188281731866</v>
       </c>
       <c r="E108" s="26">
@@ -31221,7 +31835,10 @@
       <c r="M108" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N108" s="13"/>
+      <c r="N108" s="77">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
       <c r="O108" s="12"/>
       <c r="P108" s="12">
         <v>973443</v>
@@ -31271,7 +31888,7 @@
         <v>6</v>
       </c>
       <c r="D111" s="7">
-        <f t="shared" ref="D111:D113" si="17">((E111/$E$8)+(F111/$F$8))/2</f>
+        <f t="shared" ref="D111:D113" si="20">((E111/$E$8)+(F111/$F$8))/2</f>
         <v>0.96251944493610131</v>
       </c>
       <c r="E111" s="26">
@@ -31301,7 +31918,10 @@
       <c r="M111" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N111" s="13"/>
+      <c r="N111" s="77">
+        <f t="shared" ref="N111:N113" si="21">(32*K111*L111)/B111</f>
+        <v>6.666666666666667</v>
+      </c>
       <c r="O111" s="12"/>
       <c r="P111" s="12">
         <v>973443</v>
@@ -31319,7 +31939,7 @@
         <v>6</v>
       </c>
       <c r="D112" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.0128052000071597</v>
       </c>
       <c r="E112" s="26">
@@ -31349,7 +31969,10 @@
       <c r="M112" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N112" s="13"/>
+      <c r="N112" s="77">
+        <f t="shared" si="21"/>
+        <v>6.666666666666667</v>
+      </c>
       <c r="O112" s="12"/>
       <c r="P112" s="12">
         <v>973443</v>
@@ -31367,7 +31990,7 @@
         <v>6</v>
       </c>
       <c r="D113" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.99189293966719005</v>
       </c>
       <c r="E113" s="26">
@@ -31397,7 +32020,10 @@
       <c r="M113" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N113" s="13"/>
+      <c r="N113" s="77">
+        <f t="shared" si="21"/>
+        <v>6.666666666666667</v>
+      </c>
       <c r="O113" s="12"/>
       <c r="P113" s="12">
         <v>973443</v>
@@ -31447,7 +32073,7 @@
         <v>6</v>
       </c>
       <c r="D116" s="7">
-        <f t="shared" ref="D116:D117" si="18">((E116/$E$8)+(F116/$F$8))/2</f>
+        <f t="shared" ref="D116:D117" si="22">((E116/$E$8)+(F116/$F$8))/2</f>
         <v>0.97786133549571042</v>
       </c>
       <c r="E116" s="26">
@@ -31477,7 +32103,10 @@
       <c r="M116" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N116" s="13"/>
+      <c r="N116" s="77">
+        <f t="shared" ref="N116:N118" si="23">(32*K116*L116)/B116</f>
+        <v>8.3333333333333339</v>
+      </c>
       <c r="O116" s="12"/>
       <c r="P116" s="12">
         <v>973443</v>
@@ -31495,7 +32124,7 @@
         <v>6</v>
       </c>
       <c r="D117" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.95450501849222935</v>
       </c>
       <c r="E117" s="26">
@@ -31525,7 +32154,10 @@
       <c r="M117" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N117" s="13"/>
+      <c r="N117" s="77">
+        <f t="shared" si="23"/>
+        <v>8.3333333333333339</v>
+      </c>
       <c r="O117" s="12"/>
       <c r="P117" s="12">
         <v>973443</v>
@@ -31560,7 +32192,10 @@
       <c r="M118" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N118" s="13"/>
+      <c r="N118" s="77">
+        <f t="shared" si="23"/>
+        <v>8.3333333333333339</v>
+      </c>
       <c r="O118" s="12"/>
       <c r="P118" s="12">
         <v>973443</v>
@@ -31610,7 +32245,7 @@
         <v>6</v>
       </c>
       <c r="D121" s="7">
-        <f t="shared" ref="D121" si="19">((E121/$E$8)+(F121/$F$8))/2</f>
+        <f t="shared" ref="D121" si="24">((E121/$E$8)+(F121/$F$8))/2</f>
         <v>1.0640604563954215</v>
       </c>
       <c r="E121" s="26">
@@ -31640,7 +32275,10 @@
       <c r="M121" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N121" s="13"/>
+      <c r="N121" s="77">
+        <f t="shared" ref="N121:N123" si="25">(32*K121*L121)/B121</f>
+        <v>6.666666666666667</v>
+      </c>
       <c r="O121" s="12"/>
       <c r="P121" s="12">
         <v>973443</v>
@@ -31675,7 +32313,10 @@
       <c r="M122" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N122" s="13"/>
+      <c r="N122" s="77">
+        <f t="shared" si="25"/>
+        <v>6.666666666666667</v>
+      </c>
       <c r="O122" s="12"/>
       <c r="P122" s="12">
         <v>973443</v>
@@ -31710,7 +32351,10 @@
       <c r="M123" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N123" s="13"/>
+      <c r="N123" s="77">
+        <f t="shared" si="25"/>
+        <v>6.666666666666667</v>
+      </c>
       <c r="O123" s="12"/>
       <c r="P123" s="12">
         <v>973443</v>
@@ -31760,7 +32404,7 @@
         <v>6</v>
       </c>
       <c r="D126" s="7">
-        <f t="shared" ref="D126" si="20">((E126/$E$8)+(F126/$F$8))/2</f>
+        <f t="shared" ref="D126" si="26">((E126/$E$8)+(F126/$F$8))/2</f>
         <v>0.93686604608004442</v>
       </c>
       <c r="E126" s="26">
@@ -31790,7 +32434,10 @@
       <c r="M126" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N126" s="13"/>
+      <c r="N126" s="77">
+        <f t="shared" ref="N126:N128" si="27">(32*K126*L126)/B126</f>
+        <v>10</v>
+      </c>
       <c r="O126" s="12"/>
       <c r="P126" s="12">
         <v>973443</v>
@@ -31825,7 +32472,10 @@
       <c r="M127" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N127" s="13"/>
+      <c r="N127" s="77">
+        <f t="shared" si="27"/>
+        <v>10</v>
+      </c>
       <c r="O127" s="12"/>
       <c r="P127" s="12">
         <v>973443</v>
@@ -31860,7 +32510,10 @@
       <c r="M128" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N128" s="13"/>
+      <c r="N128" s="77">
+        <f t="shared" si="27"/>
+        <v>10</v>
+      </c>
       <c r="O128" s="12"/>
       <c r="P128" s="12">
         <v>973443</v>
@@ -31911,7 +32564,7 @@
         <v>6</v>
       </c>
       <c r="D131" s="7">
-        <f t="shared" ref="D131:D133" si="21">((E131/$E$8)+(F131/$F$8))/2</f>
+        <f t="shared" ref="D131:D133" si="28">((E131/$E$8)+(F131/$F$8))/2</f>
         <v>0.95112132566061824</v>
       </c>
       <c r="E131" s="26">
@@ -31941,7 +32594,10 @@
       <c r="M131" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N131" s="13"/>
+      <c r="N131" s="77">
+        <f t="shared" ref="N131:N133" si="29">(32*K131*L131)/B131</f>
+        <v>13.333333333333334</v>
+      </c>
       <c r="O131" s="12"/>
       <c r="P131" s="12">
         <v>973443</v>
@@ -31959,7 +32615,7 @@
         <v>6</v>
       </c>
       <c r="D132" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>0.95874498314673517</v>
       </c>
       <c r="E132" s="26">
@@ -31989,7 +32645,10 @@
       <c r="M132" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N132" s="13"/>
+      <c r="N132" s="77">
+        <f t="shared" si="29"/>
+        <v>13.333333333333334</v>
+      </c>
       <c r="O132" s="12"/>
       <c r="P132" s="12">
         <v>973443</v>
@@ -32009,7 +32668,7 @@
         <v>6</v>
       </c>
       <c r="D133" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>0.95661811885066284</v>
       </c>
       <c r="E133" s="13">
@@ -32039,7 +32698,10 @@
       <c r="M133" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N133" s="13"/>
+      <c r="N133" s="77">
+        <f t="shared" si="29"/>
+        <v>13.333333333333334</v>
+      </c>
       <c r="O133" s="12"/>
       <c r="P133" s="12">
         <v>973443</v>
@@ -32091,7 +32753,7 @@
         <v>6</v>
       </c>
       <c r="D136" s="7">
-        <f t="shared" ref="D136:D138" si="22">((E136/$E$8)+(F136/$F$8))/2</f>
+        <f t="shared" ref="D136:D138" si="30">((E136/$E$8)+(F136/$F$8))/2</f>
         <v>1.1030304328950091</v>
       </c>
       <c r="E136" s="26">
@@ -32121,7 +32783,10 @@
       <c r="M136" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="N136" s="13"/>
+      <c r="N136" s="77">
+        <f t="shared" ref="N136:N138" si="31">(32*K136*L136)/B136</f>
+        <v>3.3333333333333335</v>
+      </c>
       <c r="O136" s="12"/>
       <c r="P136" s="12">
         <v>13463</v>
@@ -32139,7 +32804,7 @@
         <v>6</v>
       </c>
       <c r="D137" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>1.2674306124720027</v>
       </c>
       <c r="E137" s="26">
@@ -32169,7 +32834,10 @@
       <c r="M137" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="N137" s="13"/>
+      <c r="N137" s="77">
+        <f t="shared" si="31"/>
+        <v>3.3333333333333335</v>
+      </c>
       <c r="O137" s="12"/>
       <c r="P137" s="12">
         <v>13463</v>
@@ -32187,7 +32855,7 @@
         <v>6</v>
       </c>
       <c r="D138" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>1.0061740049939027</v>
       </c>
       <c r="E138" s="26">
@@ -32217,7 +32885,10 @@
       <c r="M138" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="N138" s="13"/>
+      <c r="N138" s="77">
+        <f t="shared" si="31"/>
+        <v>3.3333333333333335</v>
+      </c>
       <c r="O138" s="12"/>
       <c r="P138" s="12">
         <v>13463</v>
@@ -32269,7 +32940,7 @@
         <v>6</v>
       </c>
       <c r="D141" s="7">
-        <f t="shared" ref="D141:D143" si="23">((E141/$E$8)+(F141/$F$8))/2</f>
+        <f t="shared" ref="D141:D143" si="32">((E141/$E$8)+(F141/$F$8))/2</f>
         <v>0.98803680200059751</v>
       </c>
       <c r="E141" s="26">
@@ -32299,7 +32970,10 @@
       <c r="M141" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="N141" s="13"/>
+      <c r="N141" s="77">
+        <f t="shared" ref="N141:N143" si="33">(32*K141*L141)/B141</f>
+        <v>5</v>
+      </c>
       <c r="O141" s="12"/>
       <c r="P141" s="12">
         <v>13463</v>
@@ -32319,7 +32993,7 @@
         <v>6</v>
       </c>
       <c r="D142" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>1.2674739543992231</v>
       </c>
       <c r="E142" s="26">
@@ -32349,7 +33023,10 @@
       <c r="M142" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="N142" s="13"/>
+      <c r="N142" s="77">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
       <c r="O142" s="12"/>
       <c r="P142" s="12">
         <v>13463</v>
@@ -32369,7 +33046,7 @@
         <v>6</v>
       </c>
       <c r="D143" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>0.972599955135665</v>
       </c>
       <c r="E143" s="26">
@@ -32399,7 +33076,10 @@
       <c r="M143" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="N143" s="13"/>
+      <c r="N143" s="77">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
       <c r="O143" s="12"/>
       <c r="P143" s="12">
         <v>13463</v>
@@ -32453,7 +33133,7 @@
         <v>6</v>
       </c>
       <c r="D146" s="7">
-        <f t="shared" ref="D146:D148" si="24">((E146/$E$8)+(F146/$F$8))/2</f>
+        <f t="shared" ref="D146:D148" si="34">((E146/$E$8)+(F146/$F$8))/2</f>
         <v>1.0016546605902059</v>
       </c>
       <c r="E146" s="26">
@@ -32483,7 +33163,10 @@
       <c r="M146" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N146" s="13"/>
+      <c r="N146" s="77">
+        <f t="shared" ref="N146:N148" si="35">(32*K146*L146)/B146</f>
+        <v>33.333333333333336</v>
+      </c>
       <c r="O146" s="12"/>
       <c r="P146" s="12">
         <v>973443</v>
@@ -32520,7 +33203,10 @@
       <c r="M147" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N147" s="13"/>
+      <c r="N147" s="77">
+        <f t="shared" si="35"/>
+        <v>33.333333333333336</v>
+      </c>
       <c r="O147" s="12"/>
       <c r="P147" s="12">
         <v>973443</v>
@@ -32538,7 +33224,7 @@
         <v>6</v>
       </c>
       <c r="D148" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>0.92450773816354181</v>
       </c>
       <c r="E148" s="26">
@@ -32568,7 +33254,10 @@
       <c r="M148" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N148" s="13"/>
+      <c r="N148" s="77">
+        <f t="shared" si="35"/>
+        <v>33.333333333333336</v>
+      </c>
       <c r="O148" s="12"/>
       <c r="P148" s="12">
         <v>973443</v>
@@ -32605,7 +33294,7 @@
         <v>6</v>
       </c>
       <c r="D150" s="7">
-        <f t="shared" ref="D150:D152" si="25">((E150/$E$8)+(F150/$F$8))/2</f>
+        <f t="shared" ref="D150:D152" si="36">((E150/$E$8)+(F150/$F$8))/2</f>
         <v>0.9470865615407924</v>
       </c>
       <c r="E150" s="26">
@@ -32635,7 +33324,10 @@
       <c r="M150" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N150" s="13"/>
+      <c r="N150" s="77">
+        <f t="shared" ref="N150" si="37">(32*K150*L150)/B150</f>
+        <v>33.333333333333336</v>
+      </c>
       <c r="O150" s="12"/>
       <c r="P150" s="12">
         <v>973443</v>
@@ -32672,7 +33364,7 @@
         <v>6</v>
       </c>
       <c r="D152" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>1.0297823366230652</v>
       </c>
       <c r="E152" s="26">
@@ -32702,7 +33394,10 @@
       <c r="M152" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N152" s="13"/>
+      <c r="N152" s="77">
+        <f t="shared" ref="N152" si="38">(32*K152*L152)/B152</f>
+        <v>33.333333333333336</v>
+      </c>
       <c r="O152" s="12"/>
       <c r="P152" s="12"/>
       <c r="R152" s="12"/>
@@ -32752,7 +33447,10 @@
       <c r="M154" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N154" s="13"/>
+      <c r="N154" s="77">
+        <f t="shared" ref="N154" si="39">(32*K154*L154)/B154</f>
+        <v>66.666666666666671</v>
+      </c>
       <c r="O154" s="12"/>
       <c r="P154" s="12">
         <v>973443</v>
@@ -32804,7 +33502,7 @@
         <v>6</v>
       </c>
       <c r="D157" s="7">
-        <f t="shared" ref="D157" si="26">((E157/$E$8)+(F157/$F$8))/2</f>
+        <f t="shared" ref="D157" si="40">((E157/$E$8)+(F157/$F$8))/2</f>
         <v>0.9179209029648796</v>
       </c>
       <c r="E157" s="26">
@@ -32834,7 +33532,10 @@
       <c r="M157" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="N157" s="13"/>
+      <c r="N157" s="77">
+        <f t="shared" ref="N157" si="41">(32*K157*L157)/B157</f>
+        <v>66.666666666666671</v>
+      </c>
       <c r="O157" s="12"/>
       <c r="P157" s="12">
         <v>13463</v>
@@ -32885,7 +33586,7 @@
         <v>6</v>
       </c>
       <c r="D160" s="7">
-        <f t="shared" ref="D160:D165" si="27">((E160/$E$8)+(F160/$F$8))/2</f>
+        <f t="shared" ref="D160:D165" si="42">((E160/$E$8)+(F160/$F$8))/2</f>
         <v>1.0143704247795569</v>
       </c>
       <c r="E160" s="26">
@@ -32909,11 +33610,13 @@
       <c r="K160" s="12">
         <v>100</v>
       </c>
-      <c r="L160" s="12"/>
+      <c r="L160" s="11">
+        <v>100</v>
+      </c>
       <c r="M160" s="12"/>
-      <c r="N160" s="12"/>
-      <c r="O160" s="11">
-        <v>100</v>
+      <c r="N160" s="77">
+        <f t="shared" ref="N160:N166" si="43">(32*K160*L160)/B160</f>
+        <v>6.666666666666667</v>
       </c>
       <c r="P160" s="12">
         <v>13463</v>
@@ -32930,7 +33633,7 @@
         <v>6</v>
       </c>
       <c r="D161" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="42"/>
         <v>0.93886239618534639</v>
       </c>
       <c r="E161" s="26">
@@ -32954,11 +33657,13 @@
       <c r="K161" s="12">
         <v>200</v>
       </c>
-      <c r="L161" s="12"/>
+      <c r="L161" s="11">
+        <v>100</v>
+      </c>
       <c r="M161" s="12"/>
-      <c r="N161" s="12"/>
-      <c r="O161" s="11">
-        <v>100</v>
+      <c r="N161" s="77">
+        <f t="shared" si="43"/>
+        <v>13.333333333333334</v>
       </c>
       <c r="P161" s="12">
         <v>13463</v>
@@ -32975,7 +33680,7 @@
         <v>6</v>
       </c>
       <c r="D162" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="42"/>
         <v>0.99579388487488596</v>
       </c>
       <c r="E162" s="26">
@@ -32999,11 +33704,13 @@
       <c r="K162" s="12">
         <v>400</v>
       </c>
-      <c r="L162" s="12"/>
+      <c r="L162" s="11">
+        <v>100</v>
+      </c>
       <c r="M162" s="12"/>
-      <c r="N162" s="12"/>
-      <c r="O162" s="11">
-        <v>100</v>
+      <c r="N162" s="77">
+        <f t="shared" si="43"/>
+        <v>26.666666666666668</v>
       </c>
       <c r="P162" s="12">
         <v>13463</v>
@@ -33020,7 +33727,7 @@
         <v>6</v>
       </c>
       <c r="D163" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="42"/>
         <v>0.97606028588194926</v>
       </c>
       <c r="E163" s="26">
@@ -33044,11 +33751,13 @@
       <c r="K163" s="12">
         <v>50</v>
       </c>
-      <c r="L163" s="12"/>
+      <c r="L163" s="11">
+        <v>200</v>
+      </c>
       <c r="M163" s="12"/>
-      <c r="N163" s="12"/>
-      <c r="O163" s="11">
-        <v>200</v>
+      <c r="N163" s="77">
+        <f t="shared" si="43"/>
+        <v>6.666666666666667</v>
       </c>
       <c r="P163" s="12">
         <v>13463</v>
@@ -33065,7 +33774,7 @@
         <v>6</v>
       </c>
       <c r="D164" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="42"/>
         <v>0.95460901854021318</v>
       </c>
       <c r="E164" s="26">
@@ -33089,11 +33798,13 @@
       <c r="K164" s="12">
         <v>100</v>
       </c>
-      <c r="L164" s="12"/>
+      <c r="L164" s="11">
+        <v>200</v>
+      </c>
       <c r="M164" s="12"/>
-      <c r="N164" s="12"/>
-      <c r="O164" s="11">
-        <v>200</v>
+      <c r="N164" s="77">
+        <f t="shared" si="43"/>
+        <v>13.333333333333334</v>
       </c>
       <c r="P164" s="12">
         <v>13463</v>
@@ -33110,7 +33821,7 @@
         <v>6</v>
       </c>
       <c r="D165" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="42"/>
         <v>0.95156577660809716</v>
       </c>
       <c r="E165" s="26">
@@ -33134,11 +33845,13 @@
       <c r="K165" s="12">
         <v>200</v>
       </c>
-      <c r="L165" s="12"/>
+      <c r="L165" s="11">
+        <v>200</v>
+      </c>
       <c r="M165" s="12"/>
-      <c r="N165" s="12"/>
-      <c r="O165" s="11">
-        <v>200</v>
+      <c r="N165" s="77">
+        <f t="shared" si="43"/>
+        <v>26.666666666666668</v>
       </c>
       <c r="P165" s="12">
         <v>13463</v>
@@ -33176,11 +33889,13 @@
       <c r="K166" s="12">
         <v>400</v>
       </c>
-      <c r="L166" s="12"/>
+      <c r="L166" s="11">
+        <v>200</v>
+      </c>
       <c r="M166" s="12"/>
-      <c r="N166" s="12"/>
-      <c r="O166" s="11">
-        <v>200</v>
+      <c r="N166" s="77">
+        <f t="shared" si="43"/>
+        <v>53.333333333333336</v>
       </c>
       <c r="P166" s="12">
         <v>13463</v>
@@ -33250,7 +33965,7 @@
         <v>3</v>
       </c>
       <c r="D170" s="7">
-        <f t="shared" ref="D170:D172" si="28">((E170/$E$8)+(F170/$F$8))/2</f>
+        <f t="shared" ref="D170:D172" si="44">((E170/$E$8)+(F170/$F$8))/2</f>
         <v>0.99081206417379719</v>
       </c>
       <c r="E170" s="26">
@@ -33280,7 +33995,10 @@
       <c r="M170" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N170" s="13"/>
+      <c r="N170" s="77">
+        <f t="shared" ref="N170:N172" si="45">(32*K170*L170)/B170</f>
+        <v>0.83333333333333337</v>
+      </c>
       <c r="O170" s="12"/>
       <c r="P170" s="12">
         <v>973443</v>
@@ -33298,7 +34016,7 @@
         <v>3</v>
       </c>
       <c r="D171" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="44"/>
         <v>0.99768149856275157</v>
       </c>
       <c r="E171" s="26">
@@ -33328,7 +34046,10 @@
       <c r="M171" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N171" s="13"/>
+      <c r="N171" s="77">
+        <f t="shared" si="45"/>
+        <v>0.83333333333333337</v>
+      </c>
       <c r="O171" s="12"/>
       <c r="P171" s="12">
         <v>973443</v>
@@ -33346,7 +34067,7 @@
         <v>3</v>
       </c>
       <c r="D172" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="44"/>
         <v>0.99769478102525566</v>
       </c>
       <c r="E172" s="26">
@@ -33376,7 +34097,10 @@
       <c r="M172" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N172" s="13"/>
+      <c r="N172" s="77">
+        <f t="shared" si="45"/>
+        <v>0.83333333333333337</v>
+      </c>
       <c r="O172" s="12"/>
       <c r="P172" s="12">
         <v>973443</v>
@@ -33428,7 +34152,7 @@
         <v>3</v>
       </c>
       <c r="D175" s="7">
-        <f t="shared" ref="D175:D177" si="29">((E175/$E$8)+(F175/$F$8))/2</f>
+        <f t="shared" ref="D175:D177" si="46">((E175/$E$8)+(F175/$F$8))/2</f>
         <v>0.99080082824967364</v>
       </c>
       <c r="E175" s="26">
@@ -33458,7 +34182,10 @@
       <c r="M175" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N175" s="13"/>
+      <c r="N175" s="77">
+        <f t="shared" ref="N175:N182" si="47">(32*K175*L175)/B175</f>
+        <v>1.6666666666666667</v>
+      </c>
       <c r="O175" s="12"/>
       <c r="P175" s="12">
         <v>973443</v>
@@ -33478,7 +34205,7 @@
         <v>3</v>
       </c>
       <c r="D176" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="46"/>
         <v>0.99772168828228613</v>
       </c>
       <c r="E176" s="26">
@@ -33508,7 +34235,10 @@
       <c r="M176" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N176" s="13"/>
+      <c r="N176" s="77">
+        <f t="shared" si="47"/>
+        <v>1.6666666666666667</v>
+      </c>
       <c r="O176" s="12"/>
       <c r="P176" s="12">
         <v>973443</v>
@@ -33526,7 +34256,7 @@
         <v>3</v>
       </c>
       <c r="D177" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="46"/>
         <v>0.99763338796592382</v>
       </c>
       <c r="E177" s="26">
@@ -33556,7 +34286,10 @@
       <c r="M177" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N177" s="13"/>
+      <c r="N177" s="77">
+        <f t="shared" si="47"/>
+        <v>1.6666666666666667</v>
+      </c>
       <c r="O177" s="12"/>
       <c r="P177" s="12">
         <v>973443</v>
@@ -33575,7 +34308,7 @@
       <c r="K178" s="12"/>
       <c r="L178" s="12"/>
       <c r="M178" s="12"/>
-      <c r="N178" s="13"/>
+      <c r="N178" s="77"/>
       <c r="O178" s="12"/>
       <c r="P178" s="12"/>
       <c r="R178" s="12"/>
@@ -33607,7 +34340,7 @@
         <v>3</v>
       </c>
       <c r="D180" s="7">
-        <f t="shared" ref="D180:D182" si="30">((E180/$E$8)+(F180/$F$8))/2</f>
+        <f t="shared" ref="D180:D182" si="48">((E180/$E$8)+(F180/$F$8))/2</f>
         <v>0.99084958120589062</v>
       </c>
       <c r="E180" s="26">
@@ -33637,7 +34370,10 @@
       <c r="M180" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N180" s="13"/>
+      <c r="N180" s="77">
+        <f t="shared" si="47"/>
+        <v>3.3333333333333335</v>
+      </c>
       <c r="O180" s="12"/>
       <c r="P180" s="12">
         <v>973443</v>
@@ -33655,7 +34391,7 @@
         <v>3</v>
       </c>
       <c r="D181" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="48"/>
         <v>0.9976882285830484</v>
       </c>
       <c r="E181" s="26">
@@ -33685,7 +34421,10 @@
       <c r="M181" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N181" s="13"/>
+      <c r="N181" s="77">
+        <f t="shared" si="47"/>
+        <v>3.3333333333333335</v>
+      </c>
       <c r="O181" s="12"/>
       <c r="P181" s="12">
         <v>973443</v>
@@ -33705,7 +34444,7 @@
         <v>3</v>
       </c>
       <c r="D182" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="48"/>
         <v>0.99767724644740463</v>
       </c>
       <c r="E182" s="26">
@@ -33735,7 +34474,10 @@
       <c r="M182" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N182" s="13"/>
+      <c r="N182" s="77">
+        <f t="shared" si="47"/>
+        <v>3.3333333333333335</v>
+      </c>
       <c r="O182" s="12"/>
       <c r="P182" s="12">
         <v>973443</v>
@@ -33788,7 +34530,7 @@
         <v>3</v>
       </c>
       <c r="D185" s="7">
-        <f t="shared" ref="D185:D186" si="31">((E185/$E$8)+(F185/$F$8))/2</f>
+        <f t="shared" ref="D185:D186" si="49">((E185/$E$8)+(F185/$F$8))/2</f>
         <v>0.9931993594106403</v>
       </c>
       <c r="E185" s="26">
@@ -33818,7 +34560,10 @@
       <c r="M185" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="N185" s="13"/>
+      <c r="N185" s="77">
+        <f t="shared" ref="N185:N187" si="50">(32*K185*L185)/B185</f>
+        <v>0.83333333333333337</v>
+      </c>
       <c r="O185" s="12"/>
       <c r="P185" s="12"/>
       <c r="R185" s="12" t="s">
@@ -33836,7 +34581,7 @@
         <v>3</v>
       </c>
       <c r="D186" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="49"/>
         <v>0.99568912709595603</v>
       </c>
       <c r="E186" s="26">
@@ -33866,7 +34611,10 @@
       <c r="M186" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="N186" s="13"/>
+      <c r="N186" s="77">
+        <f t="shared" si="50"/>
+        <v>0.83333333333333337</v>
+      </c>
       <c r="O186" s="12"/>
       <c r="P186" s="12"/>
       <c r="R186" s="12" t="s">
@@ -33909,7 +34657,10 @@
       <c r="M187" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="N187" s="13"/>
+      <c r="N187" s="77">
+        <f t="shared" si="50"/>
+        <v>0.83333333333333337</v>
+      </c>
       <c r="O187" s="12"/>
       <c r="P187" s="12"/>
       <c r="R187" s="12" t="s">
@@ -33961,7 +34712,7 @@
         <v>3</v>
       </c>
       <c r="D190" s="7">
-        <f t="shared" ref="D190" si="32">((E190/$E$8)+(F190/$F$8))/2</f>
+        <f t="shared" ref="D190" si="51">((E190/$E$8)+(F190/$F$8))/2</f>
         <v>1.0541670700208616</v>
       </c>
       <c r="E190" s="26">
@@ -33991,7 +34742,10 @@
       <c r="M190" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="N190" s="13"/>
+      <c r="N190" s="77">
+        <f t="shared" ref="N190:N192" si="52">(32*K190*L190)/B190</f>
+        <v>6.666666666666667</v>
+      </c>
       <c r="O190" s="12"/>
       <c r="P190" s="12">
         <v>21510</v>
@@ -34028,7 +34782,10 @@
       <c r="M191" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="N191" s="13"/>
+      <c r="N191" s="77">
+        <f t="shared" si="52"/>
+        <v>6.666666666666667</v>
+      </c>
       <c r="O191" s="12"/>
       <c r="P191" s="12">
         <v>21510</v>
@@ -34063,7 +34820,10 @@
       <c r="M192" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="N192" s="13"/>
+      <c r="N192" s="77">
+        <f t="shared" si="52"/>
+        <v>6.666666666666667</v>
+      </c>
       <c r="O192" s="12"/>
       <c r="P192" s="12">
         <v>21510</v>
@@ -34115,7 +34875,7 @@
         <v>3</v>
       </c>
       <c r="D195" s="7">
-        <f t="shared" ref="D195" si="33">((E195/$E$8)+(F195/$F$8))/2</f>
+        <f t="shared" ref="D195" si="53">((E195/$E$8)+(F195/$F$8))/2</f>
         <v>0.96278377075530153</v>
       </c>
       <c r="E195" s="26">
@@ -34145,7 +34905,10 @@
       <c r="M195" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N195" s="13"/>
+      <c r="N195" s="77">
+        <f t="shared" ref="N195:N197" si="54">(32*K195*L195)/B195</f>
+        <v>33.333333333333336</v>
+      </c>
       <c r="O195" s="12"/>
       <c r="P195" s="12">
         <v>21510</v>
@@ -34182,7 +34945,10 @@
       <c r="M196" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N196" s="13"/>
+      <c r="N196" s="77">
+        <f t="shared" si="54"/>
+        <v>33.333333333333336</v>
+      </c>
       <c r="O196" s="12"/>
       <c r="P196" s="12">
         <v>21510</v>
@@ -34217,7 +34983,10 @@
       <c r="M197" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N197" s="13"/>
+      <c r="N197" s="77">
+        <f t="shared" si="54"/>
+        <v>33.333333333333336</v>
+      </c>
       <c r="O197" s="12"/>
       <c r="P197" s="12">
         <v>21510</v>
@@ -34268,7 +35037,7 @@
         <v>3</v>
       </c>
       <c r="D200" s="7">
-        <f t="shared" ref="D200:D202" si="34">((E200/$E$8)+(F200/$F$8))/2</f>
+        <f t="shared" ref="D200:D202" si="55">((E200/$E$8)+(F200/$F$8))/2</f>
         <v>0.99084529523371345</v>
       </c>
       <c r="E200" s="26">
@@ -34298,7 +35067,10 @@
       <c r="M200" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N200" s="13"/>
+      <c r="N200" s="77">
+        <f t="shared" ref="N200:N202" si="56">(32*K200*L200)/B200</f>
+        <v>3.3333333333333335</v>
+      </c>
       <c r="O200" s="12"/>
       <c r="P200" s="12">
         <v>21510</v>
@@ -34318,7 +35090,7 @@
         <v>3</v>
       </c>
       <c r="D201" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="55"/>
         <v>0.99768675039047272</v>
       </c>
       <c r="E201" s="13">
@@ -34348,7 +35120,10 @@
       <c r="M201" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N201" s="13"/>
+      <c r="N201" s="77">
+        <f t="shared" si="56"/>
+        <v>3.3333333333333335</v>
+      </c>
       <c r="O201" s="12"/>
       <c r="P201" s="12"/>
       <c r="R201" s="12"/>
@@ -34364,7 +35139,7 @@
         <v>3</v>
       </c>
       <c r="D202" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="55"/>
         <v>0.99767305827026398</v>
       </c>
       <c r="E202" s="13">
@@ -34394,7 +35169,10 @@
       <c r="M202" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N202" s="13"/>
+      <c r="N202" s="77">
+        <f t="shared" si="56"/>
+        <v>3.3333333333333335</v>
+      </c>
       <c r="O202" s="12"/>
       <c r="P202" s="12"/>
       <c r="R202" s="12"/>
@@ -34441,7 +35219,15 @@
       <c r="R204" s="12"/>
     </row>
     <row r="205" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="C205" s="12"/>
+      <c r="A205" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B205" s="11">
+        <v>48000</v>
+      </c>
+      <c r="C205" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="D205" s="7"/>
       <c r="E205" s="13"/>
       <c r="F205" s="14"/>
@@ -34449,9 +35235,19 @@
       <c r="H205" s="13"/>
       <c r="I205" s="13"/>
       <c r="J205" s="12"/>
-      <c r="L205" s="12"/>
-      <c r="M205" s="12"/>
-      <c r="N205" s="13"/>
+      <c r="K205" s="11">
+        <v>500</v>
+      </c>
+      <c r="L205" s="12">
+        <v>100</v>
+      </c>
+      <c r="M205" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N205" s="77">
+        <f t="shared" ref="N205" si="57">(32*K205*L205)/B205</f>
+        <v>33.333333333333336</v>
+      </c>
       <c r="O205" s="12"/>
       <c r="P205" s="12"/>
       <c r="R205" s="12"/>
@@ -34537,7 +35333,7 @@
         <v>188</v>
       </c>
       <c r="D210" s="7">
-        <f t="shared" ref="D210:D211" si="35">((E210/$E$8)+(F210/$F$8))/2</f>
+        <f t="shared" ref="D210:D211" si="58">((E210/$E$8)+(F210/$F$8))/2</f>
         <v>61.142858435925802</v>
       </c>
       <c r="E210" s="26">
@@ -34582,7 +35378,7 @@
         <v>188</v>
       </c>
       <c r="D211" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="58"/>
         <v>55.072680331985026</v>
       </c>
       <c r="E211" s="26">
@@ -35090,12 +35886,347 @@
       <c r="O228" s="12"/>
       <c r="P228" s="12"/>
     </row>
+    <row r="229" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A229" s="86" t="s">
+        <v>366</v>
+      </c>
+      <c r="B229" s="86"/>
+      <c r="C229" s="86"/>
+      <c r="D229" s="86"/>
+      <c r="E229" s="86"/>
+      <c r="F229" s="86"/>
+      <c r="G229" s="86"/>
+      <c r="H229" s="86"/>
+      <c r="I229" s="86"/>
+      <c r="J229" s="86"/>
+      <c r="K229" s="86"/>
+      <c r="L229" s="86"/>
+      <c r="M229" s="86"/>
+      <c r="N229" s="86"/>
+      <c r="O229" s="86"/>
+      <c r="P229" s="86"/>
+      <c r="Q229" s="86"/>
+      <c r="R229" s="86"/>
+    </row>
+    <row r="231" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E231" s="11">
+        <v>8.505706</v>
+      </c>
+      <c r="F231" s="11">
+        <v>0.58020799999999995</v>
+      </c>
+      <c r="G231" s="11">
+        <v>304.81164699999999</v>
+      </c>
+      <c r="H231" s="11">
+        <v>0.583758</v>
+      </c>
+      <c r="I231" s="11">
+        <v>1.002486</v>
+      </c>
+      <c r="J231" s="11">
+        <v>42</v>
+      </c>
+      <c r="K231" s="11">
+        <v>100</v>
+      </c>
+      <c r="L231" s="11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="232" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E232" s="11">
+        <v>9.8089899999999997</v>
+      </c>
+      <c r="F232" s="11">
+        <v>0.63273400000000002</v>
+      </c>
+      <c r="G232" s="11">
+        <v>298.06829599999998</v>
+      </c>
+      <c r="H232" s="11">
+        <v>0.60359600000000002</v>
+      </c>
+      <c r="I232" s="11">
+        <v>0.95560800000000001</v>
+      </c>
+      <c r="J232" s="11">
+        <v>43</v>
+      </c>
+      <c r="K232" s="11">
+        <v>100</v>
+      </c>
+      <c r="L232" s="11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="233" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E233" s="11">
+        <v>10.999508000000001</v>
+      </c>
+      <c r="F233" s="11">
+        <v>0.69959199999999999</v>
+      </c>
+      <c r="G233" s="11">
+        <v>344.83468199999999</v>
+      </c>
+      <c r="H233" s="11">
+        <v>0.64386299999999996</v>
+      </c>
+      <c r="I233" s="11">
+        <v>1.0639080000000001</v>
+      </c>
+      <c r="J233" s="11">
+        <v>44</v>
+      </c>
+      <c r="K233" s="11">
+        <v>100</v>
+      </c>
+      <c r="L233" s="11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="236" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E236" s="11">
+        <v>5.2245280000000003</v>
+      </c>
+      <c r="F236" s="11">
+        <v>0.339866</v>
+      </c>
+      <c r="G236" s="11">
+        <v>120.09990500000001</v>
+      </c>
+      <c r="H236" s="11">
+        <v>0.35918699999999998</v>
+      </c>
+      <c r="I236" s="11">
+        <v>0.47034199999999998</v>
+      </c>
+      <c r="J236" s="11">
+        <v>42</v>
+      </c>
+      <c r="K236" s="11">
+        <v>100</v>
+      </c>
+      <c r="L236" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="237" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E237" s="11">
+        <v>10.150007</v>
+      </c>
+      <c r="F237" s="11">
+        <v>0.57303899999999997</v>
+      </c>
+      <c r="G237" s="11">
+        <v>241.31389200000001</v>
+      </c>
+      <c r="H237" s="11">
+        <v>0.54761800000000005</v>
+      </c>
+      <c r="I237" s="11">
+        <v>0.759189</v>
+      </c>
+      <c r="J237" s="11">
+        <v>43</v>
+      </c>
+      <c r="K237" s="11">
+        <v>100</v>
+      </c>
+      <c r="L237" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="238" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E238" s="11">
+        <v>4.5088290000000004</v>
+      </c>
+      <c r="F238" s="11">
+        <v>0.309361</v>
+      </c>
+      <c r="G238" s="11">
+        <v>103.70668499999999</v>
+      </c>
+      <c r="H238" s="11">
+        <v>0.34192099999999997</v>
+      </c>
+      <c r="I238" s="11">
+        <v>0.42577900000000002</v>
+      </c>
+      <c r="J238" s="11">
+        <v>44</v>
+      </c>
+      <c r="K238" s="11">
+        <v>100</v>
+      </c>
+      <c r="L238" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="242" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E242" s="11">
+        <v>5.1878690000000001</v>
+      </c>
+      <c r="F242" s="11">
+        <v>0.32333400000000001</v>
+      </c>
+      <c r="G242" s="11">
+        <v>80.270509000000004</v>
+      </c>
+      <c r="H242" s="11">
+        <v>0.30210399999999998</v>
+      </c>
+      <c r="I242" s="11">
+        <v>0.29959599999999997</v>
+      </c>
+      <c r="J242" s="11">
+        <v>42</v>
+      </c>
+      <c r="K242" s="11">
+        <v>200</v>
+      </c>
+      <c r="L242" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="243" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E243" s="11">
+        <v>6.7913389999999998</v>
+      </c>
+      <c r="F243" s="11">
+        <v>0.40531899999999998</v>
+      </c>
+      <c r="G243" s="11">
+        <v>137.07679999999999</v>
+      </c>
+      <c r="H243" s="11">
+        <v>0.40382899999999999</v>
+      </c>
+      <c r="I243" s="11">
+        <v>0.50218300000000005</v>
+      </c>
+      <c r="J243" s="11">
+        <v>43</v>
+      </c>
+      <c r="K243" s="11">
+        <v>200</v>
+      </c>
+      <c r="L243" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="244" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E244" s="11">
+        <v>3.067815</v>
+      </c>
+      <c r="F244" s="11">
+        <v>0.236875</v>
+      </c>
+      <c r="G244" s="11">
+        <v>57.391995000000001</v>
+      </c>
+      <c r="H244" s="11">
+        <v>0.25984400000000002</v>
+      </c>
+      <c r="I244" s="11">
+        <v>0.26872099999999999</v>
+      </c>
+      <c r="J244" s="11">
+        <v>44</v>
+      </c>
+      <c r="K244" s="11">
+        <v>200</v>
+      </c>
+      <c r="L244" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="248" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E248" s="11">
+        <v>3.0569440000000001</v>
+      </c>
+      <c r="F248" s="11">
+        <v>0.23919399999999999</v>
+      </c>
+      <c r="G248" s="11">
+        <v>42.574936000000001</v>
+      </c>
+      <c r="H248" s="11">
+        <v>0.205483</v>
+      </c>
+      <c r="I248" s="11">
+        <v>0.157363</v>
+      </c>
+      <c r="J248" s="11">
+        <v>42</v>
+      </c>
+      <c r="K248" s="11">
+        <v>500</v>
+      </c>
+      <c r="L248" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="249" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E249" s="11">
+        <v>3.9077839999999999</v>
+      </c>
+      <c r="F249" s="11">
+        <v>0.26971400000000001</v>
+      </c>
+      <c r="G249" s="11">
+        <v>48.552444999999999</v>
+      </c>
+      <c r="H249" s="11">
+        <v>0.234934</v>
+      </c>
+      <c r="I249" s="11">
+        <v>0.16792399999999999</v>
+      </c>
+      <c r="J249" s="11">
+        <v>43</v>
+      </c>
+      <c r="K249" s="11">
+        <v>500</v>
+      </c>
+      <c r="L249" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="250" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E250" s="11">
+        <v>3.073226</v>
+      </c>
+      <c r="F250" s="11">
+        <v>0.23783599999999999</v>
+      </c>
+      <c r="G250" s="11">
+        <v>47.660133999999999</v>
+      </c>
+      <c r="H250" s="11">
+        <v>0.21106</v>
+      </c>
+      <c r="I250" s="11">
+        <v>0.16855100000000001</v>
+      </c>
+      <c r="J250" s="11">
+        <v>44</v>
+      </c>
+      <c r="K250" s="11">
+        <v>500</v>
+      </c>
+      <c r="L250" s="11">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A19:R19"/>
     <mergeCell ref="A169:R169"/>
     <mergeCell ref="A209:R209"/>
     <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A229:R229"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -35104,11 +36235,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CCAEF6-E0AA-4EA9-B4C8-367C9CAD3E2A}">
-  <dimension ref="A1:P153"/>
+  <dimension ref="A1:P187"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K73" sqref="K73"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D187" sqref="D187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -39564,7 +40695,7 @@
         <v>3</v>
       </c>
       <c r="D123" s="9">
-        <f t="shared" ref="D123:D127" si="26">((E123/$E$10)+(F123/$F$10))/2</f>
+        <f t="shared" ref="D123:D130" si="26">((E123/$E$10)+(F123/$F$10))/2</f>
         <v>1.1235273811832618</v>
       </c>
       <c r="E123" s="17">
@@ -39595,7 +40726,7 @@
         <v>24</v>
       </c>
       <c r="N123" s="76">
-        <f t="shared" ref="N123:N127" si="27">(32*L123*K123)/B123</f>
+        <f t="shared" ref="N123:N130" si="27">(32*L123*K123)/B123</f>
         <v>6.666666666666667</v>
       </c>
       <c r="O123" s="1" t="s">
@@ -39606,142 +40737,43 @@
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A124" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B124" s="5">
-        <v>24000</v>
-      </c>
-      <c r="C124" t="s">
-        <v>3</v>
-      </c>
-      <c r="D124" s="9">
-        <f t="shared" si="26"/>
-        <v>1.1118905753103239</v>
-      </c>
-      <c r="E124">
-        <v>1.481865</v>
-      </c>
-      <c r="F124" s="17">
-        <v>0.125858</v>
-      </c>
-      <c r="G124" s="17">
-        <v>23.388535999999998</v>
-      </c>
-      <c r="H124" s="17">
-        <v>0.118382</v>
-      </c>
-      <c r="I124" s="17">
-        <v>7.4878E-2</v>
-      </c>
-      <c r="J124" s="10">
-        <v>42</v>
-      </c>
-      <c r="K124" s="9">
-        <v>200</v>
-      </c>
-      <c r="L124" s="9">
-        <v>50</v>
-      </c>
-      <c r="M124" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="N124" s="76">
-        <f t="shared" si="27"/>
-        <v>13.333333333333334</v>
-      </c>
+      <c r="A124" s="5"/>
+      <c r="B124" s="5"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="17"/>
+      <c r="F124" s="17"/>
+      <c r="G124" s="17"/>
+      <c r="H124" s="17"/>
+      <c r="I124" s="17"/>
+      <c r="K124" s="9"/>
+      <c r="L124" s="9"/>
+      <c r="N124" s="76"/>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A125" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B125" s="5">
-        <v>24000</v>
-      </c>
-      <c r="C125" t="s">
-        <v>3</v>
-      </c>
-      <c r="D125" s="9">
-        <f t="shared" si="26"/>
-        <v>1.0902441927286803</v>
-      </c>
-      <c r="E125">
-        <v>1.452453</v>
-      </c>
-      <c r="F125" s="17">
-        <v>0.12345299999999999</v>
-      </c>
-      <c r="G125" s="17">
-        <v>26.977201999999998</v>
-      </c>
-      <c r="H125" s="17">
-        <v>0.11766</v>
-      </c>
-      <c r="I125" s="17">
-        <v>7.3832999999999996E-2</v>
-      </c>
-      <c r="J125" s="10">
-        <v>42</v>
-      </c>
-      <c r="K125" s="9">
-        <v>500</v>
-      </c>
-      <c r="L125" s="9">
-        <v>50</v>
-      </c>
-      <c r="M125" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="N125" s="76">
-        <f t="shared" si="27"/>
-        <v>33.333333333333336</v>
-      </c>
+      <c r="A125" s="5"/>
+      <c r="B125" s="5"/>
+      <c r="D125" s="9"/>
+      <c r="E125" s="17"/>
+      <c r="F125" s="17"/>
+      <c r="G125" s="17"/>
+      <c r="H125" s="17"/>
+      <c r="I125" s="17"/>
+      <c r="K125" s="9"/>
+      <c r="L125" s="9"/>
+      <c r="N125" s="76"/>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A126" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B126" s="5">
-        <v>24000</v>
-      </c>
-      <c r="C126" t="s">
-        <v>3</v>
-      </c>
-      <c r="D126" s="9">
-        <f t="shared" si="26"/>
-        <v>1.059299041741613</v>
-      </c>
-      <c r="E126">
-        <v>1.3977648899999999</v>
-      </c>
-      <c r="F126" s="17">
-        <v>0.12103024</v>
-      </c>
-      <c r="G126" s="17">
-        <v>27.225156770000002</v>
-      </c>
-      <c r="H126" s="17">
-        <v>0.11380669</v>
-      </c>
-      <c r="I126" s="17">
-        <v>7.8012319999999996E-2</v>
-      </c>
-      <c r="J126" s="10">
-        <v>42</v>
-      </c>
-      <c r="K126" s="9">
-        <v>1000</v>
-      </c>
-      <c r="L126" s="9">
-        <v>50</v>
-      </c>
-      <c r="M126" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="N126" s="76">
-        <f t="shared" si="27"/>
-        <v>66.666666666666671</v>
-      </c>
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
+      <c r="D126" s="9"/>
+      <c r="E126" s="17"/>
+      <c r="F126" s="17"/>
+      <c r="G126" s="17"/>
+      <c r="H126" s="17"/>
+      <c r="I126" s="17"/>
+      <c r="K126" s="9"/>
+      <c r="L126" s="9"/>
+      <c r="N126" s="76"/>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
@@ -39755,28 +40787,28 @@
       </c>
       <c r="D127" s="9">
         <f t="shared" si="26"/>
-        <v>1.0512180843495975</v>
+        <v>1.1118905753103239</v>
       </c>
       <c r="E127">
-        <v>1.4229449999999999</v>
+        <v>1.481865</v>
       </c>
       <c r="F127" s="17">
-        <v>0.117228</v>
+        <v>0.125858</v>
       </c>
       <c r="G127" s="17">
-        <v>37.663232000000001</v>
+        <v>23.388535999999998</v>
       </c>
       <c r="H127" s="17">
-        <v>0.11072700000000001</v>
+        <v>0.118382</v>
       </c>
       <c r="I127" s="17">
-        <v>7.8496999999999997E-2</v>
+        <v>7.4878E-2</v>
       </c>
       <c r="J127" s="10">
         <v>42</v>
       </c>
       <c r="K127" s="9">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="L127" s="9">
         <v>50</v>
@@ -39786,15 +40818,56 @@
       </c>
       <c r="N127" s="76">
         <f t="shared" si="27"/>
-        <v>133.33333333333334</v>
+        <v>13.333333333333334</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A128" s="5"/>
-      <c r="K128" s="9"/>
-      <c r="N128" s="19"/>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A128" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B128" s="5">
+        <v>24000</v>
+      </c>
+      <c r="C128" t="s">
+        <v>3</v>
+      </c>
+      <c r="D128" s="9">
+        <f t="shared" si="26"/>
+        <v>1.0902441927286803</v>
+      </c>
+      <c r="E128">
+        <v>1.452453</v>
+      </c>
+      <c r="F128" s="17">
+        <v>0.12345299999999999</v>
+      </c>
+      <c r="G128" s="17">
+        <v>26.977201999999998</v>
+      </c>
+      <c r="H128" s="17">
+        <v>0.11766</v>
+      </c>
+      <c r="I128" s="17">
+        <v>7.3832999999999996E-2</v>
+      </c>
+      <c r="J128" s="10">
+        <v>42</v>
+      </c>
+      <c r="K128" s="9">
+        <v>500</v>
+      </c>
+      <c r="L128" s="9">
+        <v>50</v>
+      </c>
+      <c r="M128" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N128" s="76">
+        <f t="shared" si="27"/>
+        <v>33.333333333333336</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A129" s="5" t="s">
         <v>162</v>
       </c>
@@ -39805,42 +40878,42 @@
         <v>3</v>
       </c>
       <c r="D129" s="9">
-        <f t="shared" ref="D129:D133" si="28">((E129/$E$10)+(F129/$F$10))/2</f>
-        <v>1.0701656348369248</v>
+        <f t="shared" si="26"/>
+        <v>1.059299041741613</v>
       </c>
       <c r="E129">
-        <v>1.410134</v>
+        <v>1.3977648899999999</v>
       </c>
       <c r="F129" s="17">
-        <v>0.12243</v>
+        <v>0.12103024</v>
       </c>
       <c r="G129" s="17">
-        <v>34.228634999999997</v>
+        <v>27.225156770000002</v>
       </c>
       <c r="H129" s="17">
-        <v>0.11416999999999999</v>
+        <v>0.11380669</v>
       </c>
       <c r="I129" s="17">
-        <v>9.9830000000000002E-2</v>
+        <v>7.8012319999999996E-2</v>
       </c>
       <c r="J129" s="10">
         <v>42</v>
       </c>
       <c r="K129" s="9">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="L129" s="9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M129" s="10" t="s">
         <v>24</v>
       </c>
       <c r="N129" s="76">
-        <f t="shared" ref="N129:N133" si="29">(32*L129*K129)/B129</f>
-        <v>13.333333333333334</v>
-      </c>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
+        <f t="shared" si="27"/>
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A130" s="5" t="s">
         <v>162</v>
       </c>
@@ -39850,705 +40923,388 @@
       <c r="C130" t="s">
         <v>3</v>
       </c>
-      <c r="D130" s="9"/>
+      <c r="D130" s="9">
+        <f t="shared" si="26"/>
+        <v>1.0512180843495975</v>
+      </c>
+      <c r="E130">
+        <v>1.4229449999999999</v>
+      </c>
+      <c r="F130" s="17">
+        <v>0.117228</v>
+      </c>
+      <c r="G130" s="17">
+        <v>37.663232000000001</v>
+      </c>
+      <c r="H130" s="17">
+        <v>0.11072700000000001</v>
+      </c>
+      <c r="I130" s="17">
+        <v>7.8496999999999997E-2</v>
+      </c>
       <c r="J130" s="10">
         <v>42</v>
       </c>
       <c r="K130" s="9">
-        <v>250</v>
-      </c>
-      <c r="L130" s="10">
-        <v>100</v>
+        <v>2000</v>
+      </c>
+      <c r="L130" s="9">
+        <v>50</v>
       </c>
       <c r="M130" s="10" t="s">
         <v>24</v>
       </c>
       <c r="N130" s="76">
-        <f t="shared" si="29"/>
-        <v>33.333333333333336</v>
-      </c>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A131" s="5" t="s">
+        <f t="shared" si="27"/>
+        <v>133.33333333333334</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A131" s="5"/>
+      <c r="K131" s="9"/>
+      <c r="N131" s="19"/>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A132" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B131" s="5">
+      <c r="B132" s="5">
         <v>24000</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C132" t="s">
         <v>3</v>
       </c>
-      <c r="D131" s="9">
+      <c r="D132" s="9">
+        <f t="shared" ref="D132:D145" si="28">((E132/$E$10)+(F132/$F$10))/2</f>
+        <v>1.0701656348369248</v>
+      </c>
+      <c r="E132">
+        <v>1.410134</v>
+      </c>
+      <c r="F132" s="17">
+        <v>0.12243</v>
+      </c>
+      <c r="G132" s="17">
+        <v>34.228634999999997</v>
+      </c>
+      <c r="H132" s="17">
+        <v>0.11416999999999999</v>
+      </c>
+      <c r="I132" s="17">
+        <v>9.9830000000000002E-2</v>
+      </c>
+      <c r="J132" s="10">
+        <v>42</v>
+      </c>
+      <c r="K132" s="9">
+        <v>100</v>
+      </c>
+      <c r="L132" s="9">
+        <v>100</v>
+      </c>
+      <c r="M132" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N132" s="76">
+        <f t="shared" ref="N132:N145" si="29">(32*L132*K132)/B132</f>
+        <v>13.333333333333334</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
+      <c r="D133" s="9"/>
+      <c r="F133" s="17"/>
+      <c r="G133" s="17"/>
+      <c r="H133" s="17"/>
+      <c r="I133" s="17"/>
+      <c r="K133" s="9"/>
+      <c r="L133" s="9"/>
+      <c r="N133" s="76"/>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A134" s="5"/>
+      <c r="B134" s="5"/>
+      <c r="D134" s="9"/>
+      <c r="F134" s="17"/>
+      <c r="G134" s="17"/>
+      <c r="H134" s="17"/>
+      <c r="I134" s="17"/>
+      <c r="K134" s="9"/>
+      <c r="L134" s="9"/>
+      <c r="N134" s="76"/>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A135" s="5"/>
+      <c r="B135" s="5"/>
+      <c r="D135" s="9"/>
+      <c r="F135" s="17"/>
+      <c r="G135" s="17"/>
+      <c r="H135" s="17"/>
+      <c r="I135" s="17"/>
+      <c r="K135" s="9"/>
+      <c r="L135" s="9"/>
+      <c r="N135" s="76"/>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A136" s="5"/>
+      <c r="B136" s="5"/>
+      <c r="D136" s="9"/>
+      <c r="F136" s="17"/>
+      <c r="G136" s="17"/>
+      <c r="H136" s="17"/>
+      <c r="I136" s="17"/>
+      <c r="K136" s="9"/>
+      <c r="L136" s="9"/>
+      <c r="N136" s="76"/>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A137" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B137" s="5">
+        <v>24000</v>
+      </c>
+      <c r="C137" t="s">
+        <v>3</v>
+      </c>
+      <c r="D137" s="9"/>
+      <c r="F137" s="17"/>
+      <c r="G137" s="17"/>
+      <c r="H137" s="17"/>
+      <c r="I137" s="17"/>
+      <c r="K137" s="9">
+        <v>200</v>
+      </c>
+      <c r="L137" s="9">
+        <v>100</v>
+      </c>
+      <c r="M137" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N137" s="76"/>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A138" s="5"/>
+      <c r="B138" s="5"/>
+      <c r="D138" s="9"/>
+      <c r="F138" s="17"/>
+      <c r="G138" s="17"/>
+      <c r="H138" s="17"/>
+      <c r="I138" s="17"/>
+      <c r="K138" s="9"/>
+      <c r="L138" s="9"/>
+      <c r="N138" s="76"/>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A139" s="5"/>
+      <c r="B139" s="5"/>
+      <c r="D139" s="9"/>
+      <c r="F139" s="17"/>
+      <c r="G139" s="17"/>
+      <c r="H139" s="17"/>
+      <c r="I139" s="17"/>
+      <c r="K139" s="9"/>
+      <c r="L139" s="9"/>
+      <c r="N139" s="76"/>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A140" s="5"/>
+      <c r="B140" s="5"/>
+      <c r="D140" s="9"/>
+      <c r="F140" s="17"/>
+      <c r="G140" s="17"/>
+      <c r="H140" s="17"/>
+      <c r="I140" s="17"/>
+      <c r="K140" s="9"/>
+      <c r="L140" s="9"/>
+      <c r="N140" s="76"/>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A141" s="5"/>
+      <c r="B141" s="5"/>
+      <c r="D141" s="9"/>
+      <c r="F141" s="17"/>
+      <c r="G141" s="17"/>
+      <c r="H141" s="17"/>
+      <c r="I141" s="17"/>
+      <c r="K141" s="9"/>
+      <c r="L141" s="9"/>
+      <c r="N141" s="76"/>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A142" s="5"/>
+      <c r="B142" s="5"/>
+      <c r="D142" s="9"/>
+      <c r="K142" s="9"/>
+      <c r="N142" s="76"/>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A143" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B143" s="5">
+        <v>24000</v>
+      </c>
+      <c r="C143" t="s">
+        <v>3</v>
+      </c>
+      <c r="D143" s="9">
         <f t="shared" si="28"/>
         <v>1.0410685632251058</v>
       </c>
-      <c r="E131">
+      <c r="E143">
         <v>1.3578520000000001</v>
       </c>
-      <c r="F131" s="17">
+      <c r="F143" s="17">
         <v>0.12022099999999999</v>
       </c>
-      <c r="G131" s="17">
+      <c r="G143" s="17">
         <v>32.127996000000003</v>
       </c>
-      <c r="H131" s="17">
+      <c r="H143" s="17">
         <v>0.112042</v>
       </c>
-      <c r="I131" s="17">
+      <c r="I143" s="17">
         <v>8.7568999999999994E-2</v>
       </c>
-      <c r="J131" s="10">
+      <c r="J143" s="10">
         <v>42</v>
       </c>
-      <c r="K131" s="9">
+      <c r="K143" s="9">
         <v>500</v>
       </c>
-      <c r="L131" s="10">
-        <v>100</v>
-      </c>
-      <c r="M131" s="10" t="s">
+      <c r="L143" s="10">
+        <v>100</v>
+      </c>
+      <c r="M143" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="N131" s="76">
+      <c r="N143" s="76">
         <f t="shared" si="29"/>
         <v>66.666666666666671</v>
       </c>
-      <c r="O131" s="1" t="s">
+      <c r="O143" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A132" s="5" t="s">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A144" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B132" s="5">
+      <c r="B144" s="5">
         <v>24000</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C144" t="s">
         <v>3</v>
       </c>
-      <c r="D132" s="9">
+      <c r="D144" s="9">
         <f t="shared" si="28"/>
         <v>1.0681926069379126</v>
       </c>
-      <c r="E132">
+      <c r="E144">
         <v>1.4144350000000001</v>
       </c>
-      <c r="F132" s="17">
+      <c r="F144" s="17">
         <v>0.12164999999999999</v>
       </c>
-      <c r="G132" s="17">
+      <c r="G144" s="17">
         <v>36.637931999999999</v>
       </c>
-      <c r="H132" s="17">
+      <c r="H144" s="17">
         <v>0.11268499999999999</v>
       </c>
-      <c r="I132" s="17">
+      <c r="I144" s="17">
         <v>9.6586000000000005E-2</v>
       </c>
-      <c r="J132" s="10">
+      <c r="J144" s="10">
         <v>42</v>
       </c>
-      <c r="K132" s="9">
+      <c r="K144" s="9">
         <v>1000</v>
       </c>
-      <c r="L132" s="9">
-        <v>100</v>
-      </c>
-      <c r="M132" s="10" t="s">
+      <c r="L144" s="9">
+        <v>100</v>
+      </c>
+      <c r="M144" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="N132" s="76">
+      <c r="N144" s="76">
         <f t="shared" si="29"/>
         <v>133.33333333333334</v>
       </c>
-      <c r="O132" s="1" t="s">
+      <c r="O144" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A133" s="5" t="s">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A145" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B133" s="5">
+      <c r="B145" s="5">
         <v>24000</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C145" t="s">
         <v>3</v>
       </c>
-      <c r="D133" s="9">
+      <c r="D145" s="9">
         <f t="shared" si="28"/>
         <v>1.0915270456233275</v>
       </c>
-      <c r="E133">
+      <c r="E145">
         <v>1.4485129999999999</v>
       </c>
-      <c r="F133" s="17">
+      <c r="F145" s="17">
         <v>0.124052</v>
       </c>
-      <c r="G133" s="17">
+      <c r="G145" s="17">
         <v>39.266176999999999</v>
       </c>
-      <c r="H133" s="17">
+      <c r="H145" s="17">
         <v>0.11575000000000001</v>
       </c>
-      <c r="I133" s="17">
+      <c r="I145" s="17">
         <v>9.8805000000000004E-2</v>
       </c>
-      <c r="J133" s="10">
+      <c r="J145" s="10">
         <v>42</v>
       </c>
-      <c r="K133" s="9">
+      <c r="K145" s="9">
         <v>2000</v>
       </c>
-      <c r="L133" s="9">
-        <v>100</v>
-      </c>
-      <c r="M133" s="10" t="s">
+      <c r="L145" s="9">
+        <v>100</v>
+      </c>
+      <c r="M145" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="N133" s="76">
+      <c r="N145" s="76">
         <f t="shared" si="29"/>
         <v>266.66666666666669</v>
       </c>
-      <c r="O133" s="1" t="s">
+      <c r="O145" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="136" spans="1:16" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A136" s="89" t="s">
+    <row r="148" spans="1:16" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A148" s="89" t="s">
         <v>188</v>
       </c>
-      <c r="B136" s="89"/>
-      <c r="C136" s="89"/>
-      <c r="D136" s="89"/>
-      <c r="E136" s="89"/>
-      <c r="F136" s="89"/>
-      <c r="G136" s="89"/>
-      <c r="H136" s="89"/>
-      <c r="I136" s="89"/>
-      <c r="J136" s="89"/>
-      <c r="K136" s="89"/>
-      <c r="L136" s="89"/>
-      <c r="M136" s="89"/>
-      <c r="N136" s="89"/>
-      <c r="O136" s="89"/>
-      <c r="P136" s="89"/>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A137" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B137" s="5">
-        <v>24000</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D137" s="9">
-        <f t="shared" ref="D137:D144" si="30">((E137/$E$10)+(F137/$F$10))/2</f>
-        <v>14.599166270043447</v>
-      </c>
-      <c r="E137" s="17">
-        <v>21.359617</v>
-      </c>
-      <c r="F137" s="17">
-        <v>1.4996959999999999</v>
-      </c>
-      <c r="G137" s="17">
-        <v>848.00561800000003</v>
-      </c>
-      <c r="H137" s="17">
-        <v>1.033002</v>
-      </c>
-      <c r="I137" s="17">
-        <v>1.185424</v>
-      </c>
-      <c r="J137" s="10">
-        <v>42</v>
-      </c>
-      <c r="K137" s="9">
-        <v>100</v>
-      </c>
-      <c r="L137" s="9">
-        <v>50</v>
-      </c>
-      <c r="M137" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="N137" s="76">
-        <f t="shared" ref="N137:N144" si="31">(32*L137*K137)/B137</f>
-        <v>6.666666666666667</v>
-      </c>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A138" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B138" s="5">
-        <v>24000</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D138" s="9">
-        <f t="shared" si="30"/>
-        <v>14.599166270043447</v>
-      </c>
-      <c r="E138" s="17">
-        <v>21.359617</v>
-      </c>
-      <c r="F138" s="17">
-        <v>1.4996959999999999</v>
-      </c>
-      <c r="G138" s="17">
-        <v>848.00561800000003</v>
-      </c>
-      <c r="H138" s="17">
-        <v>1.033002</v>
-      </c>
-      <c r="I138" s="17">
-        <v>1.185424</v>
-      </c>
-      <c r="J138" s="10">
-        <v>42</v>
-      </c>
-      <c r="K138" s="9">
-        <v>200</v>
-      </c>
-      <c r="L138" s="9">
-        <v>50</v>
-      </c>
-      <c r="M138" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="N138" s="76">
-        <f t="shared" si="31"/>
-        <v>13.333333333333334</v>
-      </c>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A139" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B139" s="5">
-        <v>24000</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D139" s="9">
-        <f t="shared" si="30"/>
-        <v>9.8558985374485708</v>
-      </c>
-      <c r="E139" s="17">
-        <v>13.362931</v>
-      </c>
-      <c r="F139" s="17">
-        <v>1.09734</v>
-      </c>
-      <c r="G139" s="17">
-        <v>527.39869799999997</v>
-      </c>
-      <c r="H139" s="17">
-        <v>0.595167</v>
-      </c>
-      <c r="I139" s="17">
-        <v>1.0155959999999999</v>
-      </c>
-      <c r="J139" s="10">
-        <v>42</v>
-      </c>
-      <c r="K139" s="9">
-        <v>300</v>
-      </c>
-      <c r="L139" s="9">
-        <v>50</v>
-      </c>
-      <c r="M139" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="N139" s="76">
-        <f t="shared" si="31"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A140" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B140" s="5">
-        <v>24000</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D140" s="9">
-        <f t="shared" si="30"/>
-        <v>6.386278615755824</v>
-      </c>
-      <c r="E140" s="17">
-        <v>9.7845849999999999</v>
-      </c>
-      <c r="F140" s="17">
-        <v>0.62060700000000002</v>
-      </c>
-      <c r="G140" s="17">
-        <v>383.84890200000001</v>
-      </c>
-      <c r="H140" s="17">
-        <v>0.52086299999999996</v>
-      </c>
-      <c r="I140" s="17">
-        <v>0.67459499999999994</v>
-      </c>
-      <c r="J140" s="10">
-        <v>42</v>
-      </c>
-      <c r="K140" s="9">
-        <v>400</v>
-      </c>
-      <c r="L140" s="9">
-        <v>50</v>
-      </c>
-      <c r="M140" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="N140" s="76">
-        <f t="shared" si="31"/>
-        <v>26.666666666666668</v>
-      </c>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A141" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B141" s="5">
-        <v>24000</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D141" s="9">
-        <f t="shared" si="30"/>
-        <v>3.3370512867999182</v>
-      </c>
-      <c r="E141" s="17">
-        <v>5.3620289999999997</v>
-      </c>
-      <c r="F141" s="17">
-        <v>0.30426900000000001</v>
-      </c>
-      <c r="G141" s="17">
-        <v>206.55342300000001</v>
-      </c>
-      <c r="H141" s="17">
-        <v>0.30846099999999999</v>
-      </c>
-      <c r="I141" s="17">
-        <v>0.32139600000000002</v>
-      </c>
-      <c r="J141" s="10">
-        <v>42</v>
-      </c>
-      <c r="K141" s="9">
-        <v>500</v>
-      </c>
-      <c r="L141" s="9">
-        <v>50</v>
-      </c>
-      <c r="M141" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="N141" s="76">
-        <f t="shared" si="31"/>
-        <v>33.333333333333336</v>
-      </c>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A142" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B142" s="5">
-        <v>24000</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D142" s="9">
-        <f t="shared" si="30"/>
-        <v>2.6536850872584332</v>
-      </c>
-      <c r="E142" s="17">
-        <v>4.0524380000000004</v>
-      </c>
-      <c r="F142" s="17">
-        <v>0.25895200000000002</v>
-      </c>
-      <c r="G142" s="17">
-        <v>152.25455600000001</v>
-      </c>
-      <c r="H142" s="17">
-        <v>0.24088200000000001</v>
-      </c>
-      <c r="I142" s="17">
-        <v>0.35209200000000002</v>
-      </c>
-      <c r="J142" s="10">
-        <v>42</v>
-      </c>
-      <c r="K142" s="9">
-        <v>1000</v>
-      </c>
-      <c r="L142" s="9">
-        <v>50</v>
-      </c>
-      <c r="M142" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="N142" s="76">
-        <f t="shared" si="31"/>
-        <v>66.666666666666671</v>
-      </c>
-    </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A143" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B143" s="5">
-        <v>24000</v>
-      </c>
-      <c r="C143" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D143" s="9">
-        <f t="shared" si="30"/>
-        <v>2.3524181983820847</v>
-      </c>
-      <c r="E143" s="17">
-        <v>3.662639</v>
-      </c>
-      <c r="F143" s="17">
-        <v>0.22391</v>
-      </c>
-      <c r="G143" s="17">
-        <v>132.91609800000001</v>
-      </c>
-      <c r="H143" s="17">
-        <v>0.22933999999999999</v>
-      </c>
-      <c r="I143" s="17">
-        <v>0.17677899999999999</v>
-      </c>
-      <c r="J143" s="10">
-        <v>42</v>
-      </c>
-      <c r="K143" s="9">
-        <v>2000</v>
-      </c>
-      <c r="L143" s="9">
-        <v>50</v>
-      </c>
-      <c r="M143" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="N143" s="76">
-        <f t="shared" si="31"/>
-        <v>133.33333333333334</v>
-      </c>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A144" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B144" s="5">
-        <v>24000</v>
-      </c>
-      <c r="C144" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D144" s="9">
-        <f t="shared" si="30"/>
-        <v>2.52247086660716</v>
-      </c>
-      <c r="E144" s="17">
-        <v>3.8624299999999998</v>
-      </c>
-      <c r="F144" s="17">
-        <v>0.24531500000000001</v>
-      </c>
-      <c r="G144" s="17">
-        <v>135.34744900000001</v>
-      </c>
-      <c r="H144" s="17">
-        <v>0.23047500000000001</v>
-      </c>
-      <c r="I144" s="17">
-        <v>0.31858599999999998</v>
-      </c>
-      <c r="J144" s="10">
-        <v>42</v>
-      </c>
-      <c r="K144" s="9">
-        <v>4000</v>
-      </c>
-      <c r="L144" s="9">
-        <v>50</v>
-      </c>
-      <c r="M144" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="N144" s="76">
-        <f t="shared" si="31"/>
-        <v>266.66666666666669</v>
-      </c>
-    </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="N145" s="19"/>
-    </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A146" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B146" s="5">
-        <v>24000</v>
-      </c>
-      <c r="C146" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D146" s="9">
-        <f t="shared" ref="D146:D150" si="32">((E146/$E$10)+(F146/$F$10))/2</f>
-        <v>2.4630572903295205</v>
-      </c>
-      <c r="E146" s="17">
-        <v>3.774044</v>
-      </c>
-      <c r="F146" s="17">
-        <v>0.23932899999999999</v>
-      </c>
-      <c r="G146" s="17">
-        <v>141.18104400000001</v>
-      </c>
-      <c r="H146" s="17">
-        <v>0.231349</v>
-      </c>
-      <c r="I146" s="17">
-        <v>0.26257200000000003</v>
-      </c>
-      <c r="J146" s="10">
-        <v>42</v>
-      </c>
-      <c r="K146" s="10">
-        <v>300</v>
-      </c>
-      <c r="L146" s="10">
-        <v>100</v>
-      </c>
-      <c r="M146" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="N146" s="76">
-        <f t="shared" ref="N146:N151" si="33">(32*L146*K146)/B146</f>
-        <v>40</v>
-      </c>
-      <c r="O146" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A147" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B147" s="5">
-        <v>24000</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D147" s="9">
-        <f t="shared" si="32"/>
-        <v>2.869826568218266</v>
-      </c>
-      <c r="E147" s="17">
-        <v>4.6472020000000001</v>
-      </c>
-      <c r="F147" s="17">
-        <v>0.25878299999999999</v>
-      </c>
-      <c r="G147" s="17">
-        <v>174.73189400000001</v>
-      </c>
-      <c r="H147" s="17">
-        <v>0.27988400000000002</v>
-      </c>
-      <c r="I147" s="17">
-        <v>0.169492</v>
-      </c>
-      <c r="J147" s="10">
-        <v>42</v>
-      </c>
-      <c r="K147" s="10">
-        <v>400</v>
-      </c>
-      <c r="L147" s="10">
-        <v>100</v>
-      </c>
-      <c r="M147" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="N147" s="76">
-        <f t="shared" si="33"/>
-        <v>53.333333333333336</v>
-      </c>
-    </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A148" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B148" s="5">
-        <v>24000</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D148" s="9">
-        <f t="shared" si="32"/>
-        <v>2.4245308206974263</v>
-      </c>
-      <c r="E148">
-        <v>3.7323230000000001</v>
-      </c>
-      <c r="F148" s="17">
-        <v>0.23419499999999999</v>
-      </c>
-      <c r="G148" s="17">
-        <v>138.06249299999999</v>
-      </c>
-      <c r="H148" s="17">
-        <v>0.23549</v>
-      </c>
-      <c r="I148" s="17">
-        <v>0.21185000000000001</v>
-      </c>
-      <c r="J148" s="10">
-        <v>42</v>
-      </c>
-      <c r="K148" s="10">
-        <v>500</v>
-      </c>
-      <c r="L148" s="10">
-        <v>100</v>
-      </c>
-      <c r="M148" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="N148" s="76">
-        <f t="shared" si="33"/>
-        <v>66.666666666666671</v>
-      </c>
-      <c r="P148" t="s">
-        <v>205</v>
-      </c>
+      <c r="B148" s="89"/>
+      <c r="C148" s="89"/>
+      <c r="D148" s="89"/>
+      <c r="E148" s="89"/>
+      <c r="F148" s="89"/>
+      <c r="G148" s="89"/>
+      <c r="H148" s="89"/>
+      <c r="I148" s="89"/>
+      <c r="J148" s="89"/>
+      <c r="K148" s="89"/>
+      <c r="L148" s="89"/>
+      <c r="M148" s="89"/>
+      <c r="N148" s="89"/>
+      <c r="O148" s="89"/>
+      <c r="P148" s="89"/>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A149" s="5" t="s">
@@ -40561,42 +41317,39 @@
         <v>188</v>
       </c>
       <c r="D149" s="9">
-        <f t="shared" si="32"/>
-        <v>3.2937686720911579</v>
-      </c>
-      <c r="E149">
-        <v>5.1129959999999999</v>
+        <f t="shared" ref="D149:D156" si="30">((E149/$E$10)+(F149/$F$10))/2</f>
+        <v>14.599166270043447</v>
+      </c>
+      <c r="E149" s="17">
+        <v>21.359617</v>
       </c>
       <c r="F149" s="17">
-        <v>0.31473899999999999</v>
+        <v>1.4996959999999999</v>
       </c>
       <c r="G149" s="17">
-        <v>188.28670199999999</v>
+        <v>848.00561800000003</v>
       </c>
       <c r="H149" s="17">
-        <v>0.28453499999999998</v>
+        <v>1.033002</v>
       </c>
       <c r="I149" s="17">
-        <v>0.44939899999999999</v>
+        <v>1.185424</v>
       </c>
       <c r="J149" s="10">
         <v>42</v>
       </c>
-      <c r="K149" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L149" s="10">
-        <v>100</v>
+      <c r="K149" s="9">
+        <v>100</v>
+      </c>
+      <c r="L149" s="9">
+        <v>50</v>
       </c>
       <c r="M149" s="10" t="s">
         <v>24</v>
       </c>
       <c r="N149" s="76">
-        <f t="shared" si="33"/>
-        <v>133.33333333333334</v>
-      </c>
-      <c r="P149" t="s">
-        <v>204</v>
+        <f t="shared" ref="N149:N156" si="31">(32*L149*K149)/B149</f>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.35">
@@ -40610,42 +41363,39 @@
         <v>188</v>
       </c>
       <c r="D150" s="9">
-        <f t="shared" si="32"/>
-        <v>2.3234285218459378</v>
-      </c>
-      <c r="E150">
-        <v>3.5358640000000001</v>
+        <f t="shared" si="30"/>
+        <v>14.599166270043447</v>
+      </c>
+      <c r="E150" s="17">
+        <v>21.359617</v>
       </c>
       <c r="F150" s="17">
-        <v>0.22770799999999999</v>
+        <v>1.4996959999999999</v>
       </c>
       <c r="G150" s="17">
-        <v>119.19023300000001</v>
+        <v>848.00561800000003</v>
       </c>
       <c r="H150" s="17">
-        <v>0.22157199999999999</v>
+        <v>1.033002</v>
       </c>
       <c r="I150" s="17">
-        <v>0.23691899999999999</v>
+        <v>1.185424</v>
       </c>
       <c r="J150" s="10">
         <v>42</v>
       </c>
-      <c r="K150" s="10">
-        <v>2000</v>
-      </c>
-      <c r="L150" s="10">
-        <v>100</v>
+      <c r="K150" s="9">
+        <v>200</v>
+      </c>
+      <c r="L150" s="9">
+        <v>50</v>
       </c>
       <c r="M150" s="10" t="s">
         <v>24</v>
       </c>
       <c r="N150" s="76">
-        <f t="shared" si="33"/>
-        <v>266.66666666666669</v>
-      </c>
-      <c r="P150" t="s">
-        <v>203</v>
+        <f t="shared" si="31"/>
+        <v>13.333333333333334</v>
       </c>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.35">
@@ -40658,59 +41408,861 @@
       <c r="C151" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="E151" t="s">
-        <v>15</v>
-      </c>
-      <c r="F151" t="s">
-        <v>15</v>
-      </c>
-      <c r="G151" t="s">
-        <v>15</v>
-      </c>
-      <c r="H151" t="s">
-        <v>15</v>
-      </c>
-      <c r="I151" t="s">
-        <v>15</v>
+      <c r="D151" s="9">
+        <f t="shared" si="30"/>
+        <v>9.8558985374485708</v>
+      </c>
+      <c r="E151" s="17">
+        <v>13.362931</v>
+      </c>
+      <c r="F151" s="17">
+        <v>1.09734</v>
+      </c>
+      <c r="G151" s="17">
+        <v>527.39869799999997</v>
+      </c>
+      <c r="H151" s="17">
+        <v>0.595167</v>
+      </c>
+      <c r="I151" s="17">
+        <v>1.0155959999999999</v>
       </c>
       <c r="J151" s="10">
         <v>42</v>
       </c>
-      <c r="K151" s="10">
+      <c r="K151" s="9">
+        <v>300</v>
+      </c>
+      <c r="L151" s="9">
+        <v>50</v>
+      </c>
+      <c r="M151" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N151" s="76">
+        <f t="shared" si="31"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A152" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B152" s="5">
+        <v>24000</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D152" s="9">
+        <f t="shared" si="30"/>
+        <v>6.386278615755824</v>
+      </c>
+      <c r="E152" s="17">
+        <v>9.7845849999999999</v>
+      </c>
+      <c r="F152" s="17">
+        <v>0.62060700000000002</v>
+      </c>
+      <c r="G152" s="17">
+        <v>383.84890200000001</v>
+      </c>
+      <c r="H152" s="17">
+        <v>0.52086299999999996</v>
+      </c>
+      <c r="I152" s="17">
+        <v>0.67459499999999994</v>
+      </c>
+      <c r="J152" s="10">
+        <v>42</v>
+      </c>
+      <c r="K152" s="9">
+        <v>400</v>
+      </c>
+      <c r="L152" s="9">
+        <v>50</v>
+      </c>
+      <c r="M152" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N152" s="76">
+        <f t="shared" si="31"/>
+        <v>26.666666666666668</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A153" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B153" s="5">
+        <v>24000</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D153" s="9">
+        <f t="shared" si="30"/>
+        <v>3.3370512867999182</v>
+      </c>
+      <c r="E153" s="17">
+        <v>5.3620289999999997</v>
+      </c>
+      <c r="F153" s="17">
+        <v>0.30426900000000001</v>
+      </c>
+      <c r="G153" s="17">
+        <v>206.55342300000001</v>
+      </c>
+      <c r="H153" s="17">
+        <v>0.30846099999999999</v>
+      </c>
+      <c r="I153" s="17">
+        <v>0.32139600000000002</v>
+      </c>
+      <c r="J153" s="10">
+        <v>42</v>
+      </c>
+      <c r="K153" s="9">
+        <v>500</v>
+      </c>
+      <c r="L153" s="9">
+        <v>50</v>
+      </c>
+      <c r="M153" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N153" s="76">
+        <f t="shared" si="31"/>
+        <v>33.333333333333336</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A154" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B154" s="5">
+        <v>24000</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D154" s="9">
+        <f t="shared" si="30"/>
+        <v>2.6536850872584332</v>
+      </c>
+      <c r="E154" s="17">
+        <v>4.0524380000000004</v>
+      </c>
+      <c r="F154" s="17">
+        <v>0.25895200000000002</v>
+      </c>
+      <c r="G154" s="17">
+        <v>152.25455600000001</v>
+      </c>
+      <c r="H154" s="17">
+        <v>0.24088200000000001</v>
+      </c>
+      <c r="I154" s="17">
+        <v>0.35209200000000002</v>
+      </c>
+      <c r="J154" s="10">
+        <v>42</v>
+      </c>
+      <c r="K154" s="9">
+        <v>1000</v>
+      </c>
+      <c r="L154" s="9">
+        <v>50</v>
+      </c>
+      <c r="M154" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N154" s="76">
+        <f t="shared" si="31"/>
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A155" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B155" s="5">
+        <v>24000</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D155" s="9">
+        <f t="shared" si="30"/>
+        <v>2.3524181983820847</v>
+      </c>
+      <c r="E155" s="17">
+        <v>3.662639</v>
+      </c>
+      <c r="F155" s="17">
+        <v>0.22391</v>
+      </c>
+      <c r="G155" s="17">
+        <v>132.91609800000001</v>
+      </c>
+      <c r="H155" s="17">
+        <v>0.22933999999999999</v>
+      </c>
+      <c r="I155" s="17">
+        <v>0.17677899999999999</v>
+      </c>
+      <c r="J155" s="10">
+        <v>42</v>
+      </c>
+      <c r="K155" s="9">
+        <v>2000</v>
+      </c>
+      <c r="L155" s="9">
+        <v>50</v>
+      </c>
+      <c r="M155" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N155" s="76">
+        <f t="shared" si="31"/>
+        <v>133.33333333333334</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A156" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B156" s="5">
+        <v>24000</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D156" s="9">
+        <f t="shared" si="30"/>
+        <v>2.52247086660716</v>
+      </c>
+      <c r="E156" s="17">
+        <v>3.8624299999999998</v>
+      </c>
+      <c r="F156" s="17">
+        <v>0.24531500000000001</v>
+      </c>
+      <c r="G156" s="17">
+        <v>135.34744900000001</v>
+      </c>
+      <c r="H156" s="17">
+        <v>0.23047500000000001</v>
+      </c>
+      <c r="I156" s="17">
+        <v>0.31858599999999998</v>
+      </c>
+      <c r="J156" s="10">
+        <v>42</v>
+      </c>
+      <c r="K156" s="9">
+        <v>4000</v>
+      </c>
+      <c r="L156" s="9">
+        <v>50</v>
+      </c>
+      <c r="M156" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N156" s="76">
+        <f t="shared" si="31"/>
+        <v>266.66666666666669</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N157" s="19"/>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A158" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B158" s="5">
+        <v>24000</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D158" s="9">
+        <f t="shared" ref="D158:D162" si="32">((E158/$E$10)+(F158/$F$10))/2</f>
+        <v>2.4630572903295205</v>
+      </c>
+      <c r="E158" s="17">
+        <v>3.774044</v>
+      </c>
+      <c r="F158" s="17">
+        <v>0.23932899999999999</v>
+      </c>
+      <c r="G158" s="17">
+        <v>141.18104400000001</v>
+      </c>
+      <c r="H158" s="17">
+        <v>0.231349</v>
+      </c>
+      <c r="I158" s="17">
+        <v>0.26257200000000003</v>
+      </c>
+      <c r="J158" s="10">
+        <v>42</v>
+      </c>
+      <c r="K158" s="10">
+        <v>300</v>
+      </c>
+      <c r="L158" s="10">
+        <v>100</v>
+      </c>
+      <c r="M158" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N158" s="76">
+        <f t="shared" ref="N158:N163" si="33">(32*L158*K158)/B158</f>
+        <v>40</v>
+      </c>
+      <c r="O158" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A159" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B159" s="5">
+        <v>24000</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D159" s="9">
+        <f t="shared" si="32"/>
+        <v>2.869826568218266</v>
+      </c>
+      <c r="E159" s="17">
+        <v>4.6472020000000001</v>
+      </c>
+      <c r="F159" s="17">
+        <v>0.25878299999999999</v>
+      </c>
+      <c r="G159" s="17">
+        <v>174.73189400000001</v>
+      </c>
+      <c r="H159" s="17">
+        <v>0.27988400000000002</v>
+      </c>
+      <c r="I159" s="17">
+        <v>0.169492</v>
+      </c>
+      <c r="J159" s="10">
+        <v>42</v>
+      </c>
+      <c r="K159" s="10">
+        <v>400</v>
+      </c>
+      <c r="L159" s="10">
+        <v>100</v>
+      </c>
+      <c r="M159" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N159" s="76">
+        <f t="shared" si="33"/>
+        <v>53.333333333333336</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A160" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B160" s="5">
+        <v>24000</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D160" s="9">
+        <f t="shared" si="32"/>
+        <v>2.4245308206974263</v>
+      </c>
+      <c r="E160">
+        <v>3.7323230000000001</v>
+      </c>
+      <c r="F160" s="17">
+        <v>0.23419499999999999</v>
+      </c>
+      <c r="G160" s="17">
+        <v>138.06249299999999</v>
+      </c>
+      <c r="H160" s="17">
+        <v>0.23549</v>
+      </c>
+      <c r="I160" s="17">
+        <v>0.21185000000000001</v>
+      </c>
+      <c r="J160" s="10">
+        <v>42</v>
+      </c>
+      <c r="K160" s="10">
+        <v>500</v>
+      </c>
+      <c r="L160" s="10">
+        <v>100</v>
+      </c>
+      <c r="M160" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N160" s="76">
+        <f t="shared" si="33"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="P160" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A161" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B161" s="5">
+        <v>24000</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D161" s="9">
+        <f t="shared" si="32"/>
+        <v>3.2937686720911579</v>
+      </c>
+      <c r="E161">
+        <v>5.1129959999999999</v>
+      </c>
+      <c r="F161" s="17">
+        <v>0.31473899999999999</v>
+      </c>
+      <c r="G161" s="17">
+        <v>188.28670199999999</v>
+      </c>
+      <c r="H161" s="17">
+        <v>0.28453499999999998</v>
+      </c>
+      <c r="I161" s="17">
+        <v>0.44939899999999999</v>
+      </c>
+      <c r="J161" s="10">
+        <v>42</v>
+      </c>
+      <c r="K161" s="10">
+        <v>1000</v>
+      </c>
+      <c r="L161" s="10">
+        <v>100</v>
+      </c>
+      <c r="M161" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N161" s="76">
+        <f t="shared" si="33"/>
+        <v>133.33333333333334</v>
+      </c>
+      <c r="P161" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A162" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B162" s="5">
+        <v>24000</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D162" s="9">
+        <f t="shared" si="32"/>
+        <v>2.3234285218459378</v>
+      </c>
+      <c r="E162">
+        <v>3.5358640000000001</v>
+      </c>
+      <c r="F162" s="17">
+        <v>0.22770799999999999</v>
+      </c>
+      <c r="G162" s="17">
+        <v>119.19023300000001</v>
+      </c>
+      <c r="H162" s="17">
+        <v>0.22157199999999999</v>
+      </c>
+      <c r="I162" s="17">
+        <v>0.23691899999999999</v>
+      </c>
+      <c r="J162" s="10">
+        <v>42</v>
+      </c>
+      <c r="K162" s="10">
+        <v>2000</v>
+      </c>
+      <c r="L162" s="10">
+        <v>100</v>
+      </c>
+      <c r="M162" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N162" s="76">
+        <f t="shared" si="33"/>
+        <v>266.66666666666669</v>
+      </c>
+      <c r="P162" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A163" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B163" s="5">
+        <v>24000</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E163" t="s">
+        <v>15</v>
+      </c>
+      <c r="F163" t="s">
+        <v>15</v>
+      </c>
+      <c r="G163" t="s">
+        <v>15</v>
+      </c>
+      <c r="H163" t="s">
+        <v>15</v>
+      </c>
+      <c r="I163" t="s">
+        <v>15</v>
+      </c>
+      <c r="J163" s="10">
+        <v>42</v>
+      </c>
+      <c r="K163" s="10">
         <v>5000</v>
       </c>
-      <c r="L151" s="10">
-        <v>100</v>
-      </c>
-      <c r="M151" s="10" t="s">
+      <c r="L163" s="10">
+        <v>100</v>
+      </c>
+      <c r="M163" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="N151" s="76">
+      <c r="N163" s="76">
         <f t="shared" si="33"/>
         <v>666.66666666666663</v>
       </c>
-      <c r="O151" s="1" t="s">
+      <c r="O163" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="P151" s="10" t="s">
+      <c r="P163" s="10" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="N152" s="19"/>
-    </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A153" s="5"/>
-      <c r="B153" s="5"/>
-      <c r="C153" s="5"/>
-      <c r="N153" s="19"/>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N164" s="19"/>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A165" s="5"/>
+      <c r="B165" s="5"/>
+      <c r="C165" s="5"/>
+      <c r="N165" s="19"/>
+    </row>
+    <row r="166" spans="1:16" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A166" s="89" t="s">
+        <v>366</v>
+      </c>
+      <c r="B166" s="89"/>
+      <c r="C166" s="89"/>
+      <c r="D166" s="89"/>
+      <c r="E166" s="89"/>
+      <c r="F166" s="89"/>
+      <c r="G166" s="89"/>
+      <c r="H166" s="89"/>
+      <c r="I166" s="89"/>
+      <c r="J166" s="89"/>
+      <c r="K166" s="89"/>
+      <c r="L166" s="89"/>
+      <c r="M166" s="89"/>
+      <c r="N166" s="89"/>
+      <c r="O166" s="89"/>
+      <c r="P166" s="89"/>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E168">
+        <v>12.925424</v>
+      </c>
+      <c r="F168">
+        <v>0.76052399999999998</v>
+      </c>
+      <c r="G168">
+        <v>426.47872799999999</v>
+      </c>
+      <c r="H168">
+        <v>0.67502300000000004</v>
+      </c>
+      <c r="I168">
+        <v>1.1744669999999999</v>
+      </c>
+      <c r="J168" s="10">
+        <v>42</v>
+      </c>
+      <c r="K168" s="10">
+        <v>100</v>
+      </c>
+      <c r="L168" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E169">
+        <v>12.778717</v>
+      </c>
+      <c r="F169">
+        <v>0.82692399999999999</v>
+      </c>
+      <c r="G169">
+        <v>446.124347</v>
+      </c>
+      <c r="H169">
+        <v>0.71227399999999996</v>
+      </c>
+      <c r="I169">
+        <v>1.201711</v>
+      </c>
+      <c r="J169" s="10">
+        <v>43</v>
+      </c>
+      <c r="K169" s="10">
+        <v>100</v>
+      </c>
+      <c r="L169" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E170">
+        <v>12.828887</v>
+      </c>
+      <c r="F170">
+        <v>0.79630299999999998</v>
+      </c>
+      <c r="G170">
+        <v>454.33737200000002</v>
+      </c>
+      <c r="H170">
+        <v>0.695747</v>
+      </c>
+      <c r="I170">
+        <v>1.228256</v>
+      </c>
+      <c r="J170" s="10">
+        <v>44</v>
+      </c>
+      <c r="K170" s="10">
+        <v>100</v>
+      </c>
+      <c r="L170" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E175">
+        <v>18.976058999999999</v>
+      </c>
+      <c r="F175">
+        <v>0.55176199999999997</v>
+      </c>
+      <c r="G175">
+        <v>311.312363</v>
+      </c>
+      <c r="H175">
+        <v>0.47419800000000001</v>
+      </c>
+      <c r="I175">
+        <v>0.28583599999999998</v>
+      </c>
+      <c r="J175" s="10">
+        <v>42</v>
+      </c>
+      <c r="K175" s="10">
+        <v>100</v>
+      </c>
+      <c r="L175" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E176">
+        <v>8.2695699999999999</v>
+      </c>
+      <c r="F176">
+        <v>0.38725500000000002</v>
+      </c>
+      <c r="G176">
+        <v>141.50824299999999</v>
+      </c>
+      <c r="H176">
+        <v>0.37698300000000001</v>
+      </c>
+      <c r="I176">
+        <v>0.44920399999999999</v>
+      </c>
+      <c r="J176" s="10">
+        <v>43</v>
+      </c>
+      <c r="K176" s="10">
+        <v>100</v>
+      </c>
+      <c r="L176" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="177" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E177">
+        <v>5.0703170000000002</v>
+      </c>
+      <c r="F177">
+        <v>0.26184600000000002</v>
+      </c>
+      <c r="G177">
+        <v>74.284802999999997</v>
+      </c>
+      <c r="H177">
+        <v>0.26394200000000001</v>
+      </c>
+      <c r="I177">
+        <v>0.26490200000000003</v>
+      </c>
+      <c r="J177" s="10">
+        <v>44</v>
+      </c>
+      <c r="K177" s="10">
+        <v>100</v>
+      </c>
+      <c r="L177" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="181" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E181">
+        <v>7.9921790000000001</v>
+      </c>
+      <c r="F181">
+        <v>0.34862599999999999</v>
+      </c>
+      <c r="G181">
+        <v>102.789154</v>
+      </c>
+      <c r="H181">
+        <v>0.31412499999999999</v>
+      </c>
+      <c r="I181">
+        <v>0.27952399999999999</v>
+      </c>
+      <c r="J181" s="10">
+        <v>45</v>
+      </c>
+      <c r="K181" s="10">
+        <v>200</v>
+      </c>
+      <c r="L181" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="182" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E182">
+        <v>2.3176359999999998</v>
+      </c>
+      <c r="F182">
+        <v>0.15301799999999999</v>
+      </c>
+      <c r="G182">
+        <v>32.968094000000001</v>
+      </c>
+      <c r="H182">
+        <v>0.16315399999999999</v>
+      </c>
+      <c r="I182">
+        <v>0.14938000000000001</v>
+      </c>
+      <c r="J182" s="10">
+        <v>46</v>
+      </c>
+      <c r="K182" s="10">
+        <v>200</v>
+      </c>
+      <c r="L182" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="183" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E183">
+        <v>7.5574440000000003</v>
+      </c>
+      <c r="F183">
+        <v>0.333397</v>
+      </c>
+      <c r="G183">
+        <v>133.39321200000001</v>
+      </c>
+      <c r="H183">
+        <v>0.30126799999999998</v>
+      </c>
+      <c r="I183">
+        <v>0.29871500000000001</v>
+      </c>
+      <c r="J183" s="10">
+        <v>47</v>
+      </c>
+      <c r="K183" s="10">
+        <v>200</v>
+      </c>
+      <c r="L183" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="187" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E187">
+        <v>1.9950509999999999</v>
+      </c>
+      <c r="F187">
+        <v>0.139429</v>
+      </c>
+      <c r="G187">
+        <v>27.046140999999999</v>
+      </c>
+      <c r="H187">
+        <v>0.14299700000000001</v>
+      </c>
+      <c r="I187">
+        <v>0.11705</v>
+      </c>
+      <c r="J187" s="10">
+        <v>42</v>
+      </c>
+      <c r="K187" s="10">
+        <v>500</v>
+      </c>
+      <c r="L187" s="10">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A136:P136"/>
+    <mergeCell ref="A148:P148"/>
     <mergeCell ref="A13:P13"/>
     <mergeCell ref="A122:P122"/>
+    <mergeCell ref="A166:P166"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -40719,11 +42271,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1629563B-15CA-43F8-9031-F04949D161F0}">
-  <dimension ref="A1:Q155"/>
+  <dimension ref="A1:Q175"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N82" sqref="N82"/>
+      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E122" sqref="E122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -44548,50 +46100,14 @@
       <c r="Q109" s="89"/>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>164</v>
-      </c>
-      <c r="B110" s="5">
-        <v>23000</v>
-      </c>
-      <c r="C110" t="s">
-        <v>3</v>
-      </c>
-      <c r="D110" s="7">
-        <f t="shared" ref="D110:D114" si="19">((E110/$E$11)+(F110/$F$11))/2</f>
-        <v>1.0369775665098935</v>
-      </c>
-      <c r="E110" s="17">
-        <v>4.0751307099999998</v>
-      </c>
-      <c r="F110" s="17">
-        <v>0.17148972000000001</v>
-      </c>
-      <c r="G110" s="17">
-        <v>84.05382702</v>
-      </c>
-      <c r="H110" s="17">
-        <v>0.16710151000000001</v>
-      </c>
-      <c r="I110" s="17">
-        <v>0.14757577</v>
-      </c>
-      <c r="J110">
-        <v>42</v>
-      </c>
-      <c r="K110">
-        <v>100</v>
-      </c>
-      <c r="L110">
-        <v>50</v>
-      </c>
-      <c r="M110" t="s">
-        <v>24</v>
-      </c>
-      <c r="O110" s="19"/>
-      <c r="Q110" t="s">
-        <v>193</v>
-      </c>
+      <c r="B110" s="5"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="17"/>
+      <c r="G110" s="17"/>
+      <c r="H110" s="17"/>
+      <c r="I110" s="17"/>
+      <c r="O110" s="78"/>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
@@ -44601,26 +46117,23 @@
         <v>23000</v>
       </c>
       <c r="C111" t="s">
-        <v>3</v>
-      </c>
-      <c r="D111" s="7">
-        <f t="shared" si="19"/>
-        <v>0.96299367912802025</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="D111" s="7"/>
       <c r="E111" s="17">
-        <v>3.7333449500000002</v>
+        <v>3.9829970000000001</v>
       </c>
       <c r="F111" s="17">
-        <v>0.16135499</v>
+        <v>0.192608</v>
       </c>
       <c r="G111" s="17">
-        <v>79.18689483</v>
+        <v>128.14605599999999</v>
       </c>
       <c r="H111" s="17">
-        <v>0.15734571999999999</v>
+        <v>0.17272499999999999</v>
       </c>
       <c r="I111" s="17">
-        <v>0.13613148999999999</v>
+        <v>0.18854599999999999</v>
       </c>
       <c r="J111">
         <v>42</v>
@@ -44629,15 +46142,9 @@
         <v>200</v>
       </c>
       <c r="L111">
-        <v>50</v>
-      </c>
-      <c r="M111" t="s">
-        <v>24</v>
-      </c>
-      <c r="O111" s="19"/>
-      <c r="Q111" t="s">
-        <v>194</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="O111" s="78"/>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
@@ -44647,45 +46154,36 @@
         <v>23000</v>
       </c>
       <c r="C112" t="s">
-        <v>3</v>
-      </c>
-      <c r="D112" s="7">
-        <f t="shared" si="19"/>
-        <v>0.96939679843640247</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="D112" s="7"/>
       <c r="E112" s="17">
-        <v>3.7232196900000001</v>
+        <v>4.1035089999999999</v>
       </c>
       <c r="F112" s="17">
-        <v>0.16386596</v>
+        <v>0.205316</v>
       </c>
       <c r="G112" s="17">
-        <v>100.12861113</v>
+        <v>139.20903999999999</v>
       </c>
       <c r="H112" s="17">
-        <v>0.15710529000000001</v>
+        <v>0.17794699999999999</v>
       </c>
       <c r="I112" s="17">
-        <v>0.15916459999999999</v>
+        <v>0.21810399999999999</v>
       </c>
       <c r="J112">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K112">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L112">
-        <v>50</v>
-      </c>
-      <c r="M112" t="s">
-        <v>24</v>
-      </c>
-      <c r="O112" s="19"/>
-      <c r="Q112" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+      <c r="O112" s="78"/>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>164</v>
       </c>
@@ -44693,272 +46191,172 @@
         <v>23000</v>
       </c>
       <c r="C113" t="s">
-        <v>3</v>
-      </c>
-      <c r="D113" s="7">
-        <f t="shared" si="19"/>
-        <v>1.0010052085542656</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="D113" s="7"/>
       <c r="E113" s="17">
-        <v>3.8228384800000001</v>
+        <v>3.774168</v>
       </c>
       <c r="F113" s="17">
-        <v>0.17010528999999999</v>
+        <v>0.15969700000000001</v>
       </c>
       <c r="G113" s="17">
-        <v>110.24805469</v>
+        <v>128.639082</v>
       </c>
       <c r="H113" s="17">
-        <v>0.16126399</v>
+        <v>0.15717900000000001</v>
       </c>
       <c r="I113" s="17">
-        <v>0.17610058000000001</v>
+        <v>0.19300999999999999</v>
       </c>
       <c r="J113">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K113">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="L113">
-        <v>50</v>
-      </c>
-      <c r="M113" t="s">
-        <v>24</v>
-      </c>
-      <c r="O113" s="19"/>
-      <c r="Q113" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
-        <v>164</v>
-      </c>
-      <c r="B114" s="5">
-        <v>23000</v>
-      </c>
-      <c r="C114" t="s">
-        <v>3</v>
-      </c>
-      <c r="D114" s="7">
-        <f t="shared" si="19"/>
-        <v>1.0647115081469121</v>
-      </c>
-      <c r="E114" s="17">
-        <v>4.0744953900000001</v>
-      </c>
-      <c r="F114" s="17">
-        <v>0.18058708000000001</v>
-      </c>
-      <c r="G114" s="17">
-        <v>147.16405664000001</v>
-      </c>
-      <c r="H114" s="17">
-        <v>0.16988565999999999</v>
-      </c>
-      <c r="I114" s="17">
-        <v>0.21501922000000001</v>
-      </c>
-      <c r="J114">
-        <v>42</v>
-      </c>
-      <c r="K114">
-        <v>2000</v>
-      </c>
-      <c r="L114">
-        <v>50</v>
-      </c>
-      <c r="M114" t="s">
-        <v>24</v>
-      </c>
-      <c r="O114" s="19"/>
-      <c r="Q114" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+      <c r="O113" s="78"/>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B114" s="5"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="17"/>
+      <c r="F114" s="17"/>
+      <c r="G114" s="17"/>
+      <c r="H114" s="17"/>
+      <c r="I114" s="17"/>
+      <c r="O114" s="78"/>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B115" s="5"/>
+      <c r="D115" s="7"/>
       <c r="E115" s="17"/>
       <c r="F115" s="17"/>
       <c r="G115" s="17"/>
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
-      <c r="O115" s="19"/>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="O115" s="78"/>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B116" s="5"/>
+      <c r="D116" s="7"/>
       <c r="E116" s="17"/>
       <c r="F116" s="17"/>
       <c r="G116" s="17"/>
       <c r="H116" s="17"/>
       <c r="I116" s="17"/>
-      <c r="O116" s="19"/>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
-        <v>164</v>
-      </c>
-      <c r="B117">
-        <v>23000</v>
-      </c>
-      <c r="C117" t="s">
-        <v>3</v>
-      </c>
-      <c r="D117" s="7">
-        <f t="shared" ref="D117" si="20">((E117/$E$11)+(F117/$F$11))/2</f>
-        <v>1.0157973290518287</v>
-      </c>
+      <c r="O116" s="78"/>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B117" s="5"/>
+      <c r="D117" s="7"/>
       <c r="E117" s="17">
-        <v>3.81397948</v>
+        <v>3.620393</v>
       </c>
       <c r="F117" s="17">
-        <v>0.17530803</v>
+        <v>0.15406400000000001</v>
       </c>
       <c r="G117" s="17">
-        <v>120.18679262000001</v>
+        <v>130.18400399999999</v>
       </c>
       <c r="H117" s="17">
-        <v>0.16382459999999999</v>
+        <v>0.15149699999999999</v>
       </c>
       <c r="I117" s="17">
-        <v>0.15905066000000001</v>
+        <v>0.19494</v>
       </c>
       <c r="J117">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="K117">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="L117">
         <v>100</v>
       </c>
-      <c r="M117" t="s">
-        <v>24</v>
-      </c>
-      <c r="O117" s="19"/>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>164</v>
-      </c>
-      <c r="B118">
-        <v>23000</v>
-      </c>
-      <c r="C118" t="s">
-        <v>3</v>
-      </c>
-      <c r="D118" s="7">
-        <f t="shared" ref="D118" si="21">((E118/$E$11)+(F118/$F$11))/2</f>
-        <v>1.0899529829446428</v>
-      </c>
+      <c r="O117" s="78"/>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B118" s="5"/>
+      <c r="D118" s="7"/>
       <c r="E118" s="17">
-        <v>3.9829967399999999</v>
+        <v>3.795245</v>
       </c>
       <c r="F118" s="17">
-        <v>0.19260807999999999</v>
+        <v>0.16100400000000001</v>
       </c>
       <c r="G118" s="17">
-        <v>128.14605596000001</v>
+        <v>138.235196</v>
       </c>
       <c r="H118" s="17">
-        <v>0.17272488999999999</v>
+        <v>0.158105</v>
       </c>
       <c r="I118" s="17">
-        <v>0.18854567</v>
+        <v>0.208757</v>
       </c>
       <c r="J118">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="K118">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="L118">
         <v>100</v>
       </c>
-      <c r="M118" t="s">
-        <v>24</v>
-      </c>
-      <c r="O118" s="19"/>
-      <c r="Q118" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
-        <v>164</v>
-      </c>
-      <c r="B119">
-        <v>23000</v>
-      </c>
-      <c r="C119" t="s">
-        <v>3</v>
-      </c>
-      <c r="D119" s="7">
-        <f t="shared" ref="D119" si="22">((E119/$E$11)+(F119/$F$11))/2</f>
-        <v>1.0721602704385234</v>
-      </c>
+      <c r="O118" s="78"/>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B119" s="5"/>
+      <c r="D119" s="7"/>
       <c r="E119" s="17">
-        <v>3.911267</v>
+        <v>3.6243880000000002</v>
       </c>
       <c r="F119" s="17">
-        <v>0.18973999999999999</v>
+        <v>0.161966</v>
       </c>
       <c r="G119" s="17">
-        <v>126.842101</v>
+        <v>133.390792</v>
       </c>
       <c r="H119" s="17">
-        <v>0.17072799999999999</v>
+        <v>0.15484100000000001</v>
       </c>
       <c r="I119" s="17">
-        <v>0.189943</v>
+        <v>0.204738</v>
       </c>
       <c r="J119">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="K119">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L119">
         <v>100</v>
       </c>
-      <c r="M119" t="s">
-        <v>24</v>
-      </c>
-      <c r="O119" s="19"/>
-      <c r="Q119" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
-        <v>164</v>
-      </c>
-      <c r="B120">
-        <v>23000</v>
-      </c>
-      <c r="C120" t="s">
-        <v>3</v>
-      </c>
-      <c r="D120" s="7">
-        <f t="shared" ref="D120" si="23">((E120/$E$11)+(F120/$F$11))/2</f>
-        <v>0.93704786083053349</v>
-      </c>
+      <c r="O119" s="78"/>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B120" s="5"/>
+      <c r="D120" s="7"/>
       <c r="E120" s="17">
-        <v>3.5739740800000002</v>
+        <v>3.6081180000000002</v>
       </c>
       <c r="F120" s="17">
-        <v>0.15942648000000001</v>
+        <v>0.15624399999999999</v>
       </c>
       <c r="G120" s="17">
-        <v>124.77562603</v>
+        <v>128.96975599999999</v>
       </c>
       <c r="H120" s="17">
-        <v>0.15396484999999999</v>
+        <v>0.152166</v>
       </c>
       <c r="I120" s="17">
-        <v>0.18553274</v>
+        <v>0.19877</v>
       </c>
       <c r="J120">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="K120">
         <v>500</v>
@@ -44966,528 +46364,404 @@
       <c r="L120">
         <v>100</v>
       </c>
-      <c r="M120" t="s">
-        <v>24</v>
-      </c>
-      <c r="O120" s="19"/>
-      <c r="Q120" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
-        <v>164</v>
-      </c>
-      <c r="B121">
-        <v>23000</v>
-      </c>
-      <c r="C121" t="s">
-        <v>3</v>
-      </c>
-      <c r="D121" s="7">
-        <f t="shared" ref="D121" si="24">((E121/$E$11)+(F121/$F$11))/2</f>
-        <v>0.93791068613216555</v>
-      </c>
+      <c r="O120" s="78"/>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B121" s="5"/>
+      <c r="D121" s="7"/>
       <c r="E121" s="17">
-        <v>3.6455189400000001</v>
+        <v>3.994936</v>
       </c>
       <c r="F121" s="17">
-        <v>0.15676474000000001</v>
+        <v>0.16946800000000001</v>
       </c>
       <c r="G121" s="17">
-        <v>133.51320763000001</v>
+        <v>144.97284999999999</v>
       </c>
       <c r="H121" s="17">
-        <v>0.15346775000000001</v>
+        <v>0.167764</v>
       </c>
       <c r="I121" s="17">
-        <v>0.20353423000000001</v>
+        <v>0.20338000000000001</v>
       </c>
       <c r="J121">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="K121">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L121">
         <v>100</v>
       </c>
-      <c r="M121" t="s">
-        <v>24</v>
-      </c>
-      <c r="O121" s="19"/>
-      <c r="Q121" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
-        <v>164</v>
-      </c>
-      <c r="B122">
-        <v>23000</v>
-      </c>
-      <c r="C122" t="s">
-        <v>3</v>
-      </c>
-      <c r="D122" s="7">
-        <f t="shared" ref="D122" si="25">((E122/$E$11)+(F122/$F$11))/2</f>
-        <v>0.98962622067276795</v>
-      </c>
-      <c r="E122" s="17">
-        <v>3.9079974399999999</v>
-      </c>
-      <c r="F122" s="17">
-        <v>0.1628793</v>
-      </c>
-      <c r="G122" s="17">
-        <v>148.32926874</v>
-      </c>
-      <c r="H122" s="17">
-        <v>0.16008114000000001</v>
-      </c>
-      <c r="I122" s="17">
-        <v>0.23026674</v>
-      </c>
+      <c r="O121" s="78"/>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B122" s="5"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="17"/>
+      <c r="F122" s="17"/>
+      <c r="G122" s="17"/>
+      <c r="H122" s="17"/>
+      <c r="I122" s="17"/>
       <c r="J122">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="K122">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="L122">
         <v>100</v>
       </c>
-      <c r="M122" t="s">
-        <v>24</v>
-      </c>
-      <c r="O122" s="19"/>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A124" s="90" t="s">
-        <v>355</v>
-      </c>
-      <c r="B124" s="90"/>
-      <c r="C124" s="90"/>
-      <c r="D124" s="90"/>
-      <c r="E124" s="90"/>
-      <c r="F124" s="90"/>
-      <c r="G124" s="90"/>
-      <c r="H124" s="90"/>
-      <c r="I124" s="90"/>
-      <c r="J124" s="90"/>
-      <c r="K124" s="90"/>
-      <c r="L124" s="90"/>
-      <c r="M124" s="90"/>
-      <c r="N124" s="90"/>
-      <c r="O124" s="90"/>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
-        <v>164</v>
-      </c>
-      <c r="B125">
-        <v>23000</v>
-      </c>
-      <c r="C125" t="s">
-        <v>3</v>
-      </c>
-      <c r="D125" s="7">
-        <f t="shared" ref="D125:D127" si="26">((E125/$E$11)+(F125/$F$11))/2</f>
-        <v>1.1078441298801753</v>
-      </c>
-      <c r="E125" s="17">
-        <v>4.396134</v>
-      </c>
-      <c r="F125" s="17">
-        <v>0.18146000000000001</v>
-      </c>
-      <c r="G125" s="17">
-        <v>82.688655999999995</v>
-      </c>
-      <c r="H125" s="17">
-        <v>0.176868</v>
-      </c>
-      <c r="I125" s="17">
-        <v>0.15210199999999999</v>
-      </c>
-      <c r="J125">
-        <v>42</v>
-      </c>
-      <c r="K125">
-        <v>100</v>
-      </c>
-      <c r="L125">
-        <v>100</v>
-      </c>
-      <c r="M125" t="s">
-        <v>24</v>
-      </c>
-      <c r="N125" t="s">
-        <v>153</v>
-      </c>
-      <c r="P125" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q125" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
-        <v>164</v>
-      </c>
-      <c r="B126">
-        <v>23000</v>
-      </c>
-      <c r="C126" t="s">
-        <v>3</v>
-      </c>
-      <c r="D126" s="7">
-        <f t="shared" si="26"/>
-        <v>1.0905474625625282</v>
-      </c>
-      <c r="E126" s="17">
-        <v>4.3296089999999996</v>
-      </c>
-      <c r="F126" s="17">
-        <v>0.17854</v>
-      </c>
-      <c r="G126" s="17">
-        <v>86.019052000000002</v>
-      </c>
-      <c r="H126" s="17">
-        <v>0.17375099999999999</v>
-      </c>
-      <c r="I126" s="17">
-        <v>0.15495500000000001</v>
-      </c>
-      <c r="J126">
-        <v>43</v>
-      </c>
-      <c r="K126">
-        <v>100</v>
-      </c>
-      <c r="L126">
-        <v>100</v>
-      </c>
-      <c r="M126" t="s">
-        <v>24</v>
-      </c>
-      <c r="N126" t="s">
-        <v>153</v>
-      </c>
-      <c r="P126" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q126" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
-        <v>164</v>
-      </c>
-      <c r="B127">
-        <v>23000</v>
-      </c>
-      <c r="C127" t="s">
-        <v>3</v>
-      </c>
-      <c r="D127" s="7">
-        <f t="shared" si="26"/>
-        <v>1.1013947979001528</v>
-      </c>
-      <c r="E127" s="17">
-        <v>4.3706300000000002</v>
-      </c>
-      <c r="F127" s="17">
-        <v>0.1804</v>
-      </c>
-      <c r="G127" s="17">
-        <v>84.296357</v>
-      </c>
-      <c r="H127" s="17">
-        <v>0.175759</v>
-      </c>
-      <c r="I127" s="17">
-        <v>0.153088</v>
-      </c>
-      <c r="J127">
-        <v>44</v>
-      </c>
-      <c r="K127">
-        <v>100</v>
-      </c>
-      <c r="L127">
-        <v>100</v>
-      </c>
-      <c r="M127" t="s">
-        <v>24</v>
-      </c>
-      <c r="N127" t="s">
-        <v>153</v>
-      </c>
-      <c r="P127" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q127" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="D128" s="62">
-        <f>AVERAGE(D125:D127)</f>
-        <v>1.0999287967809523</v>
-      </c>
-      <c r="E128" s="62">
-        <f t="shared" ref="E128" si="27">AVERAGE(E125:E127)</f>
-        <v>4.3654576666666669</v>
-      </c>
-      <c r="F128" s="62">
-        <f t="shared" ref="F128" si="28">AVERAGE(F125:F127)</f>
-        <v>0.18013333333333334</v>
-      </c>
+      <c r="O122" s="78"/>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B123" s="5"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="17"/>
+      <c r="F123" s="17"/>
+      <c r="G123" s="17"/>
+      <c r="H123" s="17"/>
+      <c r="I123" s="17"/>
+      <c r="J123">
+        <v>58</v>
+      </c>
+      <c r="K123">
+        <v>500</v>
+      </c>
+      <c r="L123">
+        <v>100</v>
+      </c>
+      <c r="O123" s="78"/>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B124" s="5"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="17"/>
+      <c r="F124" s="17"/>
+      <c r="G124" s="17"/>
+      <c r="H124" s="17"/>
+      <c r="I124" s="17"/>
+      <c r="J124">
+        <v>59</v>
+      </c>
+      <c r="K124">
+        <v>500</v>
+      </c>
+      <c r="L124">
+        <v>100</v>
+      </c>
+      <c r="O124" s="78"/>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B125" s="5"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="17"/>
+      <c r="F125" s="17"/>
+      <c r="G125" s="17"/>
+      <c r="H125" s="17"/>
+      <c r="I125" s="17"/>
+      <c r="O125" s="78"/>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B126" s="5"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="17"/>
+      <c r="F126" s="17"/>
+      <c r="G126" s="17"/>
+      <c r="H126" s="17"/>
+      <c r="I126" s="17"/>
+      <c r="O126" s="78"/>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B127" s="5"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="17"/>
+      <c r="F127" s="17"/>
+      <c r="G127" s="17"/>
+      <c r="H127" s="17"/>
+      <c r="I127" s="17"/>
+      <c r="O127" s="78"/>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B128" s="5"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="17"/>
+      <c r="F128" s="17"/>
       <c r="G128" s="17"/>
       <c r="H128" s="17"/>
       <c r="I128" s="17"/>
+      <c r="O128" s="78"/>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B129" s="5"/>
       <c r="D129" s="7"/>
       <c r="E129" s="17"/>
       <c r="F129" s="17"/>
       <c r="G129" s="17"/>
       <c r="H129" s="17"/>
       <c r="I129" s="17"/>
+      <c r="O129" s="78"/>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>164</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="5">
         <v>23000</v>
       </c>
       <c r="C130" t="s">
         <v>3</v>
       </c>
       <c r="D130" s="7">
-        <f t="shared" ref="D130:D140" si="29">((E130/$E$11)+(F130/$F$11))/2</f>
-        <v>0.82070690980117922</v>
+        <f t="shared" ref="D130" si="19">((E130/$E$11)+(F130/$F$11))/2</f>
+        <v>1.0369775665098935</v>
       </c>
       <c r="E130" s="17">
-        <v>2.9720710000000001</v>
+        <v>4.0751307099999998</v>
       </c>
       <c r="F130" s="17">
-        <v>0.14614099999999999</v>
+        <v>0.17148972000000001</v>
       </c>
       <c r="G130" s="17">
-        <v>86.328979000000004</v>
+        <v>84.05382702</v>
       </c>
       <c r="H130" s="17">
-        <v>0.13111999999999999</v>
+        <v>0.16710151000000001</v>
       </c>
       <c r="I130" s="17">
-        <v>0.122132</v>
+        <v>0.14757577</v>
       </c>
       <c r="J130">
         <v>42</v>
       </c>
       <c r="K130">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L130">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M130" t="s">
         <v>24</v>
       </c>
+      <c r="O130" s="78">
+        <f t="shared" ref="O130" si="20">(32*L130*K130)/B130</f>
+        <v>6.9565217391304346</v>
+      </c>
       <c r="Q130" t="s">
-        <v>327</v>
+        <v>193</v>
       </c>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>164</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="5">
         <v>23000</v>
       </c>
       <c r="C131" t="s">
         <v>3</v>
       </c>
       <c r="D131" s="7">
-        <f t="shared" si="29"/>
-        <v>0.86078252377525077</v>
+        <f t="shared" ref="D131:D134" si="21">((E131/$E$11)+(F131/$F$11))/2</f>
+        <v>0.96299367912802025</v>
       </c>
       <c r="E131" s="17">
-        <v>3.1608740000000002</v>
+        <v>3.7333449500000002</v>
       </c>
       <c r="F131" s="17">
-        <v>0.15148</v>
+        <v>0.16135499</v>
       </c>
       <c r="G131" s="17">
-        <v>86.680193000000003</v>
+        <v>79.18689483</v>
       </c>
       <c r="H131" s="17">
-        <v>0.13530500000000001</v>
+        <v>0.15734571999999999</v>
       </c>
       <c r="I131" s="17">
-        <v>0.12378500000000001</v>
+        <v>0.13613148999999999</v>
       </c>
       <c r="J131">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K131">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L131">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M131" t="s">
         <v>24</v>
       </c>
+      <c r="O131" s="78">
+        <f t="shared" ref="O131:O134" si="22">(32*L131*K131)/B131</f>
+        <v>13.913043478260869</v>
+      </c>
       <c r="Q131" t="s">
-        <v>327</v>
+        <v>194</v>
       </c>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>164</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="5">
         <v>23000</v>
       </c>
       <c r="C132" t="s">
         <v>3</v>
       </c>
       <c r="D132" s="7">
-        <f t="shared" si="29"/>
-        <v>0.83697456866294784</v>
+        <f t="shared" si="21"/>
+        <v>0.96939679843640247</v>
       </c>
       <c r="E132" s="17">
-        <v>3.092266</v>
+        <v>3.7232196900000001</v>
       </c>
       <c r="F132" s="17">
-        <v>0.14651600000000001</v>
+        <v>0.16386596</v>
       </c>
       <c r="G132" s="17">
-        <v>90.502719999999997</v>
+        <v>100.12861113</v>
       </c>
       <c r="H132" s="17">
-        <v>0.12947800000000001</v>
+        <v>0.15710529000000001</v>
       </c>
       <c r="I132" s="17">
-        <v>0.110846</v>
+        <v>0.15916459999999999</v>
       </c>
       <c r="J132">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K132">
         <v>500</v>
       </c>
       <c r="L132">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M132" t="s">
         <v>24</v>
       </c>
+      <c r="O132" s="78">
+        <f t="shared" si="22"/>
+        <v>34.782608695652172</v>
+      </c>
       <c r="Q132" t="s">
-        <v>327</v>
+        <v>195</v>
       </c>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="D133" s="7"/>
-      <c r="E133" s="17"/>
-      <c r="F133" s="17"/>
-      <c r="G133" s="17"/>
-      <c r="H133" s="17"/>
-      <c r="I133" s="17"/>
+      <c r="A133" t="s">
+        <v>164</v>
+      </c>
+      <c r="B133" s="5">
+        <v>23000</v>
+      </c>
+      <c r="C133" t="s">
+        <v>3</v>
+      </c>
+      <c r="D133" s="7">
+        <f t="shared" si="21"/>
+        <v>1.0010052085542656</v>
+      </c>
+      <c r="E133" s="17">
+        <v>3.8228384800000001</v>
+      </c>
+      <c r="F133" s="17">
+        <v>0.17010528999999999</v>
+      </c>
+      <c r="G133" s="17">
+        <v>110.24805469</v>
+      </c>
+      <c r="H133" s="17">
+        <v>0.16126399</v>
+      </c>
+      <c r="I133" s="17">
+        <v>0.17610058000000001</v>
+      </c>
+      <c r="J133">
+        <v>42</v>
+      </c>
+      <c r="K133">
+        <v>1000</v>
+      </c>
+      <c r="L133">
+        <v>50</v>
+      </c>
+      <c r="M133" t="s">
+        <v>24</v>
+      </c>
+      <c r="O133" s="78">
+        <f t="shared" si="22"/>
+        <v>69.565217391304344</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="D134" s="7"/>
-      <c r="E134" s="17"/>
-      <c r="F134" s="17"/>
-      <c r="G134" s="17"/>
-      <c r="H134" s="17"/>
-      <c r="I134" s="17"/>
+      <c r="A134" t="s">
+        <v>164</v>
+      </c>
+      <c r="B134" s="5">
+        <v>23000</v>
+      </c>
+      <c r="C134" t="s">
+        <v>3</v>
+      </c>
+      <c r="D134" s="7">
+        <f t="shared" si="21"/>
+        <v>1.0647115081469121</v>
+      </c>
+      <c r="E134" s="17">
+        <v>4.0744953900000001</v>
+      </c>
+      <c r="F134" s="17">
+        <v>0.18058708000000001</v>
+      </c>
+      <c r="G134" s="17">
+        <v>147.16405664000001</v>
+      </c>
+      <c r="H134" s="17">
+        <v>0.16988565999999999</v>
+      </c>
+      <c r="I134" s="17">
+        <v>0.21501922000000001</v>
+      </c>
+      <c r="J134">
+        <v>42</v>
+      </c>
+      <c r="K134">
+        <v>2000</v>
+      </c>
+      <c r="L134">
+        <v>50</v>
+      </c>
+      <c r="M134" t="s">
+        <v>24</v>
+      </c>
+      <c r="O134" s="78">
+        <f t="shared" si="22"/>
+        <v>139.13043478260869</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
-        <v>164</v>
-      </c>
-      <c r="B135">
-        <v>23000</v>
-      </c>
-      <c r="C135" t="s">
-        <v>3</v>
-      </c>
-      <c r="D135" s="7">
-        <f t="shared" si="29"/>
-        <v>0.8966567939238177</v>
-      </c>
-      <c r="E135" s="17">
-        <v>3.4912580000000002</v>
-      </c>
-      <c r="F135" s="17">
-        <v>0.149619</v>
-      </c>
-      <c r="G135" s="17">
-        <v>124.16160000000001</v>
-      </c>
-      <c r="H135" s="17">
-        <v>0.14802599999999999</v>
-      </c>
-      <c r="I135" s="17">
-        <v>0.17504400000000001</v>
-      </c>
-      <c r="J135">
-        <v>45</v>
-      </c>
-      <c r="K135">
-        <v>500</v>
-      </c>
-      <c r="L135">
-        <v>100</v>
-      </c>
+      <c r="E135" s="17"/>
+      <c r="F135" s="17"/>
+      <c r="G135" s="17"/>
+      <c r="H135" s="17"/>
+      <c r="I135" s="17"/>
+      <c r="O135" s="19"/>
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
-        <v>164</v>
-      </c>
-      <c r="B136">
-        <v>23000</v>
-      </c>
-      <c r="C136" t="s">
-        <v>3</v>
-      </c>
-      <c r="D136" s="7">
-        <f t="shared" si="29"/>
-        <v>0.99229552077837735</v>
-      </c>
-      <c r="E136" s="17">
-        <v>3.8864990000000001</v>
-      </c>
-      <c r="F136" s="17">
-        <v>0.16463700000000001</v>
-      </c>
-      <c r="G136" s="17">
-        <v>138.77504300000001</v>
-      </c>
-      <c r="H136" s="17">
-        <v>0.16017600000000001</v>
-      </c>
-      <c r="I136" s="17">
-        <v>0.21778500000000001</v>
-      </c>
-      <c r="J136">
-        <v>46</v>
-      </c>
-      <c r="K136">
-        <v>500</v>
-      </c>
-      <c r="L136">
-        <v>100</v>
-      </c>
+      <c r="E136" s="17"/>
+      <c r="F136" s="17"/>
+      <c r="G136" s="17"/>
+      <c r="H136" s="17"/>
+      <c r="I136" s="17"/>
+      <c r="O136" s="19"/>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
@@ -45500,32 +46774,39 @@
         <v>3</v>
       </c>
       <c r="D137" s="7">
-        <f t="shared" si="29"/>
-        <v>0.925095103110808</v>
+        <f t="shared" ref="D137" si="23">((E137/$E$11)+(F137/$F$11))/2</f>
+        <v>1.0157973290518287</v>
       </c>
       <c r="E137" s="17">
-        <v>3.581337</v>
+        <v>3.81397948</v>
       </c>
       <c r="F137" s="17">
-        <v>0.15521399999999999</v>
+        <v>0.17530803</v>
       </c>
       <c r="G137" s="17">
-        <v>127.444018</v>
+        <v>120.18679262000001</v>
       </c>
       <c r="H137" s="17">
-        <v>0.15115700000000001</v>
+        <v>0.16382459999999999</v>
       </c>
       <c r="I137" s="17">
-        <v>0.18840599999999999</v>
+        <v>0.15905066000000001</v>
       </c>
       <c r="J137">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K137">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L137">
         <v>100</v>
+      </c>
+      <c r="M137" t="s">
+        <v>24</v>
+      </c>
+      <c r="O137" s="78">
+        <f t="shared" ref="O137:O142" si="24">(32*L137*K137)/B137</f>
+        <v>13.913043478260869</v>
       </c>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.35">
@@ -45539,32 +46820,42 @@
         <v>3</v>
       </c>
       <c r="D138" s="7">
-        <f t="shared" si="29"/>
-        <v>0.92831449394628751</v>
+        <f t="shared" ref="D138" si="25">((E138/$E$11)+(F138/$F$11))/2</f>
+        <v>1.0899529829446428</v>
       </c>
       <c r="E138" s="17">
-        <v>3.6322260000000002</v>
+        <v>3.9829967399999999</v>
       </c>
       <c r="F138" s="17">
-        <v>0.154173</v>
+        <v>0.19260807999999999</v>
       </c>
       <c r="G138" s="17">
-        <v>124.93782400000001</v>
+        <v>128.14605596000001</v>
       </c>
       <c r="H138" s="17">
-        <v>0.152223</v>
+        <v>0.17272488999999999</v>
       </c>
       <c r="I138" s="17">
-        <v>0.18835199999999999</v>
+        <v>0.18854567</v>
       </c>
       <c r="J138">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="K138">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L138">
         <v>100</v>
+      </c>
+      <c r="M138" t="s">
+        <v>24</v>
+      </c>
+      <c r="O138" s="78">
+        <f t="shared" si="24"/>
+        <v>27.826086956521738</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.35">
@@ -45578,32 +46869,42 @@
         <v>3</v>
       </c>
       <c r="D139" s="7">
-        <f t="shared" si="29"/>
-        <v>0.95435873916472547</v>
+        <f t="shared" ref="D139" si="26">((E139/$E$11)+(F139/$F$11))/2</f>
+        <v>1.0721602704385234</v>
       </c>
       <c r="E139" s="17">
-        <v>3.6542330000000001</v>
+        <v>3.911267</v>
       </c>
       <c r="F139" s="17">
-        <v>0.16178600000000001</v>
+        <v>0.18973999999999999</v>
       </c>
       <c r="G139" s="17">
-        <v>135.46599499999999</v>
+        <v>126.842101</v>
       </c>
       <c r="H139" s="17">
-        <v>0.15481300000000001</v>
+        <v>0.17072799999999999</v>
       </c>
       <c r="I139" s="17">
-        <v>0.199243</v>
+        <v>0.189943</v>
       </c>
       <c r="J139">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K139">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L139">
         <v>100</v>
+      </c>
+      <c r="M139" t="s">
+        <v>24</v>
+      </c>
+      <c r="O139" s="78">
+        <f t="shared" si="24"/>
+        <v>34.782608695652172</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.35">
@@ -45617,26 +46918,26 @@
         <v>3</v>
       </c>
       <c r="D140" s="7">
-        <f t="shared" si="29"/>
-        <v>0.95095818153942346</v>
+        <f t="shared" ref="D140" si="27">((E140/$E$11)+(F140/$F$11))/2</f>
+        <v>0.93704786083053349</v>
       </c>
       <c r="E140" s="17">
-        <v>3.7402570000000002</v>
+        <v>3.5739740800000002</v>
       </c>
       <c r="F140" s="17">
-        <v>0.157134</v>
+        <v>0.15942648000000001</v>
       </c>
       <c r="G140" s="17">
-        <v>133.93418299999999</v>
+        <v>124.77562603</v>
       </c>
       <c r="H140" s="17">
-        <v>0.15518299999999999</v>
+        <v>0.15396484999999999</v>
       </c>
       <c r="I140" s="17">
-        <v>0.199711</v>
+        <v>0.18553274</v>
       </c>
       <c r="J140">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="K140">
         <v>500</v>
@@ -45644,126 +46945,130 @@
       <c r="L140">
         <v>100</v>
       </c>
+      <c r="M140" t="s">
+        <v>24</v>
+      </c>
+      <c r="O140" s="78">
+        <f t="shared" si="24"/>
+        <v>69.565217391304344</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>164</v>
+      </c>
+      <c r="B141">
+        <v>23000</v>
+      </c>
+      <c r="C141" t="s">
+        <v>3</v>
+      </c>
+      <c r="D141" s="7">
+        <f t="shared" ref="D141" si="28">((E141/$E$11)+(F141/$F$11))/2</f>
+        <v>0.93791068613216555</v>
+      </c>
+      <c r="E141" s="17">
+        <v>3.6455189400000001</v>
+      </c>
+      <c r="F141" s="17">
+        <v>0.15676474000000001</v>
+      </c>
+      <c r="G141" s="17">
+        <v>133.51320763000001</v>
+      </c>
+      <c r="H141" s="17">
+        <v>0.15346775000000001</v>
+      </c>
+      <c r="I141" s="17">
+        <v>0.20353423000000001</v>
+      </c>
+      <c r="J141">
+        <v>42</v>
+      </c>
+      <c r="K141">
+        <v>1000</v>
+      </c>
+      <c r="L141">
+        <v>100</v>
+      </c>
+      <c r="M141" t="s">
+        <v>24</v>
+      </c>
+      <c r="O141" s="78">
+        <f t="shared" si="24"/>
+        <v>139.13043478260869</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A142" s="91" t="s">
-        <v>356</v>
-      </c>
-      <c r="B142" s="91"/>
-      <c r="C142" s="91"/>
-      <c r="D142" s="91"/>
-      <c r="E142" s="91"/>
-      <c r="F142" s="91"/>
-      <c r="G142" s="91"/>
-      <c r="H142" s="91"/>
-      <c r="I142" s="91"/>
-      <c r="J142" s="91"/>
-      <c r="K142" s="91"/>
-      <c r="L142" s="91"/>
-      <c r="M142" s="91"/>
-      <c r="N142" s="91"/>
-    </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
+      <c r="A142" t="s">
         <v>164</v>
       </c>
-      <c r="B143">
+      <c r="B142">
         <v>23000</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C142" t="s">
         <v>3</v>
       </c>
-      <c r="D143" s="7">
-        <f t="shared" ref="D143:D145" si="30">((E143/$E$11)+(F143/$F$11))/2</f>
-        <v>1.0157971769446754</v>
-      </c>
-      <c r="E143" s="17">
-        <v>3.8139789999999998</v>
-      </c>
-      <c r="F143" s="17">
-        <v>0.17530799999999999</v>
-      </c>
-      <c r="G143" s="17">
-        <v>120.18679299999999</v>
-      </c>
-      <c r="H143" s="17">
-        <v>0.163825</v>
-      </c>
-      <c r="I143" s="17">
-        <v>0.159051</v>
-      </c>
-      <c r="J143">
+      <c r="D142" s="7">
+        <f t="shared" ref="D142" si="29">((E142/$E$11)+(F142/$F$11))/2</f>
+        <v>0.98962622067276795</v>
+      </c>
+      <c r="E142" s="17">
+        <v>3.9079974399999999</v>
+      </c>
+      <c r="F142" s="17">
+        <v>0.1628793</v>
+      </c>
+      <c r="G142" s="17">
+        <v>148.32926874</v>
+      </c>
+      <c r="H142" s="17">
+        <v>0.16008114000000001</v>
+      </c>
+      <c r="I142" s="17">
+        <v>0.23026674</v>
+      </c>
+      <c r="J142">
         <v>42</v>
       </c>
-      <c r="K143">
-        <v>100</v>
-      </c>
-      <c r="L143">
-        <v>100</v>
-      </c>
-      <c r="M143" t="s">
+      <c r="K142">
+        <v>2000</v>
+      </c>
+      <c r="L142">
+        <v>100</v>
+      </c>
+      <c r="M142" t="s">
         <v>24</v>
       </c>
-      <c r="N143" t="s">
-        <v>153</v>
-      </c>
-      <c r="P143" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q143" t="s">
-        <v>328</v>
+      <c r="O142" s="78">
+        <f t="shared" si="24"/>
+        <v>278.26086956521738</v>
       </c>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
-        <v>164</v>
-      </c>
-      <c r="B144">
-        <v>23000</v>
-      </c>
-      <c r="C144" t="s">
-        <v>3</v>
-      </c>
-      <c r="D144" s="7">
-        <f t="shared" si="30"/>
-        <v>1.1305592019356805</v>
-      </c>
-      <c r="E144" s="17">
-        <v>4.0713249999999999</v>
-      </c>
-      <c r="F144" s="17">
-        <v>0.20225499999999999</v>
-      </c>
-      <c r="G144" s="17">
-        <v>132.986591</v>
-      </c>
-      <c r="H144" s="17">
-        <v>0.17800099999999999</v>
-      </c>
-      <c r="I144" s="17">
-        <v>0.18995500000000001</v>
-      </c>
-      <c r="J144">
-        <v>43</v>
-      </c>
-      <c r="K144">
-        <v>100</v>
-      </c>
-      <c r="L144">
-        <v>100</v>
-      </c>
-      <c r="M144" t="s">
-        <v>24</v>
-      </c>
-      <c r="N144" t="s">
-        <v>153</v>
-      </c>
-      <c r="P144" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q144" t="s">
-        <v>328</v>
-      </c>
+      <c r="A144" s="90" t="s">
+        <v>355</v>
+      </c>
+      <c r="B144" s="90"/>
+      <c r="C144" s="90"/>
+      <c r="D144" s="90"/>
+      <c r="E144" s="90"/>
+      <c r="F144" s="90"/>
+      <c r="G144" s="90"/>
+      <c r="H144" s="90"/>
+      <c r="I144" s="90"/>
+      <c r="J144" s="90"/>
+      <c r="K144" s="90"/>
+      <c r="L144" s="90"/>
+      <c r="M144" s="90"/>
+      <c r="N144" s="90"/>
+      <c r="O144" s="90"/>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
@@ -45776,26 +47081,26 @@
         <v>3</v>
       </c>
       <c r="D145" s="7">
-        <f t="shared" si="30"/>
-        <v>0.97356504730126048</v>
+        <f t="shared" ref="D145:D147" si="30">((E145/$E$11)+(F145/$F$11))/2</f>
+        <v>1.1078441298801753</v>
       </c>
       <c r="E145" s="17">
-        <v>3.7826949999999999</v>
+        <v>4.396134</v>
       </c>
       <c r="F145" s="17">
-        <v>0.16278200000000001</v>
+        <v>0.18146000000000001</v>
       </c>
       <c r="G145" s="17">
-        <v>119.78619</v>
+        <v>82.688655999999995</v>
       </c>
       <c r="H145" s="17">
-        <v>0.15807299999999999</v>
+        <v>0.176868</v>
       </c>
       <c r="I145" s="17">
-        <v>0.18188399999999999</v>
+        <v>0.15210199999999999</v>
       </c>
       <c r="J145">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K145">
         <v>100</v>
@@ -45809,110 +47114,151 @@
       <c r="N145" t="s">
         <v>153</v>
       </c>
+      <c r="O145" s="78">
+        <f t="shared" ref="O145:O147" si="31">(32*L145*K145)/B145</f>
+        <v>13.913043478260869</v>
+      </c>
       <c r="P145" t="s">
         <v>325</v>
       </c>
       <c r="Q145" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="D146" s="62">
-        <f>AVERAGE(D143:D145)</f>
-        <v>1.0399738087272055</v>
-      </c>
-      <c r="E146" s="62">
-        <f t="shared" ref="E146" si="31">AVERAGE(E143:E145)</f>
-        <v>3.8893330000000002</v>
-      </c>
-      <c r="F146" s="62">
-        <f t="shared" ref="F146" si="32">AVERAGE(F143:F145)</f>
-        <v>0.180115</v>
+      <c r="A146" t="s">
+        <v>164</v>
+      </c>
+      <c r="B146">
+        <v>23000</v>
+      </c>
+      <c r="C146" t="s">
+        <v>3</v>
+      </c>
+      <c r="D146" s="7">
+        <f t="shared" si="30"/>
+        <v>1.0905474625625282</v>
+      </c>
+      <c r="E146" s="17">
+        <v>4.3296089999999996</v>
+      </c>
+      <c r="F146" s="17">
+        <v>0.17854</v>
+      </c>
+      <c r="G146" s="17">
+        <v>86.019052000000002</v>
+      </c>
+      <c r="H146" s="17">
+        <v>0.17375099999999999</v>
+      </c>
+      <c r="I146" s="17">
+        <v>0.15495500000000001</v>
+      </c>
+      <c r="J146">
+        <v>43</v>
+      </c>
+      <c r="K146">
+        <v>100</v>
+      </c>
+      <c r="L146">
+        <v>100</v>
+      </c>
+      <c r="M146" t="s">
+        <v>24</v>
+      </c>
+      <c r="N146" t="s">
+        <v>153</v>
+      </c>
+      <c r="O146" s="78">
+        <f t="shared" si="31"/>
+        <v>13.913043478260869</v>
+      </c>
+      <c r="P146" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>164</v>
+      </c>
+      <c r="B147">
+        <v>23000</v>
+      </c>
+      <c r="C147" t="s">
+        <v>3</v>
+      </c>
+      <c r="D147" s="7">
+        <f t="shared" si="30"/>
+        <v>1.1013947979001528</v>
+      </c>
+      <c r="E147" s="17">
+        <v>4.3706300000000002</v>
+      </c>
+      <c r="F147" s="17">
+        <v>0.1804</v>
+      </c>
+      <c r="G147" s="17">
+        <v>84.296357</v>
+      </c>
+      <c r="H147" s="17">
+        <v>0.175759</v>
+      </c>
+      <c r="I147" s="17">
+        <v>0.153088</v>
+      </c>
+      <c r="J147">
+        <v>44</v>
+      </c>
+      <c r="K147">
+        <v>100</v>
+      </c>
+      <c r="L147">
+        <v>100</v>
+      </c>
+      <c r="M147" t="s">
+        <v>24</v>
+      </c>
+      <c r="N147" t="s">
+        <v>153</v>
+      </c>
+      <c r="O147" s="78">
+        <f t="shared" si="31"/>
+        <v>13.913043478260869</v>
+      </c>
+      <c r="P147" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
-        <v>164</v>
-      </c>
-      <c r="B148">
-        <v>23000</v>
-      </c>
-      <c r="C148" t="s">
-        <v>3</v>
-      </c>
-      <c r="D148" s="7">
-        <f t="shared" ref="D148:D150" si="33">((E148/$E$11)+(F148/$F$11))/2</f>
-        <v>1.0721602704385234</v>
-      </c>
-      <c r="E148" s="17">
-        <v>3.911267</v>
-      </c>
-      <c r="F148" s="17">
-        <v>0.18973999999999999</v>
-      </c>
-      <c r="G148" s="17">
-        <v>126.842101</v>
-      </c>
-      <c r="H148" s="17">
-        <v>0.17072799999999999</v>
-      </c>
-      <c r="I148" s="17">
-        <v>0.189943</v>
-      </c>
-      <c r="J148">
-        <v>42</v>
-      </c>
-      <c r="K148">
-        <v>250</v>
-      </c>
-      <c r="L148">
-        <v>100</v>
-      </c>
-      <c r="M148" t="s">
-        <v>24</v>
-      </c>
+      <c r="D148" s="62">
+        <f>AVERAGE(D145:D147)</f>
+        <v>1.0999287967809523</v>
+      </c>
+      <c r="E148" s="62">
+        <f t="shared" ref="E148" si="32">AVERAGE(E145:E147)</f>
+        <v>4.3654576666666669</v>
+      </c>
+      <c r="F148" s="62">
+        <f t="shared" ref="F148" si="33">AVERAGE(F145:F147)</f>
+        <v>0.18013333333333334</v>
+      </c>
+      <c r="G148" s="17"/>
+      <c r="H148" s="17"/>
+      <c r="I148" s="17"/>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
-        <v>164</v>
-      </c>
-      <c r="B149">
-        <v>23000</v>
-      </c>
-      <c r="C149" t="s">
-        <v>3</v>
-      </c>
-      <c r="D149" s="7">
-        <f t="shared" si="33"/>
-        <v>1.1111549815080426</v>
-      </c>
-      <c r="E149" s="17">
-        <v>4.0166269999999997</v>
-      </c>
-      <c r="F149" s="17">
-        <v>0.198159</v>
-      </c>
-      <c r="G149" s="17">
-        <v>137.46159900000001</v>
-      </c>
-      <c r="H149" s="17">
-        <v>0.174261</v>
-      </c>
-      <c r="I149" s="17">
-        <v>0.21415000000000001</v>
-      </c>
-      <c r="J149">
-        <v>43</v>
-      </c>
-      <c r="K149">
-        <v>250</v>
-      </c>
-      <c r="L149">
-        <v>100</v>
-      </c>
-      <c r="M149" t="s">
-        <v>24</v>
-      </c>
+      <c r="D149" s="7"/>
+      <c r="E149" s="17"/>
+      <c r="F149" s="17"/>
+      <c r="G149" s="17"/>
+      <c r="H149" s="17"/>
+      <c r="I149" s="17"/>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
@@ -45925,29 +47271,29 @@
         <v>3</v>
       </c>
       <c r="D150" s="7">
-        <f t="shared" si="33"/>
-        <v>0.95488138675698619</v>
+        <f t="shared" ref="D150:D160" si="34">((E150/$E$11)+(F150/$F$11))/2</f>
+        <v>0.82070690980117922</v>
       </c>
       <c r="E150" s="17">
-        <v>3.7422789999999999</v>
+        <v>2.9720710000000001</v>
       </c>
       <c r="F150" s="17">
-        <v>0.158334</v>
+        <v>0.14614099999999999</v>
       </c>
       <c r="G150" s="17">
-        <v>128.95801</v>
+        <v>86.328979000000004</v>
       </c>
       <c r="H150" s="17">
-        <v>0.156079</v>
+        <v>0.13111999999999999</v>
       </c>
       <c r="I150" s="17">
-        <v>0.19339600000000001</v>
+        <v>0.122132</v>
       </c>
       <c r="J150">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K150">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L150">
         <v>100</v>
@@ -45955,30 +47301,127 @@
       <c r="M150" t="s">
         <v>24</v>
       </c>
+      <c r="O150" s="78">
+        <f t="shared" ref="O150:O152" si="35">(32*L150*K150)/B150</f>
+        <v>69.565217391304344</v>
+      </c>
+      <c r="Q150" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="D151" s="62">
-        <f>AVERAGE(D148:D150)</f>
-        <v>1.0460655462345174</v>
-      </c>
-      <c r="E151" s="62">
-        <f t="shared" ref="E151" si="34">AVERAGE(E148:E150)</f>
-        <v>3.8900576666666669</v>
-      </c>
-      <c r="F151" s="62">
-        <f t="shared" ref="F151" si="35">AVERAGE(F148:F150)</f>
-        <v>0.18207766666666667</v>
+      <c r="A151" t="s">
+        <v>164</v>
+      </c>
+      <c r="B151">
+        <v>23000</v>
+      </c>
+      <c r="C151" t="s">
+        <v>3</v>
+      </c>
+      <c r="D151" s="7">
+        <f t="shared" si="34"/>
+        <v>0.86078252377525077</v>
+      </c>
+      <c r="E151" s="17">
+        <v>3.1608740000000002</v>
+      </c>
+      <c r="F151" s="17">
+        <v>0.15148</v>
+      </c>
+      <c r="G151" s="17">
+        <v>86.680193000000003</v>
+      </c>
+      <c r="H151" s="17">
+        <v>0.13530500000000001</v>
+      </c>
+      <c r="I151" s="17">
+        <v>0.12378500000000001</v>
+      </c>
+      <c r="J151">
+        <v>43</v>
+      </c>
+      <c r="K151">
+        <v>500</v>
+      </c>
+      <c r="L151">
+        <v>100</v>
+      </c>
+      <c r="M151" t="s">
+        <v>24</v>
+      </c>
+      <c r="O151" s="78">
+        <f t="shared" si="35"/>
+        <v>69.565217391304344</v>
+      </c>
+      <c r="Q151" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>164</v>
+      </c>
+      <c r="B152">
+        <v>23000</v>
+      </c>
+      <c r="C152" t="s">
+        <v>3</v>
+      </c>
+      <c r="D152" s="7">
+        <f t="shared" si="34"/>
+        <v>0.83697456866294784</v>
+      </c>
+      <c r="E152" s="17">
+        <v>3.092266</v>
+      </c>
+      <c r="F152" s="17">
+        <v>0.14651600000000001</v>
+      </c>
+      <c r="G152" s="17">
+        <v>90.502719999999997</v>
+      </c>
+      <c r="H152" s="17">
+        <v>0.12947800000000001</v>
+      </c>
+      <c r="I152" s="17">
+        <v>0.110846</v>
+      </c>
+      <c r="J152">
+        <v>44</v>
+      </c>
+      <c r="K152">
+        <v>500</v>
+      </c>
+      <c r="L152">
+        <v>100</v>
+      </c>
+      <c r="M152" t="s">
+        <v>24</v>
+      </c>
+      <c r="O152" s="78">
+        <f t="shared" si="35"/>
+        <v>69.565217391304344</v>
+      </c>
+      <c r="Q152" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="J153">
-        <v>42</v>
-      </c>
+      <c r="D153" s="7"/>
+      <c r="E153" s="17"/>
+      <c r="F153" s="17"/>
+      <c r="G153" s="17"/>
+      <c r="H153" s="17"/>
+      <c r="I153" s="17"/>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="J154">
-        <v>43</v>
-      </c>
+      <c r="D154" s="7"/>
+      <c r="E154" s="17"/>
+      <c r="F154" s="17"/>
+      <c r="G154" s="17"/>
+      <c r="H154" s="17"/>
+      <c r="I154" s="17"/>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
@@ -45991,26 +47434,26 @@
         <v>3</v>
       </c>
       <c r="D155" s="7">
-        <f t="shared" ref="D155" si="36">((E155/$E$11)+(F155/$F$11))/2</f>
-        <v>0.92123412401125793</v>
-      </c>
-      <c r="E155">
-        <v>3.412391</v>
-      </c>
-      <c r="F155">
-        <v>0.16090299999999999</v>
-      </c>
-      <c r="G155">
-        <v>133.27513200000001</v>
-      </c>
-      <c r="H155">
-        <v>0.14910499999999999</v>
-      </c>
-      <c r="I155">
-        <v>0.21826899999999999</v>
+        <f t="shared" si="34"/>
+        <v>0.8966567939238177</v>
+      </c>
+      <c r="E155" s="17">
+        <v>3.4912580000000002</v>
+      </c>
+      <c r="F155" s="17">
+        <v>0.149619</v>
+      </c>
+      <c r="G155" s="17">
+        <v>124.16160000000001</v>
+      </c>
+      <c r="H155" s="17">
+        <v>0.14802599999999999</v>
+      </c>
+      <c r="I155" s="17">
+        <v>0.17504400000000001</v>
       </c>
       <c r="J155">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K155">
         <v>500</v>
@@ -46018,8 +47461,629 @@
       <c r="L155">
         <v>100</v>
       </c>
-      <c r="M155" t="s">
+      <c r="O155" s="78">
+        <f t="shared" ref="O155:O160" si="36">(32*L155*K155)/B155</f>
+        <v>69.565217391304344</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>164</v>
+      </c>
+      <c r="B156">
+        <v>23000</v>
+      </c>
+      <c r="C156" t="s">
+        <v>3</v>
+      </c>
+      <c r="D156" s="7">
+        <f t="shared" si="34"/>
+        <v>0.99229552077837735</v>
+      </c>
+      <c r="E156" s="17">
+        <v>3.8864990000000001</v>
+      </c>
+      <c r="F156" s="17">
+        <v>0.16463700000000001</v>
+      </c>
+      <c r="G156" s="17">
+        <v>138.77504300000001</v>
+      </c>
+      <c r="H156" s="17">
+        <v>0.16017600000000001</v>
+      </c>
+      <c r="I156" s="17">
+        <v>0.21778500000000001</v>
+      </c>
+      <c r="J156">
+        <v>46</v>
+      </c>
+      <c r="K156">
+        <v>500</v>
+      </c>
+      <c r="L156">
+        <v>100</v>
+      </c>
+      <c r="O156" s="78">
+        <f t="shared" si="36"/>
+        <v>69.565217391304344</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>164</v>
+      </c>
+      <c r="B157">
+        <v>23000</v>
+      </c>
+      <c r="C157" t="s">
+        <v>3</v>
+      </c>
+      <c r="D157" s="7">
+        <f t="shared" si="34"/>
+        <v>0.925095103110808</v>
+      </c>
+      <c r="E157" s="17">
+        <v>3.581337</v>
+      </c>
+      <c r="F157" s="17">
+        <v>0.15521399999999999</v>
+      </c>
+      <c r="G157" s="17">
+        <v>127.444018</v>
+      </c>
+      <c r="H157" s="17">
+        <v>0.15115700000000001</v>
+      </c>
+      <c r="I157" s="17">
+        <v>0.18840599999999999</v>
+      </c>
+      <c r="J157">
+        <v>47</v>
+      </c>
+      <c r="K157">
+        <v>500</v>
+      </c>
+      <c r="L157">
+        <v>100</v>
+      </c>
+      <c r="O157" s="78">
+        <f t="shared" si="36"/>
+        <v>69.565217391304344</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>164</v>
+      </c>
+      <c r="B158">
+        <v>23000</v>
+      </c>
+      <c r="C158" t="s">
+        <v>3</v>
+      </c>
+      <c r="D158" s="7">
+        <f t="shared" si="34"/>
+        <v>0.92831449394628751</v>
+      </c>
+      <c r="E158" s="17">
+        <v>3.6322260000000002</v>
+      </c>
+      <c r="F158" s="17">
+        <v>0.154173</v>
+      </c>
+      <c r="G158" s="17">
+        <v>124.93782400000001</v>
+      </c>
+      <c r="H158" s="17">
+        <v>0.152223</v>
+      </c>
+      <c r="I158" s="17">
+        <v>0.18835199999999999</v>
+      </c>
+      <c r="J158">
+        <v>48</v>
+      </c>
+      <c r="K158">
+        <v>500</v>
+      </c>
+      <c r="L158">
+        <v>100</v>
+      </c>
+      <c r="O158" s="78">
+        <f t="shared" si="36"/>
+        <v>69.565217391304344</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>164</v>
+      </c>
+      <c r="B159">
+        <v>23000</v>
+      </c>
+      <c r="C159" t="s">
+        <v>3</v>
+      </c>
+      <c r="D159" s="7">
+        <f t="shared" si="34"/>
+        <v>0.95435873916472547</v>
+      </c>
+      <c r="E159" s="17">
+        <v>3.6542330000000001</v>
+      </c>
+      <c r="F159" s="17">
+        <v>0.16178600000000001</v>
+      </c>
+      <c r="G159" s="17">
+        <v>135.46599499999999</v>
+      </c>
+      <c r="H159" s="17">
+        <v>0.15481300000000001</v>
+      </c>
+      <c r="I159" s="17">
+        <v>0.199243</v>
+      </c>
+      <c r="J159">
+        <v>49</v>
+      </c>
+      <c r="K159">
+        <v>500</v>
+      </c>
+      <c r="L159">
+        <v>100</v>
+      </c>
+      <c r="O159" s="78">
+        <f t="shared" si="36"/>
+        <v>69.565217391304344</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>164</v>
+      </c>
+      <c r="B160">
+        <v>23000</v>
+      </c>
+      <c r="C160" t="s">
+        <v>3</v>
+      </c>
+      <c r="D160" s="7">
+        <f t="shared" si="34"/>
+        <v>0.95095818153942346</v>
+      </c>
+      <c r="E160" s="17">
+        <v>3.7402570000000002</v>
+      </c>
+      <c r="F160" s="17">
+        <v>0.157134</v>
+      </c>
+      <c r="G160" s="17">
+        <v>133.93418299999999</v>
+      </c>
+      <c r="H160" s="17">
+        <v>0.15518299999999999</v>
+      </c>
+      <c r="I160" s="17">
+        <v>0.199711</v>
+      </c>
+      <c r="J160">
+        <v>50</v>
+      </c>
+      <c r="K160">
+        <v>500</v>
+      </c>
+      <c r="L160">
+        <v>100</v>
+      </c>
+      <c r="O160" s="78">
+        <f t="shared" si="36"/>
+        <v>69.565217391304344</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A162" s="91" t="s">
+        <v>356</v>
+      </c>
+      <c r="B162" s="91"/>
+      <c r="C162" s="91"/>
+      <c r="D162" s="91"/>
+      <c r="E162" s="91"/>
+      <c r="F162" s="91"/>
+      <c r="G162" s="91"/>
+      <c r="H162" s="91"/>
+      <c r="I162" s="91"/>
+      <c r="J162" s="91"/>
+      <c r="K162" s="91"/>
+      <c r="L162" s="91"/>
+      <c r="M162" s="91"/>
+      <c r="N162" s="91"/>
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>164</v>
+      </c>
+      <c r="B163">
+        <v>23000</v>
+      </c>
+      <c r="C163" t="s">
+        <v>3</v>
+      </c>
+      <c r="D163" s="7">
+        <f t="shared" ref="D163:D165" si="37">((E163/$E$11)+(F163/$F$11))/2</f>
+        <v>1.0157971769446754</v>
+      </c>
+      <c r="E163" s="17">
+        <v>3.8139789999999998</v>
+      </c>
+      <c r="F163" s="17">
+        <v>0.17530799999999999</v>
+      </c>
+      <c r="G163" s="17">
+        <v>120.18679299999999</v>
+      </c>
+      <c r="H163" s="17">
+        <v>0.163825</v>
+      </c>
+      <c r="I163" s="17">
+        <v>0.159051</v>
+      </c>
+      <c r="J163">
+        <v>42</v>
+      </c>
+      <c r="K163">
+        <v>100</v>
+      </c>
+      <c r="L163">
+        <v>100</v>
+      </c>
+      <c r="M163" t="s">
         <v>24</v>
+      </c>
+      <c r="N163" t="s">
+        <v>153</v>
+      </c>
+      <c r="O163" s="78">
+        <f t="shared" ref="O163:O165" si="38">(32*L163*K163)/B163</f>
+        <v>13.913043478260869</v>
+      </c>
+      <c r="P163" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q163" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>164</v>
+      </c>
+      <c r="B164">
+        <v>23000</v>
+      </c>
+      <c r="C164" t="s">
+        <v>3</v>
+      </c>
+      <c r="D164" s="7">
+        <f t="shared" si="37"/>
+        <v>1.1305592019356805</v>
+      </c>
+      <c r="E164" s="17">
+        <v>4.0713249999999999</v>
+      </c>
+      <c r="F164" s="17">
+        <v>0.20225499999999999</v>
+      </c>
+      <c r="G164" s="17">
+        <v>132.986591</v>
+      </c>
+      <c r="H164" s="17">
+        <v>0.17800099999999999</v>
+      </c>
+      <c r="I164" s="17">
+        <v>0.18995500000000001</v>
+      </c>
+      <c r="J164">
+        <v>43</v>
+      </c>
+      <c r="K164">
+        <v>100</v>
+      </c>
+      <c r="L164">
+        <v>100</v>
+      </c>
+      <c r="M164" t="s">
+        <v>24</v>
+      </c>
+      <c r="N164" t="s">
+        <v>153</v>
+      </c>
+      <c r="O164" s="78">
+        <f t="shared" si="38"/>
+        <v>13.913043478260869</v>
+      </c>
+      <c r="P164" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q164" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>23000</v>
+      </c>
+      <c r="C165" t="s">
+        <v>3</v>
+      </c>
+      <c r="D165" s="7">
+        <f t="shared" si="37"/>
+        <v>0.97356504730126048</v>
+      </c>
+      <c r="E165" s="17">
+        <v>3.7826949999999999</v>
+      </c>
+      <c r="F165" s="17">
+        <v>0.16278200000000001</v>
+      </c>
+      <c r="G165" s="17">
+        <v>119.78619</v>
+      </c>
+      <c r="H165" s="17">
+        <v>0.15807299999999999</v>
+      </c>
+      <c r="I165" s="17">
+        <v>0.18188399999999999</v>
+      </c>
+      <c r="J165">
+        <v>44</v>
+      </c>
+      <c r="K165">
+        <v>100</v>
+      </c>
+      <c r="L165">
+        <v>100</v>
+      </c>
+      <c r="M165" t="s">
+        <v>24</v>
+      </c>
+      <c r="N165" t="s">
+        <v>153</v>
+      </c>
+      <c r="O165" s="78">
+        <f t="shared" si="38"/>
+        <v>13.913043478260869</v>
+      </c>
+      <c r="P165" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q165" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="D166" s="62">
+        <f>AVERAGE(D163:D165)</f>
+        <v>1.0399738087272055</v>
+      </c>
+      <c r="E166" s="62">
+        <f t="shared" ref="E166" si="39">AVERAGE(E163:E165)</f>
+        <v>3.8893330000000002</v>
+      </c>
+      <c r="F166" s="62">
+        <f t="shared" ref="F166" si="40">AVERAGE(F163:F165)</f>
+        <v>0.180115</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>164</v>
+      </c>
+      <c r="B168">
+        <v>23000</v>
+      </c>
+      <c r="C168" t="s">
+        <v>3</v>
+      </c>
+      <c r="D168" s="7">
+        <f t="shared" ref="D168:D170" si="41">((E168/$E$11)+(F168/$F$11))/2</f>
+        <v>1.0721602704385234</v>
+      </c>
+      <c r="E168" s="17">
+        <v>3.911267</v>
+      </c>
+      <c r="F168" s="17">
+        <v>0.18973999999999999</v>
+      </c>
+      <c r="G168" s="17">
+        <v>126.842101</v>
+      </c>
+      <c r="H168" s="17">
+        <v>0.17072799999999999</v>
+      </c>
+      <c r="I168" s="17">
+        <v>0.189943</v>
+      </c>
+      <c r="J168">
+        <v>42</v>
+      </c>
+      <c r="K168">
+        <v>250</v>
+      </c>
+      <c r="L168">
+        <v>100</v>
+      </c>
+      <c r="M168" t="s">
+        <v>24</v>
+      </c>
+      <c r="O168" s="78">
+        <f t="shared" ref="O168:O170" si="42">(32*L168*K168)/B168</f>
+        <v>34.782608695652172</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>164</v>
+      </c>
+      <c r="B169">
+        <v>23000</v>
+      </c>
+      <c r="C169" t="s">
+        <v>3</v>
+      </c>
+      <c r="D169" s="7">
+        <f t="shared" si="41"/>
+        <v>1.1111549815080426</v>
+      </c>
+      <c r="E169" s="17">
+        <v>4.0166269999999997</v>
+      </c>
+      <c r="F169" s="17">
+        <v>0.198159</v>
+      </c>
+      <c r="G169" s="17">
+        <v>137.46159900000001</v>
+      </c>
+      <c r="H169" s="17">
+        <v>0.174261</v>
+      </c>
+      <c r="I169" s="17">
+        <v>0.21415000000000001</v>
+      </c>
+      <c r="J169">
+        <v>43</v>
+      </c>
+      <c r="K169">
+        <v>250</v>
+      </c>
+      <c r="L169">
+        <v>100</v>
+      </c>
+      <c r="M169" t="s">
+        <v>24</v>
+      </c>
+      <c r="O169" s="78">
+        <f t="shared" si="42"/>
+        <v>34.782608695652172</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>164</v>
+      </c>
+      <c r="B170">
+        <v>23000</v>
+      </c>
+      <c r="C170" t="s">
+        <v>3</v>
+      </c>
+      <c r="D170" s="7">
+        <f t="shared" si="41"/>
+        <v>0.95488138675698619</v>
+      </c>
+      <c r="E170" s="17">
+        <v>3.7422789999999999</v>
+      </c>
+      <c r="F170" s="17">
+        <v>0.158334</v>
+      </c>
+      <c r="G170" s="17">
+        <v>128.95801</v>
+      </c>
+      <c r="H170" s="17">
+        <v>0.156079</v>
+      </c>
+      <c r="I170" s="17">
+        <v>0.19339600000000001</v>
+      </c>
+      <c r="J170">
+        <v>44</v>
+      </c>
+      <c r="K170">
+        <v>250</v>
+      </c>
+      <c r="L170">
+        <v>100</v>
+      </c>
+      <c r="M170" t="s">
+        <v>24</v>
+      </c>
+      <c r="O170" s="78">
+        <f t="shared" si="42"/>
+        <v>34.782608695652172</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="D171" s="62">
+        <f>AVERAGE(D168:D170)</f>
+        <v>1.0460655462345174</v>
+      </c>
+      <c r="E171" s="62">
+        <f t="shared" ref="E171" si="43">AVERAGE(E168:E170)</f>
+        <v>3.8900576666666669</v>
+      </c>
+      <c r="F171" s="62">
+        <f t="shared" ref="F171" si="44">AVERAGE(F168:F170)</f>
+        <v>0.18207766666666667</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J173">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J174">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="175" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>164</v>
+      </c>
+      <c r="B175">
+        <v>23000</v>
+      </c>
+      <c r="C175" t="s">
+        <v>3</v>
+      </c>
+      <c r="D175" s="7">
+        <f t="shared" ref="D175" si="45">((E175/$E$11)+(F175/$F$11))/2</f>
+        <v>0.92123412401125793</v>
+      </c>
+      <c r="E175">
+        <v>3.412391</v>
+      </c>
+      <c r="F175">
+        <v>0.16090299999999999</v>
+      </c>
+      <c r="G175">
+        <v>133.27513200000001</v>
+      </c>
+      <c r="H175">
+        <v>0.14910499999999999</v>
+      </c>
+      <c r="I175">
+        <v>0.21826899999999999</v>
+      </c>
+      <c r="J175">
+        <v>44</v>
+      </c>
+      <c r="K175">
+        <v>500</v>
+      </c>
+      <c r="L175">
+        <v>100</v>
+      </c>
+      <c r="M175" t="s">
+        <v>24</v>
+      </c>
+      <c r="O175" s="78">
+        <f>(32*L175*K175)/B175</f>
+        <v>69.565217391304344</v>
       </c>
     </row>
   </sheetData>
@@ -46027,8 +48091,8 @@
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A13:Q13"/>
     <mergeCell ref="A109:Q109"/>
-    <mergeCell ref="A124:O124"/>
-    <mergeCell ref="A142:N142"/>
+    <mergeCell ref="A144:O144"/>
+    <mergeCell ref="A162:N162"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/results/results_1_main.xlsx
+++ b/results/results_1_main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TM\Dropbox\DS\RNN-for-TS\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADB4955-B2AC-4C5E-9E3C-AE4908FDD67F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E78645-8347-4DF5-A33F-57CF0EADA53D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" tabRatio="818" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="818" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data dictionary" sheetId="30" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2890" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2888" uniqueCount="375">
   <si>
     <t>epochs</t>
   </si>
@@ -3485,11 +3485,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E1F683-F06B-4E20-80D1-BE6D024EC21F}">
-  <dimension ref="A1:T192"/>
+  <dimension ref="A1:T191"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H66" sqref="H66"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O194" sqref="O194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3530,13 +3530,13 @@
         <v>27</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="F1" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="24" t="s">
         <v>1</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>2</v>
       </c>
       <c r="H1" s="23" t="s">
         <v>4</v>
@@ -3619,11 +3619,11 @@
         <f>((F3/$F$13)+(G3/$G$13))/2</f>
         <v>0.44014273194452036</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="29">
+        <v>9.3280000000000002E-2</v>
+      </c>
+      <c r="G3" s="26">
         <v>0.89300000000000002</v>
-      </c>
-      <c r="G3" s="29">
-        <v>9.3280000000000002E-2</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
@@ -3653,14 +3653,14 @@
         <v>169</v>
       </c>
       <c r="E4" s="26">
-        <f>((F4/$F$13)+(G4/$G$13))/2</f>
+        <f t="shared" ref="E4:E5" si="0">((F4/$F$13)+(G4/$G$13))/2</f>
         <v>0.48393339493907017</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="29">
+        <v>0.11506</v>
+      </c>
+      <c r="G4" s="26">
         <v>0.81899999999999995</v>
-      </c>
-      <c r="G4" s="29">
-        <v>0.11506</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -3690,14 +3690,14 @@
         <v>209</v>
       </c>
       <c r="E5" s="26">
-        <f>((F5/$F$13)+(G5/$G$13))/2</f>
+        <f t="shared" si="0"/>
         <v>0.40964844868358341</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="29">
+        <v>8.9130000000000001E-2</v>
+      </c>
+      <c r="G5" s="26">
         <v>0.80100000000000005</v>
-      </c>
-      <c r="G5" s="29">
-        <v>8.9130000000000001E-2</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
@@ -3716,8 +3716,8 @@
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="D6" s="12"/>
       <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="26"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
@@ -3744,14 +3744,14 @@
         <v>210</v>
       </c>
       <c r="E7" s="26">
-        <f t="shared" ref="E7:E13" si="0">((F7/$F$13)+(G7/$G$13))/2</f>
+        <f t="shared" ref="E7:E13" si="1">((F7/$F$13)+(G7/$G$13))/2</f>
         <v>1.0058623305979464</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="29">
+        <v>0.18138000000000001</v>
+      </c>
+      <c r="G7" s="26">
         <v>2.4550000000000001</v>
-      </c>
-      <c r="G7" s="29">
-        <v>0.18138000000000001</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
@@ -3781,14 +3781,14 @@
         <v>173</v>
       </c>
       <c r="E8" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5563966867364183</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="29">
+        <v>0.22053</v>
+      </c>
+      <c r="G8" s="26">
         <v>4.5819999999999999</v>
-      </c>
-      <c r="G8" s="29">
-        <v>0.22053</v>
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -3815,14 +3815,14 @@
         <v>170</v>
       </c>
       <c r="E9" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0117095478406175</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="29">
+        <v>0.17566999999999999</v>
+      </c>
+      <c r="G9" s="26">
         <v>2.5573999999999999</v>
-      </c>
-      <c r="G9" s="29">
-        <v>0.17566999999999999</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -3850,14 +3850,14 @@
         <v>171</v>
       </c>
       <c r="E10" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.57711109145158512</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="29">
+        <v>0.13980000000000001</v>
+      </c>
+      <c r="G10" s="26">
         <v>0.94299999999999995</v>
-      </c>
-      <c r="G10" s="29">
-        <v>0.13980000000000001</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -3887,14 +3887,14 @@
         <v>172</v>
       </c>
       <c r="E11" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.85152714958462694</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="29">
+        <v>0.17307</v>
+      </c>
+      <c r="G11" s="26">
         <v>1.8240000000000001</v>
-      </c>
-      <c r="G11" s="29">
-        <v>0.17307</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -3921,14 +3921,14 @@
         <v>176</v>
       </c>
       <c r="E12" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.6672123672854231</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="29">
+        <v>0.14738999999999999</v>
+      </c>
+      <c r="G12" s="26">
         <v>1.2757000000000001</v>
-      </c>
-      <c r="G12" s="29">
-        <v>0.14738999999999999</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -3958,14 +3958,14 @@
         <v>174</v>
       </c>
       <c r="E13" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="29">
+        <v>0.18382999999999999</v>
+      </c>
+      <c r="G13" s="26">
         <v>2.395</v>
-      </c>
-      <c r="G13" s="29">
-        <v>0.18382999999999999</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
@@ -4008,8 +4008,8 @@
     <row r="15" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D15" s="16"/>
       <c r="E15" s="26"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="27"/>
       <c r="H15" s="28"/>
       <c r="I15" s="28"/>
       <c r="J15" s="28"/>
@@ -4033,15 +4033,15 @@
       <c r="D16" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="13">
-        <f t="shared" ref="E16:E25" si="1">((F16/$F$13)+(G16/$G$13))/2</f>
+      <c r="E16" s="26">
+        <f t="shared" ref="E16:E25" si="2">((F16/$F$13)+(G16/$G$13))/2</f>
         <v>0.61309585956753865</v>
       </c>
-      <c r="F16" s="70">
+      <c r="F16" s="71">
+        <v>0.120501</v>
+      </c>
+      <c r="G16" s="70">
         <v>1.3668009999999999</v>
-      </c>
-      <c r="G16" s="71">
-        <v>0.120501</v>
       </c>
       <c r="H16" s="71">
         <v>23.158843999999998</v>
@@ -4084,15 +4084,15 @@
       <c r="D17" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="13">
-        <f t="shared" si="1"/>
+      <c r="E17" s="26">
+        <f t="shared" si="2"/>
         <v>0.61147694241196116</v>
       </c>
-      <c r="F17" s="70">
+      <c r="F17" s="71">
+        <v>0.122173</v>
+      </c>
+      <c r="G17" s="70">
         <v>1.3372630000000001</v>
-      </c>
-      <c r="G17" s="71">
-        <v>0.122173</v>
       </c>
       <c r="H17" s="71">
         <v>24.830175000000001</v>
@@ -4116,7 +4116,7 @@
         <v>24</v>
       </c>
       <c r="O17" s="73">
-        <f t="shared" ref="O17:O25" si="2">(32*L17*M17)/C17</f>
+        <f>(32*L17*M17)/C17</f>
         <v>386.47342995169083</v>
       </c>
       <c r="P17" s="16"/>
@@ -4135,15 +4135,15 @@
       <c r="D18" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="13">
-        <f t="shared" si="1"/>
+      <c r="E18" s="26">
+        <f t="shared" si="2"/>
         <v>0.59764497391787841</v>
       </c>
-      <c r="F18" s="70">
+      <c r="F18" s="71">
+        <v>0.12559100000000001</v>
+      </c>
+      <c r="G18" s="70">
         <v>1.226477</v>
-      </c>
-      <c r="G18" s="71">
-        <v>0.12559100000000001</v>
       </c>
       <c r="H18" s="71">
         <v>17.544001000000002</v>
@@ -4167,7 +4167,7 @@
         <v>24</v>
       </c>
       <c r="O18" s="73">
-        <f t="shared" si="2"/>
+        <f>(32*L18*M18)/C18</f>
         <v>386.47342995169083</v>
       </c>
       <c r="P18" s="16"/>
@@ -4186,15 +4186,15 @@
       <c r="D19" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="13">
-        <f t="shared" si="1"/>
+      <c r="E19" s="26">
+        <f t="shared" si="2"/>
         <v>0.61959627945488793</v>
       </c>
-      <c r="F19" s="70">
+      <c r="F19" s="71">
+        <v>0.11983099999999999</v>
+      </c>
+      <c r="G19" s="70">
         <v>1.4066669999999999</v>
-      </c>
-      <c r="G19" s="71">
-        <v>0.11983099999999999</v>
       </c>
       <c r="H19" s="71">
         <v>25.007788999999999</v>
@@ -4218,7 +4218,7 @@
         <v>24</v>
       </c>
       <c r="O19" s="73">
-        <f t="shared" si="2"/>
+        <f>(32*L19*M19)/C19</f>
         <v>386.47342995169083</v>
       </c>
       <c r="P19" s="16"/>
@@ -4237,15 +4237,15 @@
       <c r="D20" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="13">
-        <f t="shared" si="1"/>
+      <c r="E20" s="26">
+        <f t="shared" si="2"/>
         <v>0.66220601664399703</v>
       </c>
-      <c r="F20" s="70">
+      <c r="F20" s="71">
+        <v>0.133191</v>
+      </c>
+      <c r="G20" s="70">
         <v>1.436709</v>
-      </c>
-      <c r="G20" s="71">
-        <v>0.133191</v>
       </c>
       <c r="H20" s="71">
         <v>26.372098000000001</v>
@@ -4269,7 +4269,7 @@
         <v>24</v>
       </c>
       <c r="O20" s="73">
-        <f t="shared" si="2"/>
+        <f>(32*L20*M20)/C20</f>
         <v>386.47342995169083</v>
       </c>
       <c r="P20" s="16"/>
@@ -4288,15 +4288,15 @@
       <c r="D21" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="13">
-        <f t="shared" si="1"/>
+      <c r="E21" s="26">
+        <f t="shared" si="2"/>
         <v>0.691391303245249</v>
       </c>
-      <c r="F21" s="70">
+      <c r="F21" s="71">
+        <v>0.121354</v>
+      </c>
+      <c r="G21" s="70">
         <v>1.730723</v>
-      </c>
-      <c r="G21" s="71">
-        <v>0.121354</v>
       </c>
       <c r="H21" s="71">
         <v>39.095528999999999</v>
@@ -4320,7 +4320,7 @@
         <v>24</v>
       </c>
       <c r="O21" s="73">
-        <f t="shared" si="2"/>
+        <f>(32*L21*M21)/C21</f>
         <v>386.47342995169083</v>
       </c>
       <c r="P21" s="16"/>
@@ -4339,15 +4339,15 @@
       <c r="D22" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="13">
-        <f t="shared" si="1"/>
+      <c r="E22" s="26">
+        <f t="shared" si="2"/>
         <v>0.63641212843353845</v>
       </c>
-      <c r="F22" s="70">
+      <c r="F22" s="71">
+        <v>0.121063</v>
+      </c>
+      <c r="G22" s="70">
         <v>1.4711639999999999</v>
-      </c>
-      <c r="G22" s="71">
-        <v>0.121063</v>
       </c>
       <c r="H22" s="71">
         <v>29.862193000000001</v>
@@ -4371,7 +4371,7 @@
         <v>24</v>
       </c>
       <c r="O22" s="73">
-        <f t="shared" si="2"/>
+        <f>(32*L22*M22)/C22</f>
         <v>386.47342995169083</v>
       </c>
       <c r="P22" s="16"/>
@@ -4390,15 +4390,15 @@
       <c r="D23" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="13">
-        <f t="shared" si="1"/>
+      <c r="E23" s="26">
+        <f t="shared" si="2"/>
         <v>0.65358632275417394</v>
       </c>
-      <c r="F23" s="70">
+      <c r="F23" s="71">
+        <v>0.128804</v>
+      </c>
+      <c r="G23" s="70">
         <v>1.4525760000000001</v>
-      </c>
-      <c r="G23" s="71">
-        <v>0.128804</v>
       </c>
       <c r="H23" s="71">
         <v>28.413278999999999</v>
@@ -4422,7 +4422,7 @@
         <v>24</v>
       </c>
       <c r="O23" s="73">
-        <f t="shared" si="2"/>
+        <f>(32*L23*M23)/C23</f>
         <v>386.47342995169083</v>
       </c>
       <c r="P23" s="16"/>
@@ -4441,15 +4441,15 @@
       <c r="D24" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="13">
-        <f t="shared" si="1"/>
+      <c r="E24" s="26">
+        <f t="shared" si="2"/>
         <v>0.6708588440327401</v>
       </c>
-      <c r="F24" s="70">
+      <c r="F24" s="71">
+        <v>0.135239</v>
+      </c>
+      <c r="G24" s="70">
         <v>1.4514739999999999</v>
-      </c>
-      <c r="G24" s="71">
-        <v>0.135239</v>
       </c>
       <c r="H24" s="71">
         <v>26.556856</v>
@@ -4473,7 +4473,7 @@
         <v>24</v>
       </c>
       <c r="O24" s="73">
-        <f t="shared" si="2"/>
+        <f>(32*L24*M24)/C24</f>
         <v>386.47342995169083</v>
       </c>
       <c r="P24" s="16"/>
@@ -4492,15 +4492,15 @@
       <c r="D25" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="13">
-        <f t="shared" si="1"/>
+      <c r="E25" s="26">
+        <f t="shared" si="2"/>
         <v>0.60213464530006788</v>
       </c>
-      <c r="F25" s="70">
+      <c r="F25" s="71">
+        <v>0.12529199999999999</v>
+      </c>
+      <c r="G25" s="70">
         <v>1.251878</v>
-      </c>
-      <c r="G25" s="71">
-        <v>0.12529199999999999</v>
       </c>
       <c r="H25" s="71">
         <v>21.122447999999999</v>
@@ -4524,7 +4524,7 @@
         <v>24</v>
       </c>
       <c r="O25" s="73">
-        <f t="shared" si="2"/>
+        <f>(32*L25*M25)/C25</f>
         <v>386.47342995169083</v>
       </c>
       <c r="P25" s="16"/>
@@ -4541,11 +4541,11 @@
       </c>
       <c r="F26" s="72">
         <f>AVERAGE(F16:F25)</f>
-        <v>1.4131731999999997</v>
+        <v>0.12530389999999997</v>
       </c>
       <c r="G26" s="72">
         <f>AVERAGE(G16:G25)</f>
-        <v>0.12530389999999997</v>
+        <v>1.4131731999999997</v>
       </c>
       <c r="H26" s="28"/>
       <c r="I26" s="28"/>
@@ -4568,11 +4568,11 @@
       </c>
       <c r="F27" s="72">
         <f>MEDIAN(F16:F25)</f>
-        <v>1.4216880000000001</v>
+        <v>0.1237325</v>
       </c>
       <c r="G27" s="72">
         <f>MEDIAN(G16:G25)</f>
-        <v>0.1237325</v>
+        <v>1.4216880000000001</v>
       </c>
       <c r="H27" s="28"/>
       <c r="I27" s="28"/>
@@ -4590,8 +4590,8 @@
     <row r="28" spans="2:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D28" s="16"/>
       <c r="E28" s="26"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="27"/>
       <c r="H28" s="28"/>
       <c r="I28" s="28"/>
       <c r="J28" s="28"/>
@@ -4616,14 +4616,14 @@
         <v>6</v>
       </c>
       <c r="E29" s="26">
-        <f>((F29/$F$13)+(G29/$G$13))/2</f>
+        <f t="shared" ref="E29:E38" si="3">((F29/$F$13)+(G29/$G$13))/2</f>
         <v>0.57757371035938276</v>
       </c>
       <c r="F29" s="28">
+        <v>0.119298</v>
+      </c>
+      <c r="G29" s="28">
         <v>1.212323</v>
-      </c>
-      <c r="G29" s="28">
-        <v>0.119298</v>
       </c>
       <c r="H29" s="28">
         <v>20.548572</v>
@@ -4667,14 +4667,14 @@
         <v>6</v>
       </c>
       <c r="E30" s="26">
-        <f t="shared" ref="E30:E38" si="3">((F30/$F$13)+(G30/$G$13))/2</f>
+        <f t="shared" si="3"/>
         <v>0.62223272911332139</v>
       </c>
       <c r="F30" s="28">
+        <v>0.118864</v>
+      </c>
+      <c r="G30" s="28">
         <v>1.431894</v>
-      </c>
-      <c r="G30" s="28">
-        <v>0.118864</v>
       </c>
       <c r="H30" s="28">
         <v>31.045327</v>
@@ -4698,7 +4698,7 @@
         <v>24</v>
       </c>
       <c r="O30" s="73">
-        <f t="shared" ref="O30:O38" si="4">(32*L30*M30)/C30</f>
+        <f>(32*L30*M30)/C30</f>
         <v>772.94685990338166</v>
       </c>
       <c r="P30" s="16"/>
@@ -4722,10 +4722,10 @@
         <v>0.58121412948811169</v>
       </c>
       <c r="F31" s="28">
+        <v>0.113427</v>
+      </c>
+      <c r="G31" s="28">
         <v>1.3062499999999999</v>
-      </c>
-      <c r="G31" s="28">
-        <v>0.113427</v>
       </c>
       <c r="H31" s="28">
         <v>24.501898000000001</v>
@@ -4749,7 +4749,7 @@
         <v>24</v>
       </c>
       <c r="O31" s="73">
-        <f t="shared" si="4"/>
+        <f>(32*L31*M31)/C31</f>
         <v>772.94685990338166</v>
       </c>
       <c r="P31" s="16"/>
@@ -4773,10 +4773,10 @@
         <v>0.55894702447584499</v>
       </c>
       <c r="F32" s="28">
+        <v>0.104379</v>
+      </c>
+      <c r="G32" s="28">
         <v>1.3174710000000001</v>
-      </c>
-      <c r="G32" s="28">
-        <v>0.104379</v>
       </c>
       <c r="H32" s="28">
         <v>23.562199</v>
@@ -4800,7 +4800,7 @@
         <v>24</v>
       </c>
       <c r="O32" s="73">
-        <f t="shared" si="4"/>
+        <f>(32*L32*M32)/C32</f>
         <v>772.94685990338166</v>
       </c>
       <c r="P32" s="16"/>
@@ -4824,10 +4824,10 @@
         <v>0.76496718743842596</v>
       </c>
       <c r="F33" s="28">
+        <v>0.13626099999999999</v>
+      </c>
+      <c r="G33" s="28">
         <v>1.888938</v>
-      </c>
-      <c r="G33" s="28">
-        <v>0.13626099999999999</v>
       </c>
       <c r="H33" s="28">
         <v>45.418359000000002</v>
@@ -4851,7 +4851,7 @@
         <v>24</v>
       </c>
       <c r="O33" s="73">
-        <f t="shared" si="4"/>
+        <f>(32*L33*M33)/C33</f>
         <v>772.94685990338166</v>
       </c>
       <c r="P33" s="16"/>
@@ -4875,10 +4875,10 @@
         <v>0.66744455307657513</v>
       </c>
       <c r="F34" s="28">
+        <v>0.122803</v>
+      </c>
+      <c r="G34" s="28">
         <v>1.59714</v>
-      </c>
-      <c r="G34" s="28">
-        <v>0.122803</v>
       </c>
       <c r="H34" s="28">
         <v>35.229090999999997</v>
@@ -4902,7 +4902,7 @@
         <v>24</v>
       </c>
       <c r="O34" s="73">
-        <f t="shared" si="4"/>
+        <f>(32*L34*M34)/C34</f>
         <v>772.94685990338166</v>
       </c>
       <c r="P34" s="16"/>
@@ -4926,10 +4926,10 @@
         <v>0.57637426240341649</v>
       </c>
       <c r="F35" s="28">
+        <v>0.11053499999999999</v>
+      </c>
+      <c r="G35" s="28">
         <v>1.3207450000000001</v>
-      </c>
-      <c r="G35" s="28">
-        <v>0.11053499999999999</v>
       </c>
       <c r="H35" s="28">
         <v>26.786683</v>
@@ -4953,7 +4953,7 @@
         <v>24</v>
       </c>
       <c r="O35" s="73">
-        <f t="shared" si="4"/>
+        <f>(32*L35*M35)/C35</f>
         <v>772.94685990338166</v>
       </c>
       <c r="P35" s="16"/>
@@ -4977,10 +4977,10 @@
         <v>0.58874965741130758</v>
       </c>
       <c r="F36" s="28">
+        <v>0.11389199999999999</v>
+      </c>
+      <c r="G36" s="28">
         <v>1.336287</v>
-      </c>
-      <c r="G36" s="28">
-        <v>0.11389199999999999</v>
       </c>
       <c r="H36" s="28">
         <v>26.581302000000001</v>
@@ -5004,7 +5004,7 @@
         <v>24</v>
       </c>
       <c r="O36" s="73">
-        <f t="shared" si="4"/>
+        <f>(32*L36*M36)/C36</f>
         <v>772.94685990338166</v>
       </c>
       <c r="P36" s="16"/>
@@ -5028,10 +5028,10 @@
         <v>0.64884099823552599</v>
       </c>
       <c r="F37" s="28">
+        <v>0.123296</v>
+      </c>
+      <c r="G37" s="28">
         <v>1.501606</v>
-      </c>
-      <c r="G37" s="28">
-        <v>0.123296</v>
       </c>
       <c r="H37" s="28">
         <v>31.217531000000001</v>
@@ -5055,7 +5055,7 @@
         <v>24</v>
       </c>
       <c r="O37" s="73">
-        <f t="shared" si="4"/>
+        <f>(32*L37*M37)/C37</f>
         <v>772.94685990338166</v>
       </c>
       <c r="P37" s="16"/>
@@ -5079,10 +5079,10 @@
         <v>0.55931856879205699</v>
       </c>
       <c r="F38" s="28">
+        <v>0.105074</v>
+      </c>
+      <c r="G38" s="28">
         <v>1.3101959999999999</v>
-      </c>
-      <c r="G38" s="28">
-        <v>0.105074</v>
       </c>
       <c r="H38" s="28">
         <v>24.90165</v>
@@ -5106,7 +5106,7 @@
         <v>24</v>
       </c>
       <c r="O38" s="73">
-        <f t="shared" si="4"/>
+        <f>(32*L38*M38)/C38</f>
         <v>772.94685990338166</v>
       </c>
       <c r="P38" s="16"/>
@@ -5123,11 +5123,11 @@
       </c>
       <c r="F39" s="72">
         <f>AVERAGE(F29:F38)</f>
-        <v>1.422285</v>
+        <v>0.11678289999999998</v>
       </c>
       <c r="G39" s="72">
         <f>AVERAGE(G29:G38)</f>
-        <v>0.11678289999999998</v>
+        <v>1.422285</v>
       </c>
       <c r="H39" s="28"/>
       <c r="I39" s="28"/>
@@ -5150,11 +5150,11 @@
       </c>
       <c r="F40" s="72">
         <f>MEDIAN(F29:F38)</f>
-        <v>1.328516</v>
+        <v>0.116378</v>
       </c>
       <c r="G40" s="72">
         <f>MEDIAN(G29:G38)</f>
-        <v>0.116378</v>
+        <v>1.328516</v>
       </c>
       <c r="H40" s="28"/>
       <c r="I40" s="28"/>
@@ -5172,8 +5172,8 @@
     <row r="41" spans="2:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D41" s="16"/>
       <c r="E41" s="26"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="27"/>
       <c r="H41" s="28"/>
       <c r="I41" s="28"/>
       <c r="J41" s="28"/>
@@ -5198,14 +5198,14 @@
         <v>6</v>
       </c>
       <c r="E42" s="26">
-        <f>((F42/$F$13)+(G42/$G$13))/2</f>
+        <f t="shared" ref="E42:E51" si="4">((F42/$F$13)+(G42/$G$13))/2</f>
         <v>0.56956642941984725</v>
       </c>
-      <c r="F42" s="27">
+      <c r="F42" s="28">
+        <v>0.118385</v>
+      </c>
+      <c r="G42" s="27">
         <v>1.1858629999999999</v>
-      </c>
-      <c r="G42" s="28">
-        <v>0.118385</v>
       </c>
       <c r="H42" s="28">
         <v>20.448263000000001</v>
@@ -5249,14 +5249,14 @@
         <v>6</v>
       </c>
       <c r="E43" s="26">
-        <f t="shared" ref="E43:E51" si="5">((F43/$F$13)+(G43/$G$13))/2</f>
+        <f t="shared" si="4"/>
         <v>0.57873619470289839</v>
       </c>
-      <c r="F43" s="27">
+      <c r="F43" s="28">
+        <v>0.110417</v>
+      </c>
+      <c r="G43" s="27">
         <v>1.333596</v>
-      </c>
-      <c r="G43" s="28">
-        <v>0.110417</v>
       </c>
       <c r="H43" s="28">
         <v>26.879021999999999</v>
@@ -5280,7 +5280,7 @@
         <v>24</v>
       </c>
       <c r="O43" s="73">
-        <f t="shared" ref="O43:O51" si="6">(32*L43*M43)/C43</f>
+        <f>(32*L43*M43)/C43</f>
         <v>1545.8937198067633</v>
       </c>
       <c r="P43" s="16"/>
@@ -5300,14 +5300,14 @@
         <v>6</v>
       </c>
       <c r="E44" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.59866244742322849</v>
       </c>
-      <c r="F44" s="27">
+      <c r="F44" s="28">
+        <v>0.117712</v>
+      </c>
+      <c r="G44" s="27">
         <v>1.334001</v>
-      </c>
-      <c r="G44" s="28">
-        <v>0.117712</v>
       </c>
       <c r="H44" s="28">
         <v>26.441265999999999</v>
@@ -5331,7 +5331,7 @@
         <v>24</v>
       </c>
       <c r="O44" s="73">
-        <f t="shared" si="6"/>
+        <f>(32*L44*M44)/C44</f>
         <v>1545.8937198067633</v>
       </c>
       <c r="P44" s="16"/>
@@ -5351,14 +5351,14 @@
         <v>6</v>
       </c>
       <c r="E45" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.53280957044023958</v>
       </c>
-      <c r="F45" s="27">
+      <c r="F45" s="28">
+        <v>0.10440000000000001</v>
+      </c>
+      <c r="G45" s="27">
         <v>1.191999</v>
-      </c>
-      <c r="G45" s="28">
-        <v>0.10440000000000001</v>
       </c>
       <c r="H45" s="28">
         <v>21.515855999999999</v>
@@ -5382,7 +5382,7 @@
         <v>24</v>
       </c>
       <c r="O45" s="73">
-        <f t="shared" si="6"/>
+        <f>(32*L45*M45)/C45</f>
         <v>1545.8937198067633</v>
       </c>
       <c r="P45" s="16"/>
@@ -5402,14 +5402,14 @@
         <v>6</v>
       </c>
       <c r="E46" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.63508365278485834</v>
       </c>
-      <c r="F46" s="27">
+      <c r="F46" s="28">
+        <v>0.122919</v>
+      </c>
+      <c r="G46" s="27">
         <v>1.44062</v>
-      </c>
-      <c r="G46" s="28">
-        <v>0.122919</v>
       </c>
       <c r="H46" s="28">
         <v>29.608616000000001</v>
@@ -5433,7 +5433,7 @@
         <v>24</v>
       </c>
       <c r="O46" s="73">
-        <f t="shared" si="6"/>
+        <f>(32*L46*M46)/C46</f>
         <v>1545.8937198067633</v>
       </c>
       <c r="P46" s="16"/>
@@ -5453,14 +5453,14 @@
         <v>6</v>
       </c>
       <c r="E47" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.66530338107380449</v>
       </c>
-      <c r="F47" s="27">
+      <c r="F47" s="28">
+        <v>0.120255</v>
+      </c>
+      <c r="G47" s="27">
         <v>1.62008</v>
-      </c>
-      <c r="G47" s="28">
-        <v>0.120255</v>
       </c>
       <c r="H47" s="28">
         <v>37.096339999999998</v>
@@ -5484,7 +5484,7 @@
         <v>24</v>
       </c>
       <c r="O47" s="73">
-        <f t="shared" si="6"/>
+        <f>(32*L47*M47)/C47</f>
         <v>1545.8937198067633</v>
       </c>
       <c r="P47" s="16"/>
@@ -5504,14 +5504,14 @@
         <v>6</v>
       </c>
       <c r="E48" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.57259572875093245</v>
       </c>
-      <c r="F48" s="27">
+      <c r="F48" s="28">
+        <v>0.108941</v>
+      </c>
+      <c r="G48" s="27">
         <v>1.323413</v>
-      </c>
-      <c r="G48" s="28">
-        <v>0.108941</v>
       </c>
       <c r="H48" s="28">
         <v>27.454101999999999</v>
@@ -5535,7 +5535,7 @@
         <v>24</v>
       </c>
       <c r="O48" s="73">
-        <f t="shared" si="6"/>
+        <f>(32*L48*M48)/C48</f>
         <v>1545.8937198067633</v>
       </c>
       <c r="P48" s="16"/>
@@ -5555,14 +5555,14 @@
         <v>6</v>
       </c>
       <c r="E49" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.54408114616879055</v>
       </c>
-      <c r="F49" s="27">
+      <c r="F49" s="28">
+        <v>0.108664</v>
+      </c>
+      <c r="G49" s="27">
         <v>1.190437</v>
-      </c>
-      <c r="G49" s="28">
-        <v>0.108664</v>
       </c>
       <c r="H49" s="28">
         <v>22.174496000000001</v>
@@ -5586,7 +5586,7 @@
         <v>24</v>
       </c>
       <c r="O49" s="73">
-        <f t="shared" si="6"/>
+        <f>(32*L49*M49)/C49</f>
         <v>1545.8937198067633</v>
       </c>
       <c r="P49" s="16"/>
@@ -5606,14 +5606,14 @@
         <v>6</v>
       </c>
       <c r="E50" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.71322411751031212</v>
       </c>
-      <c r="F50" s="27">
+      <c r="F50" s="28">
+        <v>0.13833200000000001</v>
+      </c>
+      <c r="G50" s="27">
         <v>1.614107</v>
-      </c>
-      <c r="G50" s="28">
-        <v>0.13833200000000001</v>
       </c>
       <c r="H50" s="28">
         <v>37.964945</v>
@@ -5637,7 +5637,7 @@
         <v>24</v>
       </c>
       <c r="O50" s="73">
-        <f t="shared" si="6"/>
+        <f>(32*L50*M50)/C50</f>
         <v>1545.8937198067633</v>
       </c>
       <c r="P50" s="16"/>
@@ -5657,14 +5657,14 @@
         <v>6</v>
       </c>
       <c r="E51" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.61550510093911082</v>
       </c>
-      <c r="F51" s="27">
+      <c r="F51" s="28">
+        <v>0.110525</v>
+      </c>
+      <c r="G51" s="27">
         <v>1.5083120000000001</v>
-      </c>
-      <c r="G51" s="28">
-        <v>0.110525</v>
       </c>
       <c r="H51" s="28">
         <v>33.996825000000001</v>
@@ -5688,7 +5688,7 @@
         <v>24</v>
       </c>
       <c r="O51" s="73">
-        <f t="shared" si="6"/>
+        <f>(32*L51*M51)/C51</f>
         <v>1545.8937198067633</v>
       </c>
       <c r="P51" s="16"/>
@@ -5705,11 +5705,11 @@
       </c>
       <c r="F52" s="72">
         <f>AVERAGE(F42:F51)</f>
-        <v>1.3742428</v>
+        <v>0.11605499999999999</v>
       </c>
       <c r="G52" s="72">
         <f>AVERAGE(G42:G51)</f>
-        <v>0.11605499999999999</v>
+        <v>1.3742428</v>
       </c>
       <c r="H52" s="28"/>
       <c r="I52" s="28"/>
@@ -5732,11 +5732,11 @@
       </c>
       <c r="F53" s="72">
         <f>MEDIAN(F42:F51)</f>
-        <v>1.3337984999999999</v>
+        <v>0.1141185</v>
       </c>
       <c r="G53" s="72">
         <f>MEDIAN(G42:G51)</f>
-        <v>0.1141185</v>
+        <v>1.3337984999999999</v>
       </c>
       <c r="H53" s="28"/>
       <c r="I53" s="28"/>
@@ -5754,8 +5754,8 @@
     <row r="54" spans="2:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D54" s="16"/>
       <c r="E54" s="26"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="27"/>
       <c r="H54" s="28"/>
       <c r="I54" s="28"/>
       <c r="J54" s="28"/>
@@ -5780,14 +5780,14 @@
         <v>6</v>
       </c>
       <c r="E55" s="26">
-        <f t="shared" ref="E55:E65" si="7">((F55/$F$13)+(G55/$G$13))/2</f>
+        <f t="shared" ref="E55:E64" si="5">((F55/$F$13)+(G55/$G$13))/2</f>
         <v>0.52685060006539131</v>
       </c>
-      <c r="F55" s="27">
+      <c r="F55" s="28">
+        <v>0.114757</v>
+      </c>
+      <c r="G55" s="27">
         <v>1.028521</v>
-      </c>
-      <c r="G55" s="28">
-        <v>0.114757</v>
       </c>
       <c r="H55" s="28">
         <v>17.099986000000001</v>
@@ -5809,7 +5809,7 @@
       </c>
       <c r="N55" s="16"/>
       <c r="O55" s="73">
-        <f t="shared" ref="O55:O65" si="8">(32*L55*M55)/C55</f>
+        <f>(32*L55*M55)/C55</f>
         <v>3864.7342995169083</v>
       </c>
       <c r="P55" s="16"/>
@@ -5829,14 +5829,14 @@
         <v>6</v>
       </c>
       <c r="E56" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.49825328833017979</v>
       </c>
       <c r="F56" s="26">
+        <v>0.104238</v>
+      </c>
+      <c r="G56" s="26">
         <v>1.0285850000000001</v>
-      </c>
-      <c r="G56" s="26">
-        <v>0.104238</v>
       </c>
       <c r="H56" s="28">
         <v>17.235484</v>
@@ -5858,7 +5858,7 @@
       </c>
       <c r="N56" s="16"/>
       <c r="O56" s="73">
-        <f t="shared" si="8"/>
+        <f>(32*L56*M56)/C56</f>
         <v>3864.7342995169083</v>
       </c>
       <c r="P56" s="16" t="s">
@@ -5880,14 +5880,14 @@
         <v>6</v>
       </c>
       <c r="E57" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.57148864503000807</v>
       </c>
-      <c r="F57" s="27">
+      <c r="F57" s="28">
+        <v>0.112119</v>
+      </c>
+      <c r="G57" s="27">
         <v>1.2767059999999999</v>
-      </c>
-      <c r="G57" s="28">
-        <v>0.112119</v>
       </c>
       <c r="H57" s="28">
         <v>25.492459</v>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="N57" s="16"/>
       <c r="O57" s="73">
-        <f t="shared" si="8"/>
+        <f>(32*L57*M57)/C57</f>
         <v>3864.7342995169083</v>
       </c>
       <c r="P57" s="16"/>
@@ -5929,14 +5929,14 @@
         <v>6</v>
       </c>
       <c r="E58" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.54507283766191805</v>
       </c>
-      <c r="F58" s="27">
+      <c r="F58" s="28">
+        <v>0.10853</v>
+      </c>
+      <c r="G58" s="27">
         <v>1.196933</v>
-      </c>
-      <c r="G58" s="28">
-        <v>0.10853</v>
       </c>
       <c r="H58" s="28">
         <v>21.602283</v>
@@ -5958,7 +5958,7 @@
       </c>
       <c r="N58" s="16"/>
       <c r="O58" s="73">
-        <f t="shared" si="8"/>
+        <f>(32*L58*M58)/C58</f>
         <v>3864.7342995169083</v>
       </c>
       <c r="P58" s="16"/>
@@ -5978,14 +5978,14 @@
         <v>6</v>
       </c>
       <c r="E59" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.52652388385974747</v>
       </c>
-      <c r="F59" s="27">
+      <c r="F59" s="28">
+        <v>0.100221</v>
+      </c>
+      <c r="G59" s="27">
         <v>1.2163360000000001</v>
-      </c>
-      <c r="G59" s="28">
-        <v>0.100221</v>
       </c>
       <c r="H59" s="28">
         <v>23.757061</v>
@@ -6007,7 +6007,7 @@
       </c>
       <c r="N59" s="16"/>
       <c r="O59" s="73">
-        <f t="shared" si="8"/>
+        <f>(32*L59*M59)/C59</f>
         <v>3864.7342995169083</v>
       </c>
       <c r="P59" s="16"/>
@@ -6027,14 +6027,14 @@
         <v>6</v>
       </c>
       <c r="E60" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.66370935535770603</v>
       </c>
-      <c r="F60" s="27">
+      <c r="F60" s="28">
+        <v>0.124405</v>
+      </c>
+      <c r="G60" s="27">
         <v>1.5583769999999999</v>
-      </c>
-      <c r="G60" s="28">
-        <v>0.124405</v>
       </c>
       <c r="H60" s="28">
         <v>36.981690999999998</v>
@@ -6056,7 +6056,7 @@
       </c>
       <c r="N60" s="16"/>
       <c r="O60" s="73">
-        <f t="shared" si="8"/>
+        <f>(32*L60*M60)/C60</f>
         <v>3864.7342995169083</v>
       </c>
       <c r="P60" s="16"/>
@@ -6076,14 +6076,14 @@
         <v>6</v>
       </c>
       <c r="E61" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.55996815938116562</v>
       </c>
-      <c r="F61" s="27">
+      <c r="F61" s="28">
+        <v>0.11155</v>
+      </c>
+      <c r="G61" s="27">
         <v>1.228936</v>
-      </c>
-      <c r="G61" s="28">
-        <v>0.11155</v>
       </c>
       <c r="H61" s="28">
         <v>25.208297999999999</v>
@@ -6105,7 +6105,7 @@
       </c>
       <c r="N61" s="16"/>
       <c r="O61" s="73">
-        <f t="shared" si="8"/>
+        <f>(32*L61*M61)/C61</f>
         <v>3864.7342995169083</v>
       </c>
       <c r="P61" s="16"/>
@@ -6125,14 +6125,14 @@
         <v>6</v>
       </c>
       <c r="E62" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.55138993446904583</v>
       </c>
-      <c r="F62" s="27">
+      <c r="F62" s="28">
+        <v>0.10775</v>
+      </c>
+      <c r="G62" s="27">
         <v>1.2373540000000001</v>
-      </c>
-      <c r="G62" s="28">
-        <v>0.10775</v>
       </c>
       <c r="H62" s="28">
         <v>25.845151000000001</v>
@@ -6154,7 +6154,7 @@
       </c>
       <c r="N62" s="16"/>
       <c r="O62" s="73">
-        <f t="shared" si="8"/>
+        <f>(32*L62*M62)/C62</f>
         <v>3864.7342995169083</v>
       </c>
       <c r="P62" s="16"/>
@@ -6174,14 +6174,14 @@
         <v>6</v>
       </c>
       <c r="E63" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.5033531159370831</v>
       </c>
-      <c r="F63" s="27">
+      <c r="F63" s="28">
+        <v>0.10435</v>
+      </c>
+      <c r="G63" s="27">
         <v>1.0515540000000001</v>
-      </c>
-      <c r="G63" s="28">
-        <v>0.10435</v>
       </c>
       <c r="H63" s="28">
         <v>17.533507</v>
@@ -6203,7 +6203,7 @@
       </c>
       <c r="N63" s="16"/>
       <c r="O63" s="73">
-        <f t="shared" si="8"/>
+        <f>(32*L63*M63)/C63</f>
         <v>3864.7342995169083</v>
       </c>
       <c r="P63" s="16"/>
@@ -6223,23 +6223,23 @@
         <v>6</v>
       </c>
       <c r="E64" s="26">
-        <f t="shared" si="7"/>
-        <v>0.76299186469254243</v>
-      </c>
-      <c r="F64" s="27">
-        <v>1.743773</v>
-      </c>
-      <c r="G64" s="28">
-        <v>0.146677</v>
+        <f t="shared" si="5"/>
+        <v>0.52913127097208024</v>
+      </c>
+      <c r="F64" s="28">
+        <v>0.103022</v>
+      </c>
+      <c r="G64" s="27">
+        <v>1.1923330000000001</v>
       </c>
       <c r="H64" s="28">
-        <v>43.083525999999999</v>
+        <v>23.770955000000001</v>
       </c>
       <c r="I64" s="28">
-        <v>0.2041</v>
+        <v>6.1803999999999998E-2</v>
       </c>
       <c r="J64" s="28">
-        <v>0.31678800000000001</v>
+        <v>5.2847999999999999E-2</v>
       </c>
       <c r="K64" s="16">
         <v>50</v>
@@ -6252,60 +6252,36 @@
       </c>
       <c r="N64" s="16"/>
       <c r="O64" s="73">
-        <f t="shared" si="8"/>
+        <f>(32*L64*M64)/C64</f>
         <v>3864.7342995169083</v>
       </c>
       <c r="P64" s="16"/>
       <c r="Q64" s="16"/>
       <c r="R64" s="16"/>
       <c r="S64" s="16"/>
-      <c r="T64" s="16">
-        <v>56113</v>
-      </c>
+      <c r="T64" s="16"/>
     </row>
     <row r="65" spans="2:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C65" s="15">
-        <v>414</v>
-      </c>
-      <c r="D65" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E65" s="26">
-        <f t="shared" si="7"/>
-        <v>0.52913127097208024</v>
-      </c>
-      <c r="F65" s="27">
-        <v>1.1923330000000001</v>
-      </c>
-      <c r="G65" s="28">
-        <v>0.103022</v>
-      </c>
-      <c r="H65" s="28">
-        <v>23.770955000000001</v>
-      </c>
-      <c r="I65" s="28">
-        <v>6.1803999999999998E-2</v>
-      </c>
-      <c r="J65" s="28">
-        <v>5.2847999999999999E-2</v>
-      </c>
-      <c r="K65" s="16">
-        <v>51</v>
-      </c>
-      <c r="L65" s="15">
-        <v>500</v>
-      </c>
-      <c r="M65" s="16">
-        <v>100</v>
-      </c>
+      <c r="D65" s="16"/>
+      <c r="E65" s="64">
+        <f>AVERAGE(E55:E64)</f>
+        <v>0.54757410910643245</v>
+      </c>
+      <c r="F65" s="64">
+        <f>AVERAGE(F55:F64)</f>
+        <v>0.1090942</v>
+      </c>
+      <c r="G65" s="64">
+        <f>AVERAGE(G55:G64)</f>
+        <v>1.2015634999999998</v>
+      </c>
+      <c r="H65" s="28"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="28"/>
+      <c r="K65" s="16"/>
+      <c r="M65" s="16"/>
       <c r="N65" s="16"/>
-      <c r="O65" s="73">
-        <f t="shared" si="8"/>
-        <v>3864.7342995169083</v>
-      </c>
+      <c r="O65" s="73"/>
       <c r="P65" s="16"/>
       <c r="Q65" s="16"/>
       <c r="R65" s="16"/>
@@ -6314,17 +6290,17 @@
     </row>
     <row r="66" spans="2:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D66" s="16"/>
-      <c r="E66" s="72">
-        <f>AVERAGE(E55:E65)</f>
-        <v>0.56715754143244235</v>
-      </c>
-      <c r="F66" s="72">
-        <f>AVERAGE(F55:F65)</f>
-        <v>1.2508552727272726</v>
-      </c>
-      <c r="G66" s="72">
-        <f>AVERAGE(G55:G65)</f>
-        <v>0.11251081818181818</v>
+      <c r="E66" s="64">
+        <f>MEDIAN(E55:E64)</f>
+        <v>0.53710205431699909</v>
+      </c>
+      <c r="F66" s="64">
+        <f>MEDIAN(F55:F64)</f>
+        <v>0.10814</v>
+      </c>
+      <c r="G66" s="64">
+        <f>MEDIAN(G55:G64)</f>
+        <v>1.2066345000000001</v>
       </c>
       <c r="H66" s="28"/>
       <c r="I66" s="28"/>
@@ -6341,18 +6317,9 @@
     </row>
     <row r="67" spans="2:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D67" s="16"/>
-      <c r="E67" s="72">
-        <f>MEDIAN(E55:E65)</f>
-        <v>0.54507283766191805</v>
-      </c>
-      <c r="F67" s="72">
-        <f>MEDIAN(F55:F65)</f>
-        <v>1.2163360000000001</v>
-      </c>
-      <c r="G67" s="72">
-        <f>MEDIAN(G55:G65)</f>
-        <v>0.10853</v>
-      </c>
+      <c r="E67" s="26"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="27"/>
       <c r="H67" s="28"/>
       <c r="I67" s="28"/>
       <c r="J67" s="28"/>
@@ -6367,17 +6334,48 @@
       <c r="T67" s="16"/>
     </row>
     <row r="68" spans="2:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D68" s="16"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="28"/>
-      <c r="K68" s="16"/>
-      <c r="M68" s="16"/>
+      <c r="B68" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="15">
+        <v>414</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" s="26">
+        <f t="shared" ref="E68:E76" si="6">((F68/$F$13)+(G68/$G$13))/2</f>
+        <v>0.74311381743162219</v>
+      </c>
+      <c r="F68" s="28">
+        <v>0.12812299999999999</v>
+      </c>
+      <c r="G68" s="27">
+        <v>1.890285</v>
+      </c>
+      <c r="H68" s="28">
+        <v>33.707859999999997</v>
+      </c>
+      <c r="I68" s="28">
+        <v>5.1706000000000002E-2</v>
+      </c>
+      <c r="J68" s="28">
+        <v>2.6304000000000001E-2</v>
+      </c>
+      <c r="K68" s="16">
+        <v>42</v>
+      </c>
+      <c r="L68" s="15">
+        <v>50</v>
+      </c>
+      <c r="M68" s="16">
+        <v>100</v>
+      </c>
       <c r="N68" s="16"/>
-      <c r="O68" s="73"/>
+      <c r="O68" s="73">
+        <f>(32*L68*M68)/C68</f>
+        <v>386.47342995169083</v>
+      </c>
       <c r="P68" s="16"/>
       <c r="Q68" s="16"/>
       <c r="R68" s="16"/>
@@ -6395,29 +6393,29 @@
         <v>6</v>
       </c>
       <c r="E69" s="26">
-        <f t="shared" ref="E69:E77" si="9">((F69/$F$13)+(G69/$G$13))/2</f>
-        <v>0.74311381743162219</v>
-      </c>
-      <c r="F69" s="27">
-        <v>1.890285</v>
-      </c>
-      <c r="G69" s="28">
-        <v>0.12812299999999999</v>
+        <f t="shared" si="6"/>
+        <v>0.57757371035938276</v>
+      </c>
+      <c r="F69" s="28">
+        <v>0.119298</v>
+      </c>
+      <c r="G69" s="27">
+        <v>1.212323</v>
       </c>
       <c r="H69" s="28">
-        <v>33.707859999999997</v>
+        <v>20.548572</v>
       </c>
       <c r="I69" s="28">
-        <v>5.1706000000000002E-2</v>
+        <v>3.7815000000000001E-2</v>
       </c>
       <c r="J69" s="28">
-        <v>2.6304000000000001E-2</v>
+        <v>2.3806000000000001E-2</v>
       </c>
       <c r="K69" s="16">
         <v>42</v>
       </c>
       <c r="L69" s="15">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M69" s="16">
         <v>100</v>
@@ -6425,7 +6423,7 @@
       <c r="N69" s="16"/>
       <c r="O69" s="73">
         <f>(32*L69*M69)/C69</f>
-        <v>386.47342995169083</v>
+        <v>772.94685990338166</v>
       </c>
       <c r="P69" s="16"/>
       <c r="Q69" s="16"/>
@@ -6444,37 +6442,37 @@
         <v>6</v>
       </c>
       <c r="E70" s="26">
-        <f t="shared" si="9"/>
-        <v>0.57757371035938276</v>
-      </c>
-      <c r="F70" s="27">
-        <v>1.212323</v>
-      </c>
-      <c r="G70" s="28">
-        <v>0.119298</v>
+        <f t="shared" si="6"/>
+        <v>0.57735134425163848</v>
+      </c>
+      <c r="F70" s="28">
+        <v>0.119258</v>
+      </c>
+      <c r="G70" s="27">
+        <v>1.2117789999999999</v>
       </c>
       <c r="H70" s="28">
-        <v>20.548572</v>
+        <v>20.504639999999998</v>
       </c>
       <c r="I70" s="28">
-        <v>3.7815000000000001E-2</v>
+        <v>3.7699000000000003E-2</v>
       </c>
       <c r="J70" s="28">
-        <v>2.3806000000000001E-2</v>
+        <v>2.3585999999999999E-2</v>
       </c>
       <c r="K70" s="16">
         <v>42</v>
       </c>
       <c r="L70" s="15">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M70" s="16">
         <v>100</v>
       </c>
       <c r="N70" s="16"/>
       <c r="O70" s="73">
-        <f t="shared" ref="O70:O77" si="10">(32*L70*M70)/C70</f>
-        <v>772.94685990338166</v>
+        <f>(32*L70*M70)/C70</f>
+        <v>1159.4202898550725</v>
       </c>
       <c r="P70" s="16"/>
       <c r="Q70" s="16"/>
@@ -6493,37 +6491,37 @@
         <v>6</v>
       </c>
       <c r="E71" s="26">
-        <f t="shared" si="9"/>
-        <v>0.57735134425163848</v>
-      </c>
-      <c r="F71" s="27">
-        <v>1.2117789999999999</v>
-      </c>
-      <c r="G71" s="28">
-        <v>0.119258</v>
+        <f t="shared" si="6"/>
+        <v>0.56956642941984725</v>
+      </c>
+      <c r="F71" s="28">
+        <v>0.118385</v>
+      </c>
+      <c r="G71" s="27">
+        <v>1.1858629999999999</v>
       </c>
       <c r="H71" s="28">
-        <v>20.504639999999998</v>
+        <v>20.448263000000001</v>
       </c>
       <c r="I71" s="28">
-        <v>3.7699000000000003E-2</v>
+        <v>4.2897999999999999E-2</v>
       </c>
       <c r="J71" s="28">
-        <v>2.3585999999999999E-2</v>
+        <v>2.0237999999999999E-2</v>
       </c>
       <c r="K71" s="16">
         <v>42</v>
       </c>
       <c r="L71" s="15">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M71" s="16">
         <v>100</v>
       </c>
       <c r="N71" s="16"/>
       <c r="O71" s="73">
-        <f t="shared" si="10"/>
-        <v>1159.4202898550725</v>
+        <f>(32*L71*M71)/C71</f>
+        <v>1545.8937198067633</v>
       </c>
       <c r="P71" s="16"/>
       <c r="Q71" s="16"/>
@@ -6542,37 +6540,37 @@
         <v>6</v>
       </c>
       <c r="E72" s="26">
-        <f t="shared" si="9"/>
-        <v>0.56956642941984725</v>
-      </c>
-      <c r="F72" s="27">
-        <v>1.1858629999999999</v>
-      </c>
-      <c r="G72" s="28">
-        <v>0.118385</v>
+        <f t="shared" si="6"/>
+        <v>0.55814565956088369</v>
+      </c>
+      <c r="F72" s="28">
+        <v>0.11702700000000001</v>
+      </c>
+      <c r="G72" s="27">
+        <v>1.1488499999999999</v>
       </c>
       <c r="H72" s="28">
-        <v>20.448263000000001</v>
+        <v>20.18543</v>
       </c>
       <c r="I72" s="28">
-        <v>4.2897999999999999E-2</v>
+        <v>3.8795999999999997E-2</v>
       </c>
       <c r="J72" s="28">
-        <v>2.0237999999999999E-2</v>
+        <v>2.0808E-2</v>
       </c>
       <c r="K72" s="16">
         <v>42</v>
       </c>
       <c r="L72" s="15">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="M72" s="16">
         <v>100</v>
       </c>
       <c r="N72" s="16"/>
       <c r="O72" s="73">
-        <f t="shared" si="10"/>
-        <v>1545.8937198067633</v>
+        <f>(32*L72*M72)/C72</f>
+        <v>1932.3671497584542</v>
       </c>
       <c r="P72" s="16"/>
       <c r="Q72" s="16"/>
@@ -6591,37 +6589,37 @@
         <v>6</v>
       </c>
       <c r="E73" s="26">
-        <f t="shared" si="9"/>
-        <v>0.55814565956088369</v>
-      </c>
-      <c r="F73" s="27">
-        <v>1.1488499999999999</v>
-      </c>
-      <c r="G73" s="28">
-        <v>0.11702700000000001</v>
+        <f t="shared" si="6"/>
+        <v>0.55631268163594461</v>
+      </c>
+      <c r="F73" s="28">
+        <v>0.11649900000000001</v>
+      </c>
+      <c r="G73" s="27">
+        <v>1.146949</v>
       </c>
       <c r="H73" s="28">
-        <v>20.18543</v>
+        <v>19.986457000000001</v>
       </c>
       <c r="I73" s="28">
-        <v>3.8795999999999997E-2</v>
+        <v>3.7198000000000002E-2</v>
       </c>
       <c r="J73" s="28">
-        <v>2.0808E-2</v>
+        <v>2.1795999999999999E-2</v>
       </c>
       <c r="K73" s="16">
         <v>42</v>
       </c>
       <c r="L73" s="15">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="M73" s="16">
         <v>100</v>
       </c>
       <c r="N73" s="16"/>
       <c r="O73" s="73">
-        <f t="shared" si="10"/>
-        <v>1932.3671497584542</v>
+        <f>(32*L73*M73)/C73</f>
+        <v>2318.840579710145</v>
       </c>
       <c r="P73" s="16"/>
       <c r="Q73" s="16"/>
@@ -6640,37 +6638,37 @@
         <v>6</v>
       </c>
       <c r="E74" s="26">
-        <f t="shared" si="9"/>
-        <v>0.55631268163594461</v>
-      </c>
-      <c r="F74" s="27">
-        <v>1.146949</v>
-      </c>
-      <c r="G74" s="28">
-        <v>0.11649900000000001</v>
+        <f t="shared" si="6"/>
+        <v>0.54448373364380753</v>
+      </c>
+      <c r="F74" s="28">
+        <v>0.11577</v>
+      </c>
+      <c r="G74" s="27">
+        <v>1.0997859999999999</v>
       </c>
       <c r="H74" s="28">
-        <v>19.986457000000001</v>
+        <v>19.115881000000002</v>
       </c>
       <c r="I74" s="28">
-        <v>3.7198000000000002E-2</v>
+        <v>3.9330999999999998E-2</v>
       </c>
       <c r="J74" s="28">
-        <v>2.1795999999999999E-2</v>
+        <v>2.8877E-2</v>
       </c>
       <c r="K74" s="16">
         <v>42</v>
       </c>
       <c r="L74" s="15">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="M74" s="16">
         <v>100</v>
       </c>
       <c r="N74" s="16"/>
       <c r="O74" s="73">
-        <f t="shared" si="10"/>
-        <v>2318.840579710145</v>
+        <f>(32*L74*M74)/C74</f>
+        <v>2705.3140096618358</v>
       </c>
       <c r="P74" s="16"/>
       <c r="Q74" s="16"/>
@@ -6689,37 +6687,37 @@
         <v>6</v>
       </c>
       <c r="E75" s="26">
-        <f t="shared" si="9"/>
-        <v>0.54448373364380753</v>
-      </c>
-      <c r="F75" s="27">
-        <v>1.0997859999999999</v>
-      </c>
-      <c r="G75" s="28">
-        <v>0.11577</v>
+        <f t="shared" si="6"/>
+        <v>0.53311169332835306</v>
+      </c>
+      <c r="F75" s="28">
+        <v>0.115591</v>
+      </c>
+      <c r="G75" s="27">
+        <v>1.0476460000000001</v>
       </c>
       <c r="H75" s="28">
-        <v>19.115881000000002</v>
+        <v>17.508475000000001</v>
       </c>
       <c r="I75" s="28">
-        <v>3.9330999999999998E-2</v>
+        <v>3.8462999999999997E-2</v>
       </c>
       <c r="J75" s="28">
-        <v>2.8877E-2</v>
+        <v>2.4545999999999998E-2</v>
       </c>
       <c r="K75" s="16">
         <v>42</v>
       </c>
       <c r="L75" s="15">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M75" s="16">
         <v>100</v>
       </c>
       <c r="N75" s="16"/>
       <c r="O75" s="73">
-        <f t="shared" si="10"/>
-        <v>2705.3140096618358</v>
+        <f>(32*L75*M75)/C75</f>
+        <v>3091.7874396135267</v>
       </c>
       <c r="P75" s="16"/>
       <c r="Q75" s="16"/>
@@ -6738,37 +6736,37 @@
         <v>6</v>
       </c>
       <c r="E76" s="26">
-        <f t="shared" si="9"/>
-        <v>0.53311169332835306</v>
-      </c>
-      <c r="F76" s="27">
-        <v>1.0476460000000001</v>
-      </c>
-      <c r="G76" s="28">
-        <v>0.115591</v>
+        <f t="shared" si="6"/>
+        <v>0.53223498910959421</v>
+      </c>
+      <c r="F76" s="28">
+        <v>0.1154</v>
+      </c>
+      <c r="G76" s="27">
+        <v>1.0459350000000001</v>
       </c>
       <c r="H76" s="28">
-        <v>17.508475000000001</v>
+        <v>17.394447</v>
       </c>
       <c r="I76" s="28">
-        <v>3.8462999999999997E-2</v>
+        <v>3.8412000000000002E-2</v>
       </c>
       <c r="J76" s="28">
-        <v>2.4545999999999998E-2</v>
+        <v>2.4499E-2</v>
       </c>
       <c r="K76" s="16">
         <v>42</v>
       </c>
       <c r="L76" s="15">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="M76" s="16">
         <v>100</v>
       </c>
       <c r="N76" s="16"/>
       <c r="O76" s="73">
-        <f t="shared" si="10"/>
-        <v>3091.7874396135267</v>
+        <f>(32*L76*M76)/C76</f>
+        <v>3478.2608695652175</v>
       </c>
       <c r="P76" s="16"/>
       <c r="Q76" s="16"/>
@@ -6777,48 +6775,17 @@
       <c r="T76" s="16"/>
     </row>
     <row r="77" spans="2:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C77" s="15">
-        <v>414</v>
-      </c>
-      <c r="D77" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E77" s="26">
-        <f t="shared" si="9"/>
-        <v>0.53223498910959421</v>
-      </c>
-      <c r="F77" s="27">
-        <v>1.0459350000000001</v>
-      </c>
-      <c r="G77" s="28">
-        <v>0.1154</v>
-      </c>
-      <c r="H77" s="28">
-        <v>17.394447</v>
-      </c>
-      <c r="I77" s="28">
-        <v>3.8412000000000002E-2</v>
-      </c>
-      <c r="J77" s="28">
-        <v>2.4499E-2</v>
-      </c>
-      <c r="K77" s="16">
-        <v>42</v>
-      </c>
-      <c r="L77" s="15">
-        <v>450</v>
-      </c>
-      <c r="M77" s="16">
-        <v>100</v>
-      </c>
+      <c r="D77" s="16"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="28"/>
+      <c r="K77" s="16"/>
+      <c r="M77" s="16"/>
       <c r="N77" s="16"/>
-      <c r="O77" s="73">
-        <f t="shared" si="10"/>
-        <v>3478.2608695652175</v>
-      </c>
+      <c r="O77" s="73"/>
       <c r="P77" s="16"/>
       <c r="Q77" s="16"/>
       <c r="R77" s="16"/>
@@ -6828,8 +6795,8 @@
     <row r="78" spans="2:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D78" s="16"/>
       <c r="E78" s="26"/>
-      <c r="F78" s="27"/>
-      <c r="G78" s="28"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="27"/>
       <c r="H78" s="28"/>
       <c r="I78" s="28"/>
       <c r="J78" s="28"/>
@@ -6846,8 +6813,8 @@
     <row r="79" spans="2:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D79" s="16"/>
       <c r="E79" s="26"/>
-      <c r="F79" s="27"/>
-      <c r="G79" s="28"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="27"/>
       <c r="H79" s="28"/>
       <c r="I79" s="28"/>
       <c r="J79" s="28"/>
@@ -6864,8 +6831,8 @@
     <row r="80" spans="2:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D80" s="16"/>
       <c r="E80" s="26"/>
-      <c r="F80" s="27"/>
-      <c r="G80" s="28"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="26"/>
       <c r="H80" s="28"/>
       <c r="I80" s="28"/>
       <c r="J80" s="28"/>
@@ -6882,8 +6849,8 @@
     <row r="81" spans="2:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D81" s="16"/>
       <c r="E81" s="26"/>
-      <c r="F81" s="26"/>
-      <c r="G81" s="26"/>
+      <c r="F81" s="28"/>
+      <c r="G81" s="27"/>
       <c r="H81" s="28"/>
       <c r="I81" s="28"/>
       <c r="J81" s="28"/>
@@ -6900,15 +6867,15 @@
     <row r="82" spans="2:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D82" s="16"/>
       <c r="E82" s="26"/>
-      <c r="F82" s="27"/>
-      <c r="G82" s="28"/>
+      <c r="F82" s="28"/>
+      <c r="G82" s="27"/>
       <c r="H82" s="28"/>
       <c r="I82" s="28"/>
       <c r="J82" s="28"/>
       <c r="K82" s="16"/>
       <c r="M82" s="16"/>
       <c r="N82" s="16"/>
-      <c r="O82" s="73"/>
+      <c r="O82" s="30"/>
       <c r="P82" s="16"/>
       <c r="Q82" s="16"/>
       <c r="R82" s="16"/>
@@ -6918,8 +6885,8 @@
     <row r="83" spans="2:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D83" s="16"/>
       <c r="E83" s="26"/>
-      <c r="F83" s="27"/>
-      <c r="G83" s="28"/>
+      <c r="F83" s="28"/>
+      <c r="G83" s="27"/>
       <c r="H83" s="28"/>
       <c r="I83" s="28"/>
       <c r="J83" s="28"/>
@@ -6936,8 +6903,8 @@
     <row r="84" spans="2:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D84" s="16"/>
       <c r="E84" s="26"/>
-      <c r="F84" s="27"/>
-      <c r="G84" s="28"/>
+      <c r="F84" s="28"/>
+      <c r="G84" s="27"/>
       <c r="H84" s="28"/>
       <c r="I84" s="28"/>
       <c r="J84" s="28"/>
@@ -6954,8 +6921,8 @@
     <row r="85" spans="2:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D85" s="16"/>
       <c r="E85" s="26"/>
-      <c r="F85" s="27"/>
-      <c r="G85" s="28"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="27"/>
       <c r="H85" s="28"/>
       <c r="I85" s="28"/>
       <c r="J85" s="28"/>
@@ -6972,8 +6939,8 @@
     <row r="86" spans="2:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D86" s="16"/>
       <c r="E86" s="26"/>
-      <c r="F86" s="27"/>
-      <c r="G86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="27"/>
       <c r="H86" s="28"/>
       <c r="I86" s="28"/>
       <c r="J86" s="28"/>
@@ -6988,105 +6955,105 @@
       <c r="T86" s="16"/>
     </row>
     <row r="87" spans="2:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D87" s="16"/>
-      <c r="E87" s="26"/>
-      <c r="F87" s="27"/>
-      <c r="G87" s="28"/>
-      <c r="H87" s="28"/>
+      <c r="B87" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" s="15">
+        <v>414</v>
+      </c>
+      <c r="D87" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87" s="26">
+        <f t="shared" ref="E87:E88" si="7">((F87/$F$13)+(G87/$G$13))/2</f>
+        <v>0.65510913788829828</v>
+      </c>
+      <c r="F87" s="28">
+        <v>0.1298174584541</v>
+      </c>
+      <c r="G87" s="27">
+        <v>1.44666660175531</v>
+      </c>
+      <c r="H87" s="28">
+        <v>16.642986874988399</v>
+      </c>
       <c r="I87" s="28"/>
       <c r="J87" s="28"/>
       <c r="K87" s="16"/>
-      <c r="M87" s="16"/>
+      <c r="L87" s="15">
+        <v>100</v>
+      </c>
+      <c r="M87" s="16">
+        <v>50</v>
+      </c>
       <c r="N87" s="16"/>
-      <c r="O87" s="30"/>
+      <c r="O87" s="30">
+        <f>(32*M87*L87)/C87</f>
+        <v>386.47342995169083</v>
+      </c>
       <c r="P87" s="16"/>
       <c r="Q87" s="16"/>
       <c r="R87" s="16"/>
       <c r="S87" s="16"/>
       <c r="T87" s="16"/>
     </row>
-    <row r="88" spans="2:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="15" t="s">
+    <row r="88" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B88" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C88" s="15">
+      <c r="C88" s="11">
         <v>414</v>
       </c>
-      <c r="D88" s="16" t="s">
+      <c r="D88" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E88" s="26">
-        <f>((F88/$F$13)+(G88/$G$13))/2</f>
-        <v>0.65510913788829828</v>
-      </c>
-      <c r="F88" s="27">
-        <v>1.44666660175531</v>
-      </c>
-      <c r="G88" s="28">
-        <v>0.1298174584541</v>
-      </c>
-      <c r="H88" s="28">
-        <v>16.642986874988399</v>
-      </c>
-      <c r="I88" s="28"/>
-      <c r="J88" s="28"/>
-      <c r="K88" s="16"/>
-      <c r="L88" s="15">
-        <v>100</v>
-      </c>
-      <c r="M88" s="16">
+        <f t="shared" si="7"/>
+        <v>0.73937936252048586</v>
+      </c>
+      <c r="F88" s="29">
+        <v>0.136582885212886</v>
+      </c>
+      <c r="G88" s="26">
+        <v>1.7621786881972099</v>
+      </c>
+      <c r="H88" s="29">
+        <v>24.567364629029498</v>
+      </c>
+      <c r="I88" s="29"/>
+      <c r="J88" s="29"/>
+      <c r="K88" s="12">
+        <v>42</v>
+      </c>
+      <c r="L88" s="11">
+        <v>100</v>
+      </c>
+      <c r="M88" s="12">
         <v>50</v>
       </c>
-      <c r="N88" s="16"/>
+      <c r="N88" s="12"/>
       <c r="O88" s="30">
         <f>(32*M88*L88)/C88</f>
         <v>386.47342995169083</v>
       </c>
-      <c r="P88" s="16"/>
-      <c r="Q88" s="16"/>
-      <c r="R88" s="16"/>
-      <c r="S88" s="16"/>
-      <c r="T88" s="16"/>
+      <c r="P88" s="12"/>
+      <c r="Q88" s="12"/>
+      <c r="R88" s="12"/>
+      <c r="S88" s="12"/>
+      <c r="T88" s="12"/>
     </row>
     <row r="89" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B89" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C89" s="11">
-        <v>414</v>
-      </c>
-      <c r="D89" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E89" s="26">
-        <f>((F89/$F$13)+(G89/$G$13))/2</f>
-        <v>0.73937936252048586</v>
-      </c>
-      <c r="F89" s="26">
-        <v>1.7621786881972099</v>
-      </c>
-      <c r="G89" s="29">
-        <v>0.136582885212886</v>
-      </c>
-      <c r="H89" s="29">
-        <v>24.567364629029498</v>
-      </c>
+      <c r="D89" s="12"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="29"/>
+      <c r="G89" s="26"/>
+      <c r="H89" s="29"/>
       <c r="I89" s="29"/>
       <c r="J89" s="29"/>
-      <c r="K89" s="12">
-        <v>42</v>
-      </c>
-      <c r="L89" s="11">
-        <v>100</v>
-      </c>
-      <c r="M89" s="12">
-        <v>50</v>
-      </c>
+      <c r="K89" s="12"/>
+      <c r="M89" s="12"/>
       <c r="N89" s="12"/>
-      <c r="O89" s="30">
-        <f t="shared" ref="O89:O172" si="11">(32*M89*L89)/C89</f>
-        <v>386.47342995169083</v>
-      </c>
+      <c r="O89" s="30"/>
       <c r="P89" s="12"/>
       <c r="Q89" s="12"/>
       <c r="R89" s="12"/>
@@ -7094,82 +7061,107 @@
       <c r="T89" s="12"/>
     </row>
     <row r="90" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="D90" s="12"/>
-      <c r="E90" s="26"/>
-      <c r="F90" s="26"/>
-      <c r="G90" s="29"/>
-      <c r="H90" s="29"/>
+      <c r="B90" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" s="11">
+        <v>414</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90" s="26">
+        <f>((F90/$F$13)+(G90/$G$13))/2</f>
+        <v>0.59816880784627147</v>
+      </c>
+      <c r="F90" s="29">
+        <v>0.114591133679717</v>
+      </c>
+      <c r="G90" s="26">
+        <v>1.3722961783182199</v>
+      </c>
+      <c r="H90" s="29">
+        <v>24.437912268592498</v>
+      </c>
       <c r="I90" s="29"/>
       <c r="J90" s="29"/>
       <c r="K90" s="12"/>
-      <c r="M90" s="12"/>
-      <c r="N90" s="12"/>
-      <c r="O90" s="30"/>
+      <c r="L90" s="11">
+        <v>100</v>
+      </c>
+      <c r="M90" s="12">
+        <v>50</v>
+      </c>
+      <c r="N90" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O90" s="30">
+        <f>(32*M90*L90)/C90</f>
+        <v>386.47342995169083</v>
+      </c>
       <c r="P90" s="12"/>
       <c r="Q90" s="12"/>
       <c r="R90" s="12"/>
       <c r="S90" s="12"/>
-      <c r="T90" s="12"/>
+      <c r="T90" s="12">
+        <v>21723</v>
+      </c>
     </row>
     <row r="91" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B91" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C91" s="11">
-        <v>414</v>
-      </c>
-      <c r="D91" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E91" s="26">
-        <f>((F91/$F$13)+(G91/$G$13))/2</f>
-        <v>0.59816880784627147</v>
-      </c>
-      <c r="F91" s="26">
-        <v>1.3722961783182199</v>
-      </c>
-      <c r="G91" s="29">
-        <v>0.114591133679717</v>
-      </c>
-      <c r="H91" s="29">
-        <v>24.437912268592498</v>
-      </c>
+      <c r="D91" s="12"/>
+      <c r="E91" s="26"/>
+      <c r="F91" s="29"/>
+      <c r="G91" s="26"/>
+      <c r="H91" s="29"/>
       <c r="I91" s="29"/>
       <c r="J91" s="29"/>
       <c r="K91" s="12"/>
-      <c r="L91" s="11">
-        <v>100</v>
-      </c>
-      <c r="M91" s="12">
-        <v>50</v>
-      </c>
-      <c r="N91" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="O91" s="30">
-        <f t="shared" si="11"/>
-        <v>386.47342995169083</v>
-      </c>
+      <c r="M91" s="12"/>
+      <c r="N91" s="12"/>
+      <c r="O91" s="30"/>
       <c r="P91" s="12"/>
       <c r="Q91" s="12"/>
       <c r="R91" s="12"/>
       <c r="S91" s="12"/>
-      <c r="T91" s="12">
-        <v>21723</v>
-      </c>
+      <c r="T91" s="12"/>
     </row>
     <row r="92" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="D92" s="12"/>
-      <c r="E92" s="26"/>
-      <c r="F92" s="26"/>
-      <c r="G92" s="29"/>
-      <c r="H92" s="29"/>
+      <c r="B92" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" s="11">
+        <v>414</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92" s="26">
+        <f>((F92/$F$13)+(G92/$G$13))/2</f>
+        <v>0.82258271543205064</v>
+      </c>
+      <c r="F92" s="29">
+        <v>0.13595743149248801</v>
+      </c>
+      <c r="G92" s="26">
+        <v>2.1688713732443401</v>
+      </c>
+      <c r="H92" s="29">
+        <v>30.985507904866601</v>
+      </c>
       <c r="I92" s="29"/>
       <c r="J92" s="29"/>
       <c r="K92" s="12"/>
-      <c r="M92" s="12"/>
+      <c r="L92" s="11">
+        <v>100</v>
+      </c>
+      <c r="M92" s="12">
+        <v>100</v>
+      </c>
       <c r="N92" s="12"/>
-      <c r="O92" s="30"/>
+      <c r="O92" s="30">
+        <f>(32*M92*L92)/C92</f>
+        <v>772.94685990338166</v>
+      </c>
       <c r="P92" s="12"/>
       <c r="Q92" s="12"/>
       <c r="R92" s="12"/>
@@ -7177,42 +7169,17 @@
       <c r="T92" s="12"/>
     </row>
     <row r="93" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B93" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C93" s="11">
-        <v>414</v>
-      </c>
-      <c r="D93" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E93" s="26">
-        <f t="shared" ref="E93" si="12">((F93/$F$13)+(G93/$G$13))/2</f>
-        <v>0.82258271543205064</v>
-      </c>
-      <c r="F93" s="26">
-        <v>2.1688713732443401</v>
-      </c>
-      <c r="G93" s="29">
-        <v>0.13595743149248801</v>
-      </c>
-      <c r="H93" s="29">
-        <v>30.985507904866601</v>
-      </c>
+      <c r="D93" s="12"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="26"/>
+      <c r="H93" s="29"/>
       <c r="I93" s="29"/>
       <c r="J93" s="29"/>
       <c r="K93" s="12"/>
-      <c r="L93" s="11">
-        <v>100</v>
-      </c>
-      <c r="M93" s="12">
-        <v>100</v>
-      </c>
+      <c r="M93" s="12"/>
       <c r="N93" s="12"/>
-      <c r="O93" s="30">
-        <f t="shared" ref="O93" si="13">(32*M93*L93)/C93</f>
-        <v>772.94685990338166</v>
-      </c>
+      <c r="O93" s="30"/>
       <c r="P93" s="12"/>
       <c r="Q93" s="12"/>
       <c r="R93" s="12"/>
@@ -7220,22 +7187,57 @@
       <c r="T93" s="12"/>
     </row>
     <row r="94" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="D94" s="12"/>
-      <c r="E94" s="26"/>
-      <c r="F94" s="26"/>
-      <c r="G94" s="29"/>
-      <c r="H94" s="29"/>
-      <c r="I94" s="29"/>
-      <c r="J94" s="29"/>
-      <c r="K94" s="12"/>
-      <c r="M94" s="12"/>
-      <c r="N94" s="12"/>
-      <c r="O94" s="30"/>
+      <c r="B94" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" s="11">
+        <v>414</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94" s="26">
+        <f t="shared" ref="E94:E96" si="8">((F94/$F$13)+(G94/$G$13))/2</f>
+        <v>0.58970021470406753</v>
+      </c>
+      <c r="F94" s="29">
+        <v>0.113995292100149</v>
+      </c>
+      <c r="G94" s="26">
+        <v>1.33949444468741</v>
+      </c>
+      <c r="H94" s="29">
+        <v>21.7360339597105</v>
+      </c>
+      <c r="I94" s="29">
+        <v>4.8259866736034197E-2</v>
+      </c>
+      <c r="J94" s="29">
+        <v>3.1924357692853303E-2</v>
+      </c>
+      <c r="K94" s="12">
+        <v>42</v>
+      </c>
+      <c r="L94" s="11">
+        <v>100</v>
+      </c>
+      <c r="M94" s="12">
+        <v>50</v>
+      </c>
+      <c r="N94" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O94" s="30">
+        <f>(32*M94*L94)/C94</f>
+        <v>386.47342995169083</v>
+      </c>
       <c r="P94" s="12"/>
       <c r="Q94" s="12"/>
       <c r="R94" s="12"/>
       <c r="S94" s="12"/>
-      <c r="T94" s="12"/>
+      <c r="T94" s="12">
+        <v>21723</v>
+      </c>
     </row>
     <row r="95" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B95" s="11" t="s">
@@ -7248,26 +7250,26 @@
         <v>6</v>
       </c>
       <c r="E95" s="26">
-        <f>((F95/$F$13)+(G95/$G$13))/2</f>
-        <v>0.58970021470406753</v>
-      </c>
-      <c r="F95" s="26">
-        <v>1.33949444468741</v>
-      </c>
-      <c r="G95" s="29">
-        <v>0.113995292100149</v>
+        <f t="shared" si="8"/>
+        <v>0.65390454731499503</v>
+      </c>
+      <c r="F95" s="29">
+        <v>0.12576014591313101</v>
+      </c>
+      <c r="G95" s="26">
+        <v>1.4937566658690999</v>
       </c>
       <c r="H95" s="29">
-        <v>21.7360339597105</v>
-      </c>
-      <c r="I95" s="29">
-        <v>4.8259866736034197E-2</v>
-      </c>
-      <c r="J95" s="29">
-        <v>3.1924357692853303E-2</v>
+        <v>27.8690670554127</v>
+      </c>
+      <c r="I95" s="26">
+        <v>6.4116617488500201E-3</v>
+      </c>
+      <c r="J95" s="26">
+        <v>2.4003126083275102E-2</v>
       </c>
       <c r="K95" s="12">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L95" s="11">
         <v>100</v>
@@ -7279,7 +7281,7 @@
         <v>24</v>
       </c>
       <c r="O95" s="30">
-        <f t="shared" si="11"/>
+        <f>(32*M95*L95)/C95</f>
         <v>386.47342995169083</v>
       </c>
       <c r="P95" s="12"/>
@@ -7301,26 +7303,26 @@
         <v>6</v>
       </c>
       <c r="E96" s="26">
-        <f>((F96/$F$13)+(G96/$G$13))/2</f>
-        <v>0.65390454731499503</v>
-      </c>
-      <c r="F96" s="26">
-        <v>1.4937566658690999</v>
-      </c>
-      <c r="G96" s="29">
-        <v>0.12576014591313101</v>
+        <f t="shared" si="8"/>
+        <v>0.83792124295425419</v>
+      </c>
+      <c r="F96" s="29">
+        <v>0.142073465022688</v>
+      </c>
+      <c r="G96" s="26">
+        <v>2.1626611472158301</v>
       </c>
       <c r="H96" s="29">
-        <v>27.8690670554127</v>
-      </c>
-      <c r="I96" s="26">
-        <v>6.4116617488500201E-3</v>
-      </c>
-      <c r="J96" s="26">
-        <v>2.4003126083275102E-2</v>
+        <v>47.482280539307197</v>
+      </c>
+      <c r="I96" s="29">
+        <v>0.13483371537754801</v>
+      </c>
+      <c r="J96" s="29">
+        <v>0.18224809686688601</v>
       </c>
       <c r="K96" s="12">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L96" s="11">
         <v>100</v>
@@ -7332,7 +7334,7 @@
         <v>24</v>
       </c>
       <c r="O96" s="30">
-        <f t="shared" si="11"/>
+        <f>(32*M96*L96)/C96</f>
         <v>386.47342995169083</v>
       </c>
       <c r="P96" s="12"/>
@@ -7344,75 +7346,40 @@
       </c>
     </row>
     <row r="97" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B97" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C97" s="11">
-        <v>414</v>
-      </c>
-      <c r="D97" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E97" s="26">
-        <f>((F97/$F$13)+(G97/$G$13))/2</f>
-        <v>0.83792124295425419</v>
-      </c>
-      <c r="F97" s="26">
-        <v>2.1626611472158301</v>
-      </c>
-      <c r="G97" s="29">
-        <v>0.142073465022688</v>
-      </c>
-      <c r="H97" s="29">
-        <v>47.482280539307197</v>
-      </c>
-      <c r="I97" s="29">
-        <v>0.13483371537754801</v>
-      </c>
-      <c r="J97" s="29">
-        <v>0.18224809686688601</v>
-      </c>
-      <c r="K97" s="12">
-        <v>44</v>
-      </c>
-      <c r="L97" s="11">
-        <v>100</v>
-      </c>
-      <c r="M97" s="12">
-        <v>50</v>
-      </c>
-      <c r="N97" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="O97" s="30">
-        <f t="shared" si="11"/>
-        <v>386.47342995169083</v>
-      </c>
+      <c r="D97" s="12"/>
+      <c r="E97" s="64">
+        <f>MEDIAN(E94:E96)</f>
+        <v>0.65390454731499503</v>
+      </c>
+      <c r="F97" s="64">
+        <f>MEDIAN(F94:F96)</f>
+        <v>0.12576014591313101</v>
+      </c>
+      <c r="G97" s="64">
+        <f>MEDIAN(G94:G96)</f>
+        <v>1.4937566658690999</v>
+      </c>
+      <c r="H97" s="29"/>
+      <c r="I97" s="29"/>
+      <c r="J97" s="29"/>
+      <c r="K97" s="12"/>
+      <c r="M97" s="12"/>
+      <c r="N97" s="12"/>
+      <c r="O97" s="30"/>
       <c r="P97" s="12"/>
       <c r="Q97" s="12"/>
       <c r="R97" s="12"/>
       <c r="S97" s="12"/>
-      <c r="T97" s="12">
-        <v>21723</v>
-      </c>
+      <c r="T97" s="12"/>
     </row>
     <row r="98" spans="2:20" x14ac:dyDescent="0.35">
       <c r="D98" s="12"/>
-      <c r="E98" s="64">
-        <f>MEDIAN(E95:E97)</f>
-        <v>0.65390454731499503</v>
-      </c>
-      <c r="F98" s="64">
-        <f>MEDIAN(F95:F97)</f>
-        <v>1.4937566658690999</v>
-      </c>
-      <c r="G98" s="64">
-        <f>MEDIAN(G95:G97)</f>
-        <v>0.12576014591313101</v>
-      </c>
-      <c r="H98" s="29"/>
-      <c r="I98" s="29"/>
-      <c r="J98" s="29"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="14"/>
+      <c r="J98" s="14"/>
       <c r="K98" s="12"/>
       <c r="M98" s="12"/>
       <c r="N98" s="12"/>
@@ -7424,22 +7391,59 @@
       <c r="T98" s="12"/>
     </row>
     <row r="99" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="13"/>
-      <c r="G99" s="14"/>
-      <c r="H99" s="14"/>
-      <c r="I99" s="14"/>
-      <c r="J99" s="14"/>
-      <c r="K99" s="12"/>
-      <c r="M99" s="12"/>
-      <c r="N99" s="12"/>
-      <c r="O99" s="30"/>
+      <c r="B99" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" s="11">
+        <v>414</v>
+      </c>
+      <c r="D99" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99" s="26">
+        <f t="shared" ref="E99:E101" si="9">((F99/$F$13)+(G99/$G$13))/2</f>
+        <v>0.61959829460742355</v>
+      </c>
+      <c r="F99" s="29">
+        <v>0.11322310612</v>
+      </c>
+      <c r="G99" s="26">
+        <v>1.49276655</v>
+      </c>
+      <c r="H99" s="29">
+        <v>30.277210289999999</v>
+      </c>
+      <c r="I99" s="29">
+        <v>4.9931821835000001E-2</v>
+      </c>
+      <c r="J99" s="29">
+        <v>3.0418351361999999E-2</v>
+      </c>
+      <c r="K99" s="12">
+        <v>42</v>
+      </c>
+      <c r="L99" s="11">
+        <v>150</v>
+      </c>
+      <c r="M99" s="12">
+        <v>50</v>
+      </c>
+      <c r="N99" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O99" s="30">
+        <f>(32*M99*L99)/C99</f>
+        <v>579.71014492753625</v>
+      </c>
       <c r="P99" s="12"/>
-      <c r="Q99" s="12"/>
+      <c r="Q99" s="12" t="s">
+        <v>96</v>
+      </c>
       <c r="R99" s="12"/>
       <c r="S99" s="12"/>
-      <c r="T99" s="12"/>
+      <c r="T99" s="12">
+        <v>21723</v>
+      </c>
     </row>
     <row r="100" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B100" s="11" t="s">
@@ -7452,26 +7456,26 @@
         <v>6</v>
       </c>
       <c r="E100" s="26">
-        <f>((F100/$F$13)+(G100/$G$13))/2</f>
-        <v>0.61959829460742355</v>
-      </c>
-      <c r="F100" s="26">
-        <v>1.49276655</v>
-      </c>
-      <c r="G100" s="29">
-        <v>0.11322310612</v>
+        <f t="shared" si="9"/>
+        <v>0.65647161068172988</v>
+      </c>
+      <c r="F100" s="29">
+        <v>0.12596107578900001</v>
+      </c>
+      <c r="G100" s="26">
+        <v>1.5034351163749999</v>
       </c>
       <c r="H100" s="29">
-        <v>30.277210289999999</v>
+        <v>28.908985919999999</v>
       </c>
       <c r="I100" s="29">
-        <v>4.9931821835000001E-2</v>
+        <v>6.09939158E-2</v>
       </c>
       <c r="J100" s="29">
-        <v>3.0418351361999999E-2</v>
+        <v>2.36980818E-2</v>
       </c>
       <c r="K100" s="12">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L100" s="11">
         <v>150</v>
@@ -7483,12 +7487,12 @@
         <v>24</v>
       </c>
       <c r="O100" s="30">
-        <f t="shared" si="11"/>
+        <f>(32*M100*L100)/C100</f>
         <v>579.71014492753625</v>
       </c>
       <c r="P100" s="12"/>
       <c r="Q100" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R100" s="12"/>
       <c r="S100" s="12"/>
@@ -7507,26 +7511,26 @@
         <v>6</v>
       </c>
       <c r="E101" s="26">
-        <f>((F101/$F$13)+(G101/$G$13))/2</f>
-        <v>0.65647161068172988</v>
-      </c>
-      <c r="F101" s="26">
-        <v>1.5034351163749999</v>
-      </c>
-      <c r="G101" s="29">
-        <v>0.12596107578900001</v>
+        <f t="shared" si="9"/>
+        <v>0.69362813113390942</v>
+      </c>
+      <c r="F101" s="29">
+        <v>0.13526352999999999</v>
+      </c>
+      <c r="G101" s="26">
+        <v>1.5602193</v>
       </c>
       <c r="H101" s="29">
-        <v>28.908985919999999</v>
+        <v>34.269888151810001</v>
       </c>
       <c r="I101" s="29">
-        <v>6.09939158E-2</v>
+        <v>0.13921045300000001</v>
       </c>
       <c r="J101" s="29">
-        <v>2.36980818E-2</v>
+        <v>0.19799692999999999</v>
       </c>
       <c r="K101" s="12">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L101" s="11">
         <v>150</v>
@@ -7538,12 +7542,12 @@
         <v>24</v>
       </c>
       <c r="O101" s="30">
-        <f t="shared" si="11"/>
+        <f>(32*M101*L101)/C101</f>
         <v>579.71014492753625</v>
       </c>
       <c r="P101" s="12"/>
       <c r="Q101" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="R101" s="12"/>
       <c r="S101" s="12"/>
@@ -7552,77 +7556,40 @@
       </c>
     </row>
     <row r="102" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B102" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C102" s="11">
-        <v>414</v>
-      </c>
-      <c r="D102" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E102" s="26">
-        <f>((F102/$F$13)+(G102/$G$13))/2</f>
-        <v>0.69362813113390942</v>
-      </c>
-      <c r="F102" s="26">
-        <v>1.5602193</v>
-      </c>
-      <c r="G102" s="29">
-        <v>0.13526352999999999</v>
-      </c>
-      <c r="H102" s="29">
-        <v>34.269888151810001</v>
-      </c>
-      <c r="I102" s="29">
-        <v>0.13921045300000001</v>
-      </c>
-      <c r="J102" s="29">
-        <v>0.19799692999999999</v>
-      </c>
-      <c r="K102" s="12">
-        <v>44</v>
-      </c>
-      <c r="L102" s="11">
-        <v>150</v>
-      </c>
-      <c r="M102" s="12">
-        <v>50</v>
-      </c>
-      <c r="N102" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="O102" s="30">
-        <f t="shared" si="11"/>
-        <v>579.71014492753625</v>
-      </c>
+      <c r="D102" s="12"/>
+      <c r="E102" s="64">
+        <f>MEDIAN(E99:E101)</f>
+        <v>0.65647161068172988</v>
+      </c>
+      <c r="F102" s="64">
+        <f>MEDIAN(F99:F101)</f>
+        <v>0.12596107578900001</v>
+      </c>
+      <c r="G102" s="64">
+        <f>MEDIAN(G99:G101)</f>
+        <v>1.5034351163749999</v>
+      </c>
+      <c r="H102" s="29"/>
+      <c r="I102" s="29"/>
+      <c r="J102" s="29"/>
+      <c r="K102" s="12"/>
+      <c r="M102" s="12"/>
+      <c r="N102" s="12"/>
+      <c r="O102" s="30"/>
       <c r="P102" s="12"/>
-      <c r="Q102" s="12" t="s">
-        <v>98</v>
-      </c>
+      <c r="Q102" s="12"/>
       <c r="R102" s="12"/>
       <c r="S102" s="12"/>
-      <c r="T102" s="12">
-        <v>21723</v>
-      </c>
+      <c r="T102" s="12"/>
     </row>
     <row r="103" spans="2:20" x14ac:dyDescent="0.35">
       <c r="D103" s="12"/>
-      <c r="E103" s="64">
-        <f>MEDIAN(E100:E102)</f>
-        <v>0.65647161068172988</v>
-      </c>
-      <c r="F103" s="64">
-        <f>MEDIAN(F100:F102)</f>
-        <v>1.5034351163749999</v>
-      </c>
-      <c r="G103" s="64">
-        <f>MEDIAN(G100:G102)</f>
-        <v>0.12596107578900001</v>
-      </c>
-      <c r="H103" s="29"/>
-      <c r="I103" s="29"/>
-      <c r="J103" s="29"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="14"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="14"/>
+      <c r="I103" s="14"/>
+      <c r="J103" s="14"/>
       <c r="K103" s="12"/>
       <c r="M103" s="12"/>
       <c r="N103" s="12"/>
@@ -7634,22 +7601,59 @@
       <c r="T103" s="12"/>
     </row>
     <row r="104" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="D104" s="12"/>
-      <c r="E104" s="12"/>
-      <c r="F104" s="13"/>
-      <c r="G104" s="14"/>
-      <c r="H104" s="14"/>
-      <c r="I104" s="14"/>
-      <c r="J104" s="14"/>
-      <c r="K104" s="12"/>
-      <c r="M104" s="12"/>
-      <c r="N104" s="12"/>
-      <c r="O104" s="30"/>
+      <c r="B104" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" s="11">
+        <v>414</v>
+      </c>
+      <c r="D104" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E104" s="26">
+        <f t="shared" ref="E104:E106" si="10">((F104/$F$13)+(G104/$G$13))/2</f>
+        <v>0.59599179851879458</v>
+      </c>
+      <c r="F104" s="29">
+        <v>0.111900554927</v>
+      </c>
+      <c r="G104" s="26">
+        <v>1.3969220821999999</v>
+      </c>
+      <c r="H104" s="29">
+        <v>27.981724400000001</v>
+      </c>
+      <c r="I104" s="29">
+        <v>5.0207332389999998E-2</v>
+      </c>
+      <c r="J104" s="29">
+        <v>3.0709150000000001E-2</v>
+      </c>
+      <c r="K104" s="12">
+        <v>42</v>
+      </c>
+      <c r="L104" s="11">
+        <v>200</v>
+      </c>
+      <c r="M104" s="12">
+        <v>50</v>
+      </c>
+      <c r="N104" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O104" s="30">
+        <f>(32*M104*L104)/C104</f>
+        <v>772.94685990338166</v>
+      </c>
       <c r="P104" s="12"/>
-      <c r="Q104" s="12"/>
+      <c r="Q104" s="12" t="s">
+        <v>99</v>
+      </c>
       <c r="R104" s="12"/>
       <c r="S104" s="12"/>
-      <c r="T104" s="12"/>
+      <c r="T104" s="12">
+        <v>21723</v>
+      </c>
     </row>
     <row r="105" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B105" s="11" t="s">
@@ -7662,26 +7666,26 @@
         <v>6</v>
       </c>
       <c r="E105" s="26">
-        <f>((F105/$F$13)+(G105/$G$13))/2</f>
-        <v>0.59599179851879458</v>
-      </c>
-      <c r="F105" s="26">
-        <v>1.3969220821999999</v>
-      </c>
-      <c r="G105" s="29">
-        <v>0.111900554927</v>
+        <f t="shared" si="10"/>
+        <v>0.6407881131784916</v>
+      </c>
+      <c r="F105" s="29">
+        <v>0.12589958700000001</v>
+      </c>
+      <c r="G105" s="26">
+        <v>1.4291122602699999</v>
       </c>
       <c r="H105" s="29">
-        <v>27.981724400000001</v>
+        <v>27.870253036779999</v>
       </c>
       <c r="I105" s="29">
-        <v>5.0207332389999998E-2</v>
+        <v>7.6945933999999994E-2</v>
       </c>
       <c r="J105" s="29">
-        <v>3.0709150000000001E-2</v>
+        <v>2.5308649999999999E-2</v>
       </c>
       <c r="K105" s="12">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L105" s="11">
         <v>200</v>
@@ -7693,12 +7697,12 @@
         <v>24</v>
       </c>
       <c r="O105" s="30">
-        <f t="shared" si="11"/>
+        <f>(32*M105*L105)/C105</f>
         <v>772.94685990338166</v>
       </c>
       <c r="P105" s="12"/>
       <c r="Q105" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R105" s="12"/>
       <c r="S105" s="12"/>
@@ -7717,26 +7721,26 @@
         <v>6</v>
       </c>
       <c r="E106" s="26">
-        <f>((F106/$F$13)+(G106/$G$13))/2</f>
-        <v>0.6407881131784916</v>
-      </c>
-      <c r="F106" s="26">
-        <v>1.4291122602699999</v>
-      </c>
-      <c r="G106" s="29">
-        <v>0.12589958700000001</v>
+        <f t="shared" si="10"/>
+        <v>0.69441753276292184</v>
+      </c>
+      <c r="F106" s="29">
+        <v>0.13552497799999999</v>
+      </c>
+      <c r="G106" s="26">
+        <v>1.5605943</v>
       </c>
       <c r="H106" s="29">
-        <v>27.870253036779999</v>
+        <v>35.226810027699997</v>
       </c>
       <c r="I106" s="29">
-        <v>7.6945933999999994E-2</v>
+        <v>0.14334861600000001</v>
       </c>
       <c r="J106" s="29">
-        <v>2.5308649999999999E-2</v>
+        <v>0.20880326099999999</v>
       </c>
       <c r="K106" s="12">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L106" s="11">
         <v>200</v>
@@ -7748,12 +7752,12 @@
         <v>24</v>
       </c>
       <c r="O106" s="30">
-        <f t="shared" si="11"/>
+        <f>(32*M106*L106)/C106</f>
         <v>772.94685990338166</v>
       </c>
       <c r="P106" s="12"/>
       <c r="Q106" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R106" s="12"/>
       <c r="S106" s="12"/>
@@ -7762,74 +7766,37 @@
       </c>
     </row>
     <row r="107" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B107" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C107" s="11">
-        <v>414</v>
-      </c>
-      <c r="D107" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E107" s="26">
-        <f>((F107/$F$13)+(G107/$G$13))/2</f>
-        <v>0.69441753276292184</v>
-      </c>
-      <c r="F107" s="26">
-        <v>1.5605943</v>
-      </c>
-      <c r="G107" s="29">
-        <v>0.13552497799999999</v>
-      </c>
-      <c r="H107" s="29">
-        <v>35.226810027699997</v>
-      </c>
-      <c r="I107" s="29">
-        <v>0.14334861600000001</v>
-      </c>
-      <c r="J107" s="29">
-        <v>0.20880326099999999</v>
-      </c>
-      <c r="K107" s="12">
-        <v>44</v>
-      </c>
-      <c r="L107" s="11">
-        <v>200</v>
-      </c>
-      <c r="M107" s="12">
-        <v>50</v>
-      </c>
-      <c r="N107" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="O107" s="30">
-        <f t="shared" si="11"/>
-        <v>772.94685990338166</v>
-      </c>
+      <c r="D107" s="12"/>
+      <c r="E107" s="64">
+        <f>MEDIAN(E104:E106)</f>
+        <v>0.6407881131784916</v>
+      </c>
+      <c r="F107" s="64">
+        <f>MEDIAN(F104:F106)</f>
+        <v>0.12589958700000001</v>
+      </c>
+      <c r="G107" s="64">
+        <f>MEDIAN(G104:G106)</f>
+        <v>1.4291122602699999</v>
+      </c>
+      <c r="H107" s="29"/>
+      <c r="I107" s="29"/>
+      <c r="J107" s="29"/>
+      <c r="K107" s="12"/>
+      <c r="M107" s="12"/>
+      <c r="N107" s="12"/>
+      <c r="O107" s="30"/>
       <c r="P107" s="12"/>
-      <c r="Q107" s="12" t="s">
-        <v>101</v>
-      </c>
+      <c r="Q107" s="12"/>
       <c r="R107" s="12"/>
       <c r="S107" s="12"/>
-      <c r="T107" s="12">
-        <v>21723</v>
-      </c>
+      <c r="T107" s="12"/>
     </row>
     <row r="108" spans="2:20" x14ac:dyDescent="0.35">
       <c r="D108" s="12"/>
-      <c r="E108" s="64">
-        <f>MEDIAN(E105:E107)</f>
-        <v>0.6407881131784916</v>
-      </c>
-      <c r="F108" s="64">
-        <f>MEDIAN(F105:F107)</f>
-        <v>1.4291122602699999</v>
-      </c>
-      <c r="G108" s="64">
-        <f>MEDIAN(G105:G107)</f>
-        <v>0.12589958700000001</v>
-      </c>
+      <c r="E108" s="26"/>
+      <c r="F108" s="29"/>
+      <c r="G108" s="26"/>
       <c r="H108" s="29"/>
       <c r="I108" s="29"/>
       <c r="J108" s="29"/>
@@ -7844,22 +7811,59 @@
       <c r="T108" s="12"/>
     </row>
     <row r="109" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="D109" s="12"/>
-      <c r="E109" s="26"/>
-      <c r="F109" s="26"/>
-      <c r="G109" s="29"/>
-      <c r="H109" s="29"/>
-      <c r="I109" s="29"/>
-      <c r="J109" s="29"/>
-      <c r="K109" s="12"/>
-      <c r="M109" s="12"/>
-      <c r="N109" s="12"/>
-      <c r="O109" s="30"/>
+      <c r="B109" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" s="11">
+        <v>414</v>
+      </c>
+      <c r="D109" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E109" s="26">
+        <f t="shared" ref="E109:E111" si="11">((F109/$F$13)+(G109/$G$13))/2</f>
+        <v>0.59669627928445967</v>
+      </c>
+      <c r="F109" s="29">
+        <v>0.11220346755000001</v>
+      </c>
+      <c r="G109" s="26">
+        <v>1.3963500959999999</v>
+      </c>
+      <c r="H109" s="29">
+        <v>27.944284639999999</v>
+      </c>
+      <c r="I109" s="29">
+        <v>5.0293409999999997E-2</v>
+      </c>
+      <c r="J109" s="29">
+        <v>3.07888542192464E-2</v>
+      </c>
+      <c r="K109" s="12">
+        <v>42</v>
+      </c>
+      <c r="L109" s="11">
+        <v>250</v>
+      </c>
+      <c r="M109" s="12">
+        <v>50</v>
+      </c>
+      <c r="N109" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O109" s="30">
+        <f>(32*M109*L109)/C109</f>
+        <v>966.18357487922708</v>
+      </c>
       <c r="P109" s="12"/>
-      <c r="Q109" s="12"/>
+      <c r="Q109" s="12" t="s">
+        <v>99</v>
+      </c>
       <c r="R109" s="12"/>
       <c r="S109" s="12"/>
-      <c r="T109" s="12"/>
+      <c r="T109" s="12">
+        <v>21723</v>
+      </c>
     </row>
     <row r="110" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B110" s="11" t="s">
@@ -7872,26 +7876,26 @@
         <v>6</v>
       </c>
       <c r="E110" s="26">
-        <f>((F110/$F$13)+(G110/$G$13))/2</f>
-        <v>0.59669627928445967</v>
-      </c>
-      <c r="F110" s="26">
-        <v>1.3963500959999999</v>
-      </c>
-      <c r="G110" s="29">
-        <v>0.11220346755000001</v>
+        <f t="shared" si="11"/>
+        <v>0.64089563264319394</v>
+      </c>
+      <c r="F110" s="29">
+        <v>0.12604470000000001</v>
+      </c>
+      <c r="G110" s="26">
+        <v>1.4277366968</v>
       </c>
       <c r="H110" s="29">
-        <v>27.944284639999999</v>
+        <v>27.732527999999999</v>
       </c>
       <c r="I110" s="29">
-        <v>5.0293409999999997E-2</v>
+        <v>7.7052103699999999E-2</v>
       </c>
       <c r="J110" s="29">
-        <v>3.07888542192464E-2</v>
+        <v>2.5300769588799999E-2</v>
       </c>
       <c r="K110" s="12">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L110" s="11">
         <v>250</v>
@@ -7903,12 +7907,12 @@
         <v>24</v>
       </c>
       <c r="O110" s="30">
-        <f t="shared" si="11"/>
+        <f>(32*M110*L110)/C110</f>
         <v>966.18357487922708</v>
       </c>
       <c r="P110" s="12"/>
       <c r="Q110" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R110" s="12"/>
       <c r="S110" s="12"/>
@@ -7927,26 +7931,26 @@
         <v>6</v>
       </c>
       <c r="E111" s="26">
-        <f>((F111/$F$13)+(G111/$G$13))/2</f>
-        <v>0.64089563264319394</v>
-      </c>
-      <c r="F111" s="26">
-        <v>1.4277366968</v>
-      </c>
-      <c r="G111" s="29">
-        <v>0.12604470000000001</v>
+        <f t="shared" si="11"/>
+        <v>0.6948379056306464</v>
+      </c>
+      <c r="F111" s="29">
+        <v>0.13568655512800001</v>
+      </c>
+      <c r="G111" s="26">
+        <v>1.56050280405</v>
       </c>
       <c r="H111" s="29">
-        <v>27.732527999999999</v>
+        <v>35.201096</v>
       </c>
       <c r="I111" s="29">
-        <v>7.7052103699999999E-2</v>
+        <v>0.143266808</v>
       </c>
       <c r="J111" s="29">
-        <v>2.5300769588799999E-2</v>
+        <v>0.20868989099999999</v>
       </c>
       <c r="K111" s="12">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L111" s="11">
         <v>250</v>
@@ -7958,12 +7962,12 @@
         <v>24</v>
       </c>
       <c r="O111" s="30">
-        <f t="shared" si="11"/>
+        <f>(32*M111*L111)/C111</f>
         <v>966.18357487922708</v>
       </c>
       <c r="P111" s="12"/>
       <c r="Q111" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R111" s="12"/>
       <c r="S111" s="12"/>
@@ -7972,74 +7976,37 @@
       </c>
     </row>
     <row r="112" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B112" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C112" s="11">
-        <v>414</v>
-      </c>
-      <c r="D112" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E112" s="26">
-        <f>((F112/$F$13)+(G112/$G$13))/2</f>
-        <v>0.6948379056306464</v>
-      </c>
-      <c r="F112" s="26">
-        <v>1.56050280405</v>
-      </c>
-      <c r="G112" s="29">
-        <v>0.13568655512800001</v>
-      </c>
-      <c r="H112" s="29">
-        <v>35.201096</v>
-      </c>
-      <c r="I112" s="29">
-        <v>0.143266808</v>
-      </c>
-      <c r="J112" s="29">
-        <v>0.20868989099999999</v>
-      </c>
-      <c r="K112" s="12">
-        <v>44</v>
-      </c>
-      <c r="L112" s="11">
-        <v>250</v>
-      </c>
-      <c r="M112" s="12">
-        <v>50</v>
-      </c>
-      <c r="N112" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="O112" s="30">
-        <f t="shared" si="11"/>
-        <v>966.18357487922708</v>
-      </c>
+      <c r="D112" s="12"/>
+      <c r="E112" s="64">
+        <f>MEDIAN(E109:E111)</f>
+        <v>0.64089563264319394</v>
+      </c>
+      <c r="F112" s="64">
+        <f>MEDIAN(F109:F111)</f>
+        <v>0.12604470000000001</v>
+      </c>
+      <c r="G112" s="64">
+        <f>MEDIAN(G109:G111)</f>
+        <v>1.4277366968</v>
+      </c>
+      <c r="H112" s="29"/>
+      <c r="I112" s="29"/>
+      <c r="J112" s="29"/>
+      <c r="K112" s="12"/>
+      <c r="M112" s="12"/>
+      <c r="N112" s="12"/>
+      <c r="O112" s="30"/>
       <c r="P112" s="12"/>
-      <c r="Q112" s="12" t="s">
-        <v>101</v>
-      </c>
+      <c r="Q112" s="12"/>
       <c r="R112" s="12"/>
       <c r="S112" s="12"/>
-      <c r="T112" s="12">
-        <v>21723</v>
-      </c>
+      <c r="T112" s="12"/>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.35">
       <c r="D113" s="12"/>
-      <c r="E113" s="64">
-        <f>MEDIAN(E110:E112)</f>
-        <v>0.64089563264319394</v>
-      </c>
-      <c r="F113" s="64">
-        <f>MEDIAN(F110:F112)</f>
-        <v>1.4277366968</v>
-      </c>
-      <c r="G113" s="64">
-        <f>MEDIAN(G110:G112)</f>
-        <v>0.12604470000000001</v>
-      </c>
+      <c r="E113" s="26"/>
+      <c r="F113" s="29"/>
+      <c r="G113" s="26"/>
       <c r="H113" s="29"/>
       <c r="I113" s="29"/>
       <c r="J113" s="29"/>
@@ -8054,22 +8021,59 @@
       <c r="T113" s="12"/>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="D114" s="12"/>
-      <c r="E114" s="26"/>
-      <c r="F114" s="26"/>
-      <c r="G114" s="29"/>
-      <c r="H114" s="29"/>
-      <c r="I114" s="29"/>
-      <c r="J114" s="29"/>
-      <c r="K114" s="12"/>
-      <c r="M114" s="12"/>
-      <c r="N114" s="12"/>
-      <c r="O114" s="30"/>
+      <c r="B114" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C114" s="11">
+        <v>414</v>
+      </c>
+      <c r="D114" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E114" s="26">
+        <f t="shared" ref="E114:E116" si="12">((F114/$F$13)+(G114/$G$13))/2</f>
+        <v>0.57692679167765437</v>
+      </c>
+      <c r="F114" s="29">
+        <v>0.109289781788</v>
+      </c>
+      <c r="G114" s="26">
+        <v>1.3396147432100001</v>
+      </c>
+      <c r="H114" s="29">
+        <v>26.626775760000001</v>
+      </c>
+      <c r="I114" s="29">
+        <v>4.70859E-2</v>
+      </c>
+      <c r="J114" s="29">
+        <v>3.8158069000000003E-2</v>
+      </c>
+      <c r="K114" s="12">
+        <v>42</v>
+      </c>
+      <c r="L114" s="11">
+        <v>500</v>
+      </c>
+      <c r="M114" s="12">
+        <v>50</v>
+      </c>
+      <c r="N114" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O114" s="30">
+        <f>(32*M114*L114)/C114</f>
+        <v>1932.3671497584542</v>
+      </c>
       <c r="P114" s="12"/>
-      <c r="Q114" s="12"/>
+      <c r="Q114" s="12" t="s">
+        <v>102</v>
+      </c>
       <c r="R114" s="12"/>
       <c r="S114" s="12"/>
-      <c r="T114" s="12"/>
+      <c r="T114" s="12">
+        <v>21723</v>
+      </c>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B115" s="11" t="s">
@@ -8082,26 +8086,26 @@
         <v>6</v>
       </c>
       <c r="E115" s="26">
-        <f>((F115/$F$13)+(G115/$G$13))/2</f>
-        <v>0.57692679167765437</v>
-      </c>
-      <c r="F115" s="26">
-        <v>1.3396147432100001</v>
-      </c>
-      <c r="G115" s="29">
-        <v>0.109289781788</v>
+        <f t="shared" si="12"/>
+        <v>0.64738428834391804</v>
+      </c>
+      <c r="F115" s="29">
+        <v>0.123154059944571</v>
+      </c>
+      <c r="G115" s="26">
+        <v>1.49647760312</v>
       </c>
       <c r="H115" s="29">
-        <v>26.626775760000001</v>
+        <v>31.595236</v>
       </c>
       <c r="I115" s="29">
-        <v>4.70859E-2</v>
+        <v>7.3616584994262005E-2</v>
       </c>
       <c r="J115" s="29">
-        <v>3.8158069000000003E-2</v>
+        <v>2.53254359900911E-2</v>
       </c>
       <c r="K115" s="12">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L115" s="11">
         <v>500</v>
@@ -8113,12 +8117,12 @@
         <v>24</v>
       </c>
       <c r="O115" s="30">
-        <f t="shared" si="11"/>
+        <f>(32*M115*L115)/C115</f>
         <v>1932.3671497584542</v>
       </c>
       <c r="P115" s="12"/>
       <c r="Q115" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="R115" s="12"/>
       <c r="S115" s="12"/>
@@ -8137,26 +8141,26 @@
         <v>6</v>
       </c>
       <c r="E116" s="26">
-        <f>((F116/$F$13)+(G116/$G$13))/2</f>
-        <v>0.64738428834391804</v>
-      </c>
-      <c r="F116" s="26">
-        <v>1.49647760312</v>
-      </c>
-      <c r="G116" s="29">
-        <v>0.123154059944571</v>
+        <f t="shared" si="12"/>
+        <v>0.68169032354793591</v>
+      </c>
+      <c r="F116" s="29">
+        <v>0.13219809499999999</v>
+      </c>
+      <c r="G116" s="26">
+        <v>1.5429747353900001</v>
       </c>
       <c r="H116" s="29">
-        <v>31.595236</v>
+        <v>35.371482</v>
       </c>
       <c r="I116" s="29">
-        <v>7.3616584994262005E-2</v>
+        <v>0.14453732799999999</v>
       </c>
       <c r="J116" s="29">
-        <v>2.53254359900911E-2</v>
+        <v>0.20880617728</v>
       </c>
       <c r="K116" s="12">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L116" s="11">
         <v>500</v>
@@ -8168,12 +8172,12 @@
         <v>24</v>
       </c>
       <c r="O116" s="30">
-        <f t="shared" si="11"/>
+        <f>(32*M116*L116)/C116</f>
         <v>1932.3671497584542</v>
       </c>
       <c r="P116" s="12"/>
       <c r="Q116" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="R116" s="12"/>
       <c r="S116" s="12"/>
@@ -8182,74 +8186,37 @@
       </c>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B117" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C117" s="11">
-        <v>414</v>
-      </c>
-      <c r="D117" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E117" s="26">
-        <f>((F117/$F$13)+(G117/$G$13))/2</f>
-        <v>0.68169032354793591</v>
-      </c>
-      <c r="F117" s="26">
-        <v>1.5429747353900001</v>
-      </c>
-      <c r="G117" s="29">
-        <v>0.13219809499999999</v>
-      </c>
-      <c r="H117" s="29">
-        <v>35.371482</v>
-      </c>
-      <c r="I117" s="29">
-        <v>0.14453732799999999</v>
-      </c>
-      <c r="J117" s="29">
-        <v>0.20880617728</v>
-      </c>
-      <c r="K117" s="12">
-        <v>44</v>
-      </c>
-      <c r="L117" s="11">
-        <v>500</v>
-      </c>
-      <c r="M117" s="12">
-        <v>50</v>
-      </c>
-      <c r="N117" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="O117" s="30">
-        <f t="shared" si="11"/>
-        <v>1932.3671497584542</v>
-      </c>
+      <c r="D117" s="12"/>
+      <c r="E117" s="64">
+        <f>MEDIAN(E114:E116)</f>
+        <v>0.64738428834391804</v>
+      </c>
+      <c r="F117" s="64">
+        <f>MEDIAN(F114:F116)</f>
+        <v>0.123154059944571</v>
+      </c>
+      <c r="G117" s="64">
+        <f>MEDIAN(G114:G116)</f>
+        <v>1.49647760312</v>
+      </c>
+      <c r="H117" s="14"/>
+      <c r="I117" s="14"/>
+      <c r="J117" s="14"/>
+      <c r="K117" s="12"/>
+      <c r="M117" s="12"/>
+      <c r="N117" s="12"/>
+      <c r="O117" s="30"/>
       <c r="P117" s="12"/>
-      <c r="Q117" s="12" t="s">
-        <v>104</v>
-      </c>
+      <c r="Q117" s="12"/>
       <c r="R117" s="12"/>
       <c r="S117" s="12"/>
-      <c r="T117" s="12">
-        <v>21723</v>
-      </c>
+      <c r="T117" s="12"/>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.35">
       <c r="D118" s="12"/>
-      <c r="E118" s="64">
-        <f>MEDIAN(E115:E117)</f>
-        <v>0.64738428834391804</v>
-      </c>
-      <c r="F118" s="64">
-        <f>MEDIAN(F115:F117)</f>
-        <v>1.49647760312</v>
-      </c>
-      <c r="G118" s="64">
-        <f>MEDIAN(G115:G117)</f>
-        <v>0.123154059944571</v>
-      </c>
+      <c r="E118" s="12"/>
+      <c r="F118" s="14"/>
+      <c r="G118" s="13"/>
       <c r="H118" s="14"/>
       <c r="I118" s="14"/>
       <c r="J118" s="14"/>
@@ -8263,108 +8230,145 @@
       <c r="S118" s="12"/>
       <c r="T118" s="12"/>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="D119" s="12"/>
-      <c r="E119" s="12"/>
-      <c r="F119" s="13"/>
-      <c r="G119" s="14"/>
-      <c r="H119" s="14"/>
-      <c r="I119" s="14"/>
-      <c r="J119" s="14"/>
-      <c r="K119" s="12"/>
-      <c r="M119" s="12"/>
-      <c r="N119" s="12"/>
-      <c r="O119" s="30"/>
-      <c r="P119" s="12"/>
-      <c r="Q119" s="12"/>
-      <c r="R119" s="12"/>
-      <c r="S119" s="12"/>
-      <c r="T119" s="12"/>
-    </row>
-    <row r="120" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A120" s="88" t="s">
+    <row r="119" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A119" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B120" s="88"/>
-      <c r="C120" s="88"/>
-      <c r="D120" s="88"/>
-      <c r="E120" s="88"/>
-      <c r="F120" s="88"/>
-      <c r="G120" s="88"/>
-      <c r="H120" s="88"/>
-      <c r="I120" s="88"/>
-      <c r="J120" s="88"/>
-      <c r="K120" s="88"/>
-      <c r="L120" s="88"/>
-      <c r="M120" s="88"/>
-      <c r="N120" s="88"/>
-      <c r="O120" s="88"/>
-      <c r="P120" s="88"/>
-      <c r="Q120" s="88"/>
-      <c r="R120" s="88"/>
-      <c r="S120" s="88"/>
-      <c r="T120" s="88"/>
-    </row>
-    <row r="121" spans="1:20" ht="29" x14ac:dyDescent="0.35">
-      <c r="B121" s="11" t="s">
+      <c r="B119" s="88"/>
+      <c r="C119" s="88"/>
+      <c r="D119" s="88"/>
+      <c r="E119" s="88"/>
+      <c r="F119" s="88"/>
+      <c r="G119" s="88"/>
+      <c r="H119" s="88"/>
+      <c r="I119" s="88"/>
+      <c r="J119" s="88"/>
+      <c r="K119" s="88"/>
+      <c r="L119" s="88"/>
+      <c r="M119" s="88"/>
+      <c r="N119" s="88"/>
+      <c r="O119" s="88"/>
+      <c r="P119" s="88"/>
+      <c r="Q119" s="88"/>
+      <c r="R119" s="88"/>
+      <c r="S119" s="88"/>
+      <c r="T119" s="88"/>
+    </row>
+    <row r="120" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="B120" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C121" s="11">
+      <c r="C120" s="11">
         <v>414</v>
       </c>
-      <c r="D121" s="12" t="s">
+      <c r="D120" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E121" s="26">
-        <f>((F121/$F$13)+(G121/$G$13))/2</f>
+      <c r="E120" s="26">
+        <f>((F120/$F$13)+(G120/$G$13))/2</f>
         <v>1.0499828531446074</v>
       </c>
-      <c r="F121" s="26">
+      <c r="F120" s="29">
+        <v>0.181608907022653</v>
+      </c>
+      <c r="G120" s="26">
         <v>2.6633550241579802</v>
       </c>
-      <c r="G121" s="29">
-        <v>0.181608907022653</v>
-      </c>
-      <c r="H121" s="29">
+      <c r="H120" s="29">
         <v>44.230100888809901</v>
       </c>
+      <c r="I120" s="29"/>
+      <c r="J120" s="29"/>
+      <c r="K120" s="12"/>
+      <c r="L120" s="11">
+        <v>25</v>
+      </c>
+      <c r="M120" s="12">
+        <v>50</v>
+      </c>
+      <c r="N120" s="12"/>
+      <c r="O120" s="73">
+        <f>(32*M120*L120)/C120</f>
+        <v>96.618357487922708</v>
+      </c>
+      <c r="P120" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q120" s="12"/>
+      <c r="R120" s="12"/>
+      <c r="S120" s="12"/>
+      <c r="T120" s="12"/>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="D121" s="12"/>
+      <c r="E121" s="26"/>
+      <c r="F121" s="29"/>
+      <c r="G121" s="26"/>
+      <c r="H121" s="29"/>
       <c r="I121" s="29"/>
       <c r="J121" s="29"/>
       <c r="K121" s="12"/>
-      <c r="L121" s="11">
-        <v>25</v>
-      </c>
-      <c r="M121" s="12">
-        <v>50</v>
-      </c>
+      <c r="M121" s="12"/>
       <c r="N121" s="12"/>
-      <c r="O121" s="73">
-        <f t="shared" si="11"/>
-        <v>96.618357487922708</v>
-      </c>
-      <c r="P121" s="12" t="s">
-        <v>336</v>
-      </c>
+      <c r="O121" s="73"/>
+      <c r="P121" s="12"/>
       <c r="Q121" s="12"/>
       <c r="R121" s="12"/>
       <c r="S121" s="12"/>
       <c r="T121" s="12"/>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="D122" s="12"/>
-      <c r="E122" s="26"/>
-      <c r="F122" s="26"/>
-      <c r="G122" s="29"/>
-      <c r="H122" s="29"/>
-      <c r="I122" s="29"/>
-      <c r="J122" s="29"/>
-      <c r="K122" s="12"/>
-      <c r="M122" s="12"/>
-      <c r="N122" s="12"/>
-      <c r="O122" s="73"/>
+      <c r="B122" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" s="11">
+        <v>414</v>
+      </c>
+      <c r="D122" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E122" s="26">
+        <f>((F122/$F$13)+(G122/$G$13))/2</f>
+        <v>0.68747808455938175</v>
+      </c>
+      <c r="F122" s="29">
+        <v>0.14271562800000001</v>
+      </c>
+      <c r="G122" s="26">
+        <v>1.4336720999999999</v>
+      </c>
+      <c r="H122" s="29">
+        <v>21.056016482362999</v>
+      </c>
+      <c r="I122" s="29">
+        <v>5.4922392845000001E-2</v>
+      </c>
+      <c r="J122" s="29">
+        <v>2.1950000000000001E-2</v>
+      </c>
+      <c r="K122" s="12">
+        <v>42</v>
+      </c>
+      <c r="L122" s="11">
+        <v>25</v>
+      </c>
+      <c r="M122" s="12">
+        <v>50</v>
+      </c>
+      <c r="N122" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O122" s="73">
+        <f>(32*M122*L122)/C122</f>
+        <v>96.618357487922708</v>
+      </c>
       <c r="P122" s="12"/>
-      <c r="Q122" s="12"/>
-      <c r="R122" s="12"/>
+      <c r="Q122" s="12">
+        <v>-2.0457999999999998</v>
+      </c>
+      <c r="R122" s="12" t="s">
+        <v>93</v>
+      </c>
       <c r="S122" s="12"/>
       <c r="T122" s="12"/>
     </row>
@@ -8380,25 +8384,25 @@
       </c>
       <c r="E123" s="26">
         <f>((F123/$F$13)+(G123/$G$13))/2</f>
-        <v>0.68747808455938175</v>
-      </c>
-      <c r="F123" s="26">
-        <v>1.4336720999999999</v>
-      </c>
-      <c r="G123" s="29">
-        <v>0.14271562800000001</v>
+        <v>0.72408903382777257</v>
+      </c>
+      <c r="F123" s="29">
+        <v>0.15133988396055101</v>
+      </c>
+      <c r="G123" s="26">
+        <v>1.4966787960000001</v>
       </c>
       <c r="H123" s="29">
-        <v>21.056016482362999</v>
+        <v>21.597083600000001</v>
       </c>
       <c r="I123" s="29">
-        <v>5.4922392845000001E-2</v>
+        <v>5.1074555000000001E-2</v>
       </c>
       <c r="J123" s="29">
-        <v>2.1950000000000001E-2</v>
+        <v>2.2300419577265401E-2</v>
       </c>
       <c r="K123" s="12">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L123" s="11">
         <v>25</v>
@@ -8410,12 +8414,12 @@
         <v>24</v>
       </c>
       <c r="O123" s="73">
-        <f t="shared" si="11"/>
+        <f>(32*M123*L123)/C123</f>
         <v>96.618357487922708</v>
       </c>
       <c r="P123" s="12"/>
       <c r="Q123" s="12">
-        <v>-2.0457999999999998</v>
+        <v>-2.0164</v>
       </c>
       <c r="R123" s="12" t="s">
         <v>93</v>
@@ -8435,25 +8439,25 @@
       </c>
       <c r="E124" s="26">
         <f>((F124/$F$13)+(G124/$G$13))/2</f>
-        <v>0.72408903382777257</v>
-      </c>
-      <c r="F124" s="26">
-        <v>1.4966787960000001</v>
-      </c>
-      <c r="G124" s="29">
-        <v>0.15133988396055101</v>
+        <v>0.72068370674451088</v>
+      </c>
+      <c r="F124" s="29">
+        <v>0.1521371966</v>
+      </c>
+      <c r="G124" s="26">
+        <v>1.469979618</v>
       </c>
       <c r="H124" s="29">
-        <v>21.597083600000001</v>
+        <v>21.918610000000001</v>
       </c>
       <c r="I124" s="29">
-        <v>5.1074555000000001E-2</v>
+        <v>5.9614221382261703E-2</v>
       </c>
       <c r="J124" s="29">
-        <v>2.2300419577265401E-2</v>
+        <v>2.2553602133483699E-2</v>
       </c>
       <c r="K124" s="12">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L124" s="11">
         <v>25</v>
@@ -8465,12 +8469,12 @@
         <v>24</v>
       </c>
       <c r="O124" s="73">
-        <f t="shared" si="11"/>
+        <f>(32*M124*L124)/C124</f>
         <v>96.618357487922708</v>
       </c>
       <c r="P124" s="12"/>
       <c r="Q124" s="12">
-        <v>-2.0164</v>
+        <v>-1.9988999999999999</v>
       </c>
       <c r="R124" s="12" t="s">
         <v>93</v>
@@ -8479,74 +8483,37 @@
       <c r="T124" s="12"/>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B125" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C125" s="11">
-        <v>414</v>
-      </c>
-      <c r="D125" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E125" s="26">
-        <f>((F125/$F$13)+(G125/$G$13))/2</f>
+      <c r="D125" s="12"/>
+      <c r="E125" s="64">
+        <f>MEDIAN(E122:E124)</f>
         <v>0.72068370674451088</v>
       </c>
-      <c r="F125" s="26">
+      <c r="F125" s="64">
+        <f>MEDIAN(F122:F124)</f>
+        <v>0.15133988396055101</v>
+      </c>
+      <c r="G125" s="64">
+        <f>MEDIAN(G122:G124)</f>
         <v>1.469979618</v>
       </c>
-      <c r="G125" s="29">
-        <v>0.1521371966</v>
-      </c>
-      <c r="H125" s="29">
-        <v>21.918610000000001</v>
-      </c>
-      <c r="I125" s="29">
-        <v>5.9614221382261703E-2</v>
-      </c>
-      <c r="J125" s="29">
-        <v>2.2553602133483699E-2</v>
-      </c>
-      <c r="K125" s="12">
-        <v>44</v>
-      </c>
-      <c r="L125" s="11">
-        <v>25</v>
-      </c>
-      <c r="M125" s="12">
-        <v>50</v>
-      </c>
-      <c r="N125" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="O125" s="73">
-        <f t="shared" si="11"/>
-        <v>96.618357487922708</v>
-      </c>
+      <c r="H125" s="29"/>
+      <c r="I125" s="29"/>
+      <c r="J125" s="29"/>
+      <c r="K125" s="12"/>
+      <c r="M125" s="12"/>
+      <c r="N125" s="12"/>
+      <c r="O125" s="73"/>
       <c r="P125" s="12"/>
-      <c r="Q125" s="12">
-        <v>-1.9988999999999999</v>
-      </c>
-      <c r="R125" s="12" t="s">
-        <v>93</v>
-      </c>
+      <c r="Q125" s="12"/>
+      <c r="R125" s="12"/>
       <c r="S125" s="12"/>
       <c r="T125" s="12"/>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.35">
       <c r="D126" s="12"/>
-      <c r="E126" s="64">
-        <f>MEDIAN(E123:E125)</f>
-        <v>0.72068370674451088</v>
-      </c>
-      <c r="F126" s="64">
-        <f>MEDIAN(F123:F125)</f>
-        <v>1.469979618</v>
-      </c>
-      <c r="G126" s="64">
-        <f>MEDIAN(G123:G125)</f>
-        <v>0.15133988396055101</v>
-      </c>
+      <c r="E126" s="26"/>
+      <c r="F126" s="29"/>
+      <c r="G126" s="26"/>
       <c r="H126" s="29"/>
       <c r="I126" s="29"/>
       <c r="J126" s="29"/>
@@ -8560,25 +8527,60 @@
       <c r="S126" s="12"/>
       <c r="T126" s="12"/>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="D127" s="12"/>
-      <c r="E127" s="26"/>
-      <c r="F127" s="26"/>
-      <c r="G127" s="29"/>
-      <c r="H127" s="29"/>
-      <c r="I127" s="29"/>
-      <c r="J127" s="29"/>
-      <c r="K127" s="12"/>
-      <c r="M127" s="12"/>
-      <c r="N127" s="12"/>
-      <c r="O127" s="73"/>
-      <c r="P127" s="12"/>
+    <row r="127" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="B127" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" s="11">
+        <v>414</v>
+      </c>
+      <c r="D127" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E127" s="26">
+        <f t="shared" ref="E127:E129" si="13">((F127/$F$13)+(G127/$G$13))/2</f>
+        <v>0.6218974140313217</v>
+      </c>
+      <c r="F127" s="29">
+        <v>0.13726854999999999</v>
+      </c>
+      <c r="G127" s="26">
+        <v>1.1905070799999999</v>
+      </c>
+      <c r="H127" s="29">
+        <v>17.358364569999999</v>
+      </c>
+      <c r="I127" s="29">
+        <v>3.6604730000000002E-2</v>
+      </c>
+      <c r="J127" s="29">
+        <v>1.704599E-2</v>
+      </c>
+      <c r="K127" s="12">
+        <v>42</v>
+      </c>
+      <c r="L127" s="11">
+        <v>100</v>
+      </c>
+      <c r="M127" s="12">
+        <v>50</v>
+      </c>
+      <c r="N127" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O127" s="73">
+        <f>(32*M127*L127)/C127</f>
+        <v>386.47342995169083</v>
+      </c>
+      <c r="P127" s="12" t="s">
+        <v>187</v>
+      </c>
       <c r="Q127" s="12"/>
       <c r="R127" s="12"/>
       <c r="S127" s="12"/>
       <c r="T127" s="12"/>
     </row>
-    <row r="128" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B128" s="11" t="s">
         <v>11</v>
       </c>
@@ -8589,26 +8591,26 @@
         <v>3</v>
       </c>
       <c r="E128" s="26">
-        <f>((F128/$F$13)+(G128/$G$13))/2</f>
-        <v>0.6218974140313217</v>
-      </c>
-      <c r="F128" s="26">
-        <v>1.1905070799999999</v>
-      </c>
-      <c r="G128" s="29">
-        <v>0.13726854999999999</v>
+        <f t="shared" si="13"/>
+        <v>0.63490710043783083</v>
+      </c>
+      <c r="F128" s="29">
+        <v>0.13707900000000001</v>
+      </c>
+      <c r="G128" s="26">
+        <v>1.255293</v>
       </c>
       <c r="H128" s="29">
-        <v>17.358364569999999</v>
+        <v>18.432379999999998</v>
       </c>
       <c r="I128" s="29">
-        <v>3.6604730000000002E-2</v>
+        <v>4.4628000000000001E-2</v>
       </c>
       <c r="J128" s="29">
-        <v>1.704599E-2</v>
+        <v>2.0233999999999999E-2</v>
       </c>
       <c r="K128" s="12">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L128" s="11">
         <v>100</v>
@@ -8620,12 +8622,10 @@
         <v>24</v>
       </c>
       <c r="O128" s="73">
-        <f t="shared" si="11"/>
+        <f>(32*M128*L128)/C128</f>
         <v>386.47342995169083</v>
       </c>
-      <c r="P128" s="12" t="s">
-        <v>187</v>
-      </c>
+      <c r="P128" s="12"/>
       <c r="Q128" s="12"/>
       <c r="R128" s="12"/>
       <c r="S128" s="12"/>
@@ -8642,26 +8642,26 @@
         <v>3</v>
       </c>
       <c r="E129" s="26">
-        <f>((F129/$F$13)+(G129/$G$13))/2</f>
-        <v>0.63490710043783083</v>
-      </c>
-      <c r="F129" s="26">
-        <v>1.255293</v>
-      </c>
-      <c r="G129" s="29">
-        <v>0.13707900000000001</v>
+        <f t="shared" si="13"/>
+        <v>0.63898133877662455</v>
+      </c>
+      <c r="F129" s="29">
+        <v>0.138935</v>
+      </c>
+      <c r="G129" s="26">
+        <v>1.2506280000000001</v>
       </c>
       <c r="H129" s="29">
-        <v>18.432379999999998</v>
+        <v>18.048126</v>
       </c>
       <c r="I129" s="29">
-        <v>4.4628000000000001E-2</v>
+        <v>4.5842000000000001E-2</v>
       </c>
       <c r="J129" s="29">
-        <v>2.0233999999999999E-2</v>
+        <v>2.8357E-2</v>
       </c>
       <c r="K129" s="12">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L129" s="11">
         <v>100</v>
@@ -8673,7 +8673,7 @@
         <v>24</v>
       </c>
       <c r="O129" s="73">
-        <f t="shared" si="11"/>
+        <f>(32*M129*L129)/C129</f>
         <v>386.47342995169083</v>
       </c>
       <c r="P129" s="12"/>
@@ -8683,50 +8683,26 @@
       <c r="T129" s="12"/>
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B130" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C130" s="11">
-        <v>414</v>
-      </c>
-      <c r="D130" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E130" s="26">
-        <f>((F130/$F$13)+(G130/$G$13))/2</f>
-        <v>0.63898133877662455</v>
-      </c>
-      <c r="F130" s="26">
+      <c r="D130" s="12"/>
+      <c r="E130" s="72">
+        <f>MEDIAN(E127:E129)</f>
+        <v>0.63490710043783083</v>
+      </c>
+      <c r="F130" s="72">
+        <f>MEDIAN(F127:F129)</f>
+        <v>0.13726854999999999</v>
+      </c>
+      <c r="G130" s="72">
+        <f>MEDIAN(G127:G129)</f>
         <v>1.2506280000000001</v>
       </c>
-      <c r="G130" s="29">
-        <v>0.138935</v>
-      </c>
-      <c r="H130" s="29">
-        <v>18.048126</v>
-      </c>
-      <c r="I130" s="29">
-        <v>4.5842000000000001E-2</v>
-      </c>
-      <c r="J130" s="29">
-        <v>2.8357E-2</v>
-      </c>
-      <c r="K130" s="12">
-        <v>44</v>
-      </c>
-      <c r="L130" s="11">
-        <v>100</v>
-      </c>
-      <c r="M130" s="12">
-        <v>50</v>
-      </c>
-      <c r="N130" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="O130" s="73">
-        <f t="shared" ref="O130" si="14">(32*M130*L130)/C130</f>
-        <v>386.47342995169083</v>
-      </c>
+      <c r="H130" s="29"/>
+      <c r="I130" s="29"/>
+      <c r="J130" s="29"/>
+      <c r="K130" s="12"/>
+      <c r="M130" s="12"/>
+      <c r="N130" s="12"/>
+      <c r="O130" s="30"/>
       <c r="P130" s="12"/>
       <c r="Q130" s="12"/>
       <c r="R130" s="12"/>
@@ -8735,18 +8711,9 @@
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.35">
       <c r="D131" s="12"/>
-      <c r="E131" s="72">
-        <f>MEDIAN(E128:E130)</f>
-        <v>0.63490710043783083</v>
-      </c>
-      <c r="F131" s="72">
-        <f>MEDIAN(F128:F130)</f>
-        <v>1.2506280000000001</v>
-      </c>
-      <c r="G131" s="72">
-        <f>MEDIAN(G128:G130)</f>
-        <v>0.13726854999999999</v>
-      </c>
+      <c r="E131" s="26"/>
+      <c r="F131" s="29"/>
+      <c r="G131" s="26"/>
       <c r="H131" s="29"/>
       <c r="I131" s="29"/>
       <c r="J131" s="29"/>
@@ -8763,8 +8730,8 @@
     <row r="132" spans="1:20" x14ac:dyDescent="0.35">
       <c r="D132" s="12"/>
       <c r="E132" s="26"/>
-      <c r="F132" s="26"/>
-      <c r="G132" s="29"/>
+      <c r="F132" s="29"/>
+      <c r="G132" s="26"/>
       <c r="H132" s="29"/>
       <c r="I132" s="29"/>
       <c r="J132" s="29"/>
@@ -8778,160 +8745,193 @@
       <c r="S132" s="12"/>
       <c r="T132" s="12"/>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="D133" s="12"/>
-      <c r="E133" s="26"/>
-      <c r="F133" s="26"/>
-      <c r="G133" s="29"/>
-      <c r="H133" s="29"/>
-      <c r="I133" s="29"/>
-      <c r="J133" s="29"/>
-      <c r="K133" s="12"/>
-      <c r="M133" s="12"/>
-      <c r="N133" s="12"/>
-      <c r="O133" s="30"/>
-      <c r="P133" s="12"/>
-      <c r="Q133" s="12"/>
-      <c r="R133" s="12"/>
-      <c r="S133" s="12"/>
-      <c r="T133" s="12"/>
-    </row>
-    <row r="134" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A134" s="88" t="s">
+    <row r="133" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A133" s="88" t="s">
         <v>188</v>
       </c>
-      <c r="B134" s="88"/>
-      <c r="C134" s="88"/>
-      <c r="D134" s="88"/>
-      <c r="E134" s="88"/>
-      <c r="F134" s="88"/>
-      <c r="G134" s="88"/>
-      <c r="H134" s="88"/>
-      <c r="I134" s="88"/>
-      <c r="J134" s="88"/>
-      <c r="K134" s="88"/>
-      <c r="L134" s="88"/>
-      <c r="M134" s="88"/>
-      <c r="N134" s="88"/>
-      <c r="O134" s="88"/>
-      <c r="P134" s="88"/>
-      <c r="Q134" s="88"/>
-      <c r="R134" s="88"/>
-      <c r="S134" s="88"/>
-      <c r="T134" s="88"/>
-    </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B135" s="11" t="s">
+      <c r="B133" s="88"/>
+      <c r="C133" s="88"/>
+      <c r="D133" s="88"/>
+      <c r="E133" s="88"/>
+      <c r="F133" s="88"/>
+      <c r="G133" s="88"/>
+      <c r="H133" s="88"/>
+      <c r="I133" s="88"/>
+      <c r="J133" s="88"/>
+      <c r="K133" s="88"/>
+      <c r="L133" s="88"/>
+      <c r="M133" s="88"/>
+      <c r="N133" s="88"/>
+      <c r="O133" s="88"/>
+      <c r="P133" s="88"/>
+      <c r="Q133" s="88"/>
+      <c r="R133" s="88"/>
+      <c r="S133" s="88"/>
+      <c r="T133" s="88"/>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B134" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C135" s="11">
+      <c r="C134" s="11">
+        <v>414</v>
+      </c>
+      <c r="D134" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="E134" s="26">
+        <f>((F134/$F$13)+(G134/$G$13))/2</f>
+        <v>6.0596880371447757</v>
+      </c>
+      <c r="F134" s="29">
+        <v>0.42155993227215</v>
+      </c>
+      <c r="G134" s="26">
+        <v>23.533678978716601</v>
+      </c>
+      <c r="H134" s="29">
+        <v>545.75731609802597</v>
+      </c>
+      <c r="I134" s="29">
+        <v>0.33439627305276798</v>
+      </c>
+      <c r="J134" s="29">
+        <v>8.1370935121077501E-2</v>
+      </c>
+      <c r="K134" s="12">
+        <v>42</v>
+      </c>
+      <c r="L134" s="11">
+        <v>100</v>
+      </c>
+      <c r="M134" s="12">
+        <v>100</v>
+      </c>
+      <c r="N134" s="12"/>
+      <c r="O134" s="73">
+        <f>(32*M134*L134)/C134</f>
+        <v>772.94685990338166</v>
+      </c>
+      <c r="P134" s="12"/>
+      <c r="Q134" s="12"/>
+      <c r="R134" s="12"/>
+      <c r="S134" s="12"/>
+      <c r="T134" s="12"/>
+    </row>
+    <row r="135" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B135" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" s="15">
         <v>414</v>
       </c>
       <c r="D135" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="E135" s="26">
-        <f>((F135/$F$13)+(G135/$G$13))/2</f>
-        <v>6.0596880371447757</v>
-      </c>
-      <c r="F135" s="26">
-        <v>23.533678978716601</v>
-      </c>
-      <c r="G135" s="29">
-        <v>0.42155993227215</v>
-      </c>
-      <c r="H135" s="29">
-        <v>545.75731609802597</v>
-      </c>
-      <c r="I135" s="29">
-        <v>0.33439627305276798</v>
-      </c>
-      <c r="J135" s="29">
-        <v>8.1370935121077501E-2</v>
-      </c>
-      <c r="K135" s="12">
+      <c r="E135" s="12"/>
+      <c r="F135" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G135" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H135" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I135" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J135" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K135" s="16">
         <v>42</v>
       </c>
-      <c r="L135" s="11">
-        <v>100</v>
-      </c>
-      <c r="M135" s="12">
-        <v>100</v>
-      </c>
-      <c r="N135" s="12"/>
+      <c r="L135" s="15">
+        <v>100</v>
+      </c>
+      <c r="M135" s="16">
+        <v>200</v>
+      </c>
+      <c r="N135" s="16"/>
       <c r="O135" s="73">
-        <f t="shared" si="11"/>
-        <v>772.94685990338166</v>
-      </c>
-      <c r="P135" s="12"/>
-      <c r="Q135" s="12"/>
-      <c r="R135" s="12"/>
-      <c r="S135" s="12"/>
-      <c r="T135" s="12"/>
+        <f>(32*M135*L135)/C135</f>
+        <v>1545.8937198067633</v>
+      </c>
+      <c r="P135" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q135" s="16"/>
+      <c r="R135" s="16"/>
+      <c r="S135" s="16"/>
+      <c r="T135" s="16"/>
     </row>
     <row r="136" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B136" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C136" s="15">
-        <v>414</v>
-      </c>
-      <c r="D136" s="12" t="s">
-        <v>188</v>
-      </c>
+      <c r="D136" s="16"/>
       <c r="E136" s="12"/>
-      <c r="F136" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G136" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H136" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I136" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="J136" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="K136" s="16">
-        <v>42</v>
-      </c>
-      <c r="L136" s="15">
-        <v>100</v>
-      </c>
-      <c r="M136" s="16">
-        <v>200</v>
-      </c>
+      <c r="G136" s="16"/>
+      <c r="I136" s="16"/>
+      <c r="J136" s="16"/>
+      <c r="K136" s="16"/>
+      <c r="M136" s="16"/>
       <c r="N136" s="16"/>
-      <c r="O136" s="73">
-        <f t="shared" si="11"/>
-        <v>1545.8937198067633</v>
-      </c>
-      <c r="P136" s="16" t="s">
-        <v>337</v>
-      </c>
+      <c r="O136" s="73"/>
+      <c r="P136" s="16"/>
       <c r="Q136" s="16"/>
       <c r="R136" s="16"/>
       <c r="S136" s="16"/>
       <c r="T136" s="16"/>
     </row>
     <row r="137" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D137" s="16"/>
-      <c r="E137" s="12"/>
-      <c r="F137" s="16"/>
-      <c r="I137" s="16"/>
-      <c r="J137" s="16"/>
-      <c r="K137" s="16"/>
-      <c r="M137" s="16"/>
-      <c r="N137" s="16"/>
-      <c r="O137" s="73"/>
+      <c r="B137" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" s="11">
+        <v>414</v>
+      </c>
+      <c r="D137" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="E137" s="26">
+        <f>((F137/$F$13)+(G137/$G$13))/2</f>
+        <v>3.8124437941061848</v>
+      </c>
+      <c r="F137" s="28">
+        <v>0.34606221700000001</v>
+      </c>
+      <c r="G137" s="27">
+        <v>13.752989064227201</v>
+      </c>
+      <c r="H137" s="28">
+        <v>260.71834811999997</v>
+      </c>
+      <c r="I137" s="27">
+        <v>0.100243507241533</v>
+      </c>
+      <c r="J137" s="27">
+        <v>0.1184869948966</v>
+      </c>
+      <c r="K137" s="12">
+        <v>42</v>
+      </c>
+      <c r="L137" s="11">
+        <v>100</v>
+      </c>
+      <c r="M137" s="12">
+        <v>50</v>
+      </c>
+      <c r="N137" s="12"/>
+      <c r="O137" s="73">
+        <f>(32*M137*L137)/C137</f>
+        <v>386.47342995169083</v>
+      </c>
       <c r="P137" s="16"/>
-      <c r="Q137" s="16"/>
-      <c r="R137" s="16"/>
-      <c r="S137" s="16"/>
-      <c r="T137" s="16"/>
+      <c r="Q137" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="R137" s="12"/>
+      <c r="S137" s="12"/>
+      <c r="T137" s="12"/>
     </row>
     <row r="138" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B138" s="11" t="s">
@@ -8945,25 +8945,25 @@
       </c>
       <c r="E138" s="26">
         <f>((F138/$F$13)+(G138/$G$13))/2</f>
-        <v>3.8124437941061848</v>
-      </c>
-      <c r="F138" s="27">
-        <v>13.752989064227201</v>
-      </c>
-      <c r="G138" s="28">
-        <v>0.34606221700000001</v>
+        <v>3.8012956126611073</v>
+      </c>
+      <c r="F138" s="28">
+        <v>0.34225530786530001</v>
+      </c>
+      <c r="G138" s="27">
+        <v>13.749186987</v>
       </c>
       <c r="H138" s="28">
-        <v>260.71834811999997</v>
+        <v>234.73750999999999</v>
       </c>
       <c r="I138" s="27">
-        <v>0.100243507241533</v>
+        <v>9.7763042491408506E-2</v>
       </c>
       <c r="J138" s="27">
-        <v>0.1184869948966</v>
+        <v>0.10846537520000001</v>
       </c>
       <c r="K138" s="12">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L138" s="11">
         <v>100</v>
@@ -8973,22 +8973,22 @@
       </c>
       <c r="N138" s="12"/>
       <c r="O138" s="73">
-        <f t="shared" si="11"/>
+        <f>(32*M138*L138)/C138</f>
         <v>386.47342995169083</v>
       </c>
       <c r="P138" s="16"/>
       <c r="Q138" s="16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R138" s="12"/>
       <c r="S138" s="12"/>
       <c r="T138" s="12"/>
     </row>
-    <row r="139" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B139" s="11" t="s">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B139" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C139" s="11">
+      <c r="C139" s="15">
         <v>414</v>
       </c>
       <c r="D139" s="12" t="s">
@@ -8996,91 +8996,68 @@
       </c>
       <c r="E139" s="26">
         <f>((F139/$F$13)+(G139/$G$13))/2</f>
-        <v>3.8012956126611073</v>
-      </c>
-      <c r="F139" s="27">
-        <v>13.749186987</v>
-      </c>
-      <c r="G139" s="28">
-        <v>0.34225530786530001</v>
-      </c>
-      <c r="H139" s="28">
-        <v>234.73750999999999</v>
-      </c>
-      <c r="I139" s="27">
-        <v>9.7763042491408506E-2</v>
-      </c>
-      <c r="J139" s="27">
-        <v>0.10846537520000001</v>
-      </c>
-      <c r="K139" s="12">
-        <v>43</v>
-      </c>
-      <c r="L139" s="11">
-        <v>100</v>
-      </c>
-      <c r="M139" s="12">
+        <v>4.1152924593877751</v>
+      </c>
+      <c r="F139" s="29">
+        <v>0.35499995299830001</v>
+      </c>
+      <c r="G139" s="29">
+        <v>15.0871902949758</v>
+      </c>
+      <c r="H139" s="29">
+        <v>292.86451212999998</v>
+      </c>
+      <c r="I139" s="29">
+        <v>0.12719792438081401</v>
+      </c>
+      <c r="J139" s="29">
+        <v>0.11211767573500001</v>
+      </c>
+      <c r="K139" s="16">
+        <v>44</v>
+      </c>
+      <c r="L139" s="15">
+        <v>100</v>
+      </c>
+      <c r="M139" s="16">
         <v>50</v>
       </c>
-      <c r="N139" s="12"/>
+      <c r="N139" s="16"/>
       <c r="O139" s="73">
-        <f t="shared" si="11"/>
+        <f>(32*M139*L139)/C139</f>
         <v>386.47342995169083</v>
       </c>
-      <c r="P139" s="16"/>
-      <c r="Q139" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="R139" s="12"/>
-      <c r="S139" s="12"/>
-      <c r="T139" s="12"/>
+      <c r="Q139" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="R139" s="16"/>
+      <c r="S139" s="16"/>
+      <c r="T139" s="16"/>
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B140" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C140" s="15">
-        <v>414</v>
-      </c>
-      <c r="D140" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="E140" s="26">
-        <f>((F140/$F$13)+(G140/$G$13))/2</f>
-        <v>4.1152924593877751</v>
-      </c>
-      <c r="F140" s="29">
-        <v>15.0871902949758</v>
-      </c>
-      <c r="G140" s="29">
-        <v>0.35499995299830001</v>
-      </c>
-      <c r="H140" s="29">
-        <v>292.86451212999998</v>
-      </c>
-      <c r="I140" s="29">
-        <v>0.12719792438081401</v>
-      </c>
-      <c r="J140" s="29">
-        <v>0.11211767573500001</v>
-      </c>
-      <c r="K140" s="16">
-        <v>44</v>
-      </c>
-      <c r="L140" s="15">
-        <v>100</v>
-      </c>
-      <c r="M140" s="16">
-        <v>50</v>
-      </c>
+      <c r="B140" s="15"/>
+      <c r="C140" s="15"/>
+      <c r="D140" s="16"/>
+      <c r="E140" s="64">
+        <f>MEDIAN(E137:E139)</f>
+        <v>3.8124437941061848</v>
+      </c>
+      <c r="F140" s="64">
+        <f>MEDIAN(F137:F139)</f>
+        <v>0.34606221700000001</v>
+      </c>
+      <c r="G140" s="64">
+        <f>MEDIAN(G137:G139)</f>
+        <v>13.752989064227201</v>
+      </c>
+      <c r="H140" s="29"/>
+      <c r="I140" s="29"/>
+      <c r="J140" s="29"/>
+      <c r="K140" s="16"/>
+      <c r="L140" s="15"/>
+      <c r="M140" s="16"/>
       <c r="N140" s="16"/>
-      <c r="O140" s="73">
-        <f t="shared" si="11"/>
-        <v>386.47342995169083</v>
-      </c>
-      <c r="Q140" s="11" t="s">
-        <v>111</v>
-      </c>
+      <c r="O140" s="73"/>
       <c r="R140" s="16"/>
       <c r="S140" s="16"/>
       <c r="T140" s="16"/>
@@ -9089,18 +9066,9 @@
       <c r="B141" s="15"/>
       <c r="C141" s="15"/>
       <c r="D141" s="16"/>
-      <c r="E141" s="64">
-        <f>MEDIAN(E138:E140)</f>
-        <v>3.8124437941061848</v>
-      </c>
-      <c r="F141" s="64">
-        <f>MEDIAN(F138:F140)</f>
-        <v>13.752989064227201</v>
-      </c>
-      <c r="G141" s="64">
-        <f>MEDIAN(G138:G140)</f>
-        <v>0.34606221700000001</v>
-      </c>
+      <c r="E141" s="26"/>
+      <c r="F141" s="29"/>
+      <c r="G141" s="29"/>
       <c r="H141" s="29"/>
       <c r="I141" s="29"/>
       <c r="J141" s="29"/>
@@ -9114,23 +9082,54 @@
       <c r="T141" s="16"/>
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B142" s="15"/>
-      <c r="C142" s="15"/>
-      <c r="D142" s="16"/>
-      <c r="E142" s="26"/>
-      <c r="F142" s="29"/>
-      <c r="G142" s="29"/>
-      <c r="H142" s="29"/>
-      <c r="I142" s="29"/>
-      <c r="J142" s="29"/>
-      <c r="K142" s="16"/>
-      <c r="L142" s="15"/>
-      <c r="M142" s="16"/>
-      <c r="N142" s="16"/>
-      <c r="O142" s="73"/>
-      <c r="R142" s="16"/>
-      <c r="S142" s="16"/>
-      <c r="T142" s="16"/>
+      <c r="B142" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" s="11">
+        <v>414</v>
+      </c>
+      <c r="D142" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="E142" s="26">
+        <f t="shared" ref="E142:E144" si="14">((F142/$F$13)+(G142/$G$13))/2</f>
+        <v>4.0197678215361323</v>
+      </c>
+      <c r="F142" s="29">
+        <v>0.34832704199999998</v>
+      </c>
+      <c r="G142" s="29">
+        <v>14.7165642423</v>
+      </c>
+      <c r="H142" s="29">
+        <v>293.48100548871997</v>
+      </c>
+      <c r="I142" s="29">
+        <v>8.7628885399999995E-2</v>
+      </c>
+      <c r="J142" s="29">
+        <v>6.6904239000000004E-2</v>
+      </c>
+      <c r="K142" s="12">
+        <v>42</v>
+      </c>
+      <c r="L142" s="11">
+        <v>150</v>
+      </c>
+      <c r="M142" s="12">
+        <v>50</v>
+      </c>
+      <c r="N142" s="12"/>
+      <c r="O142" s="73">
+        <f>(32*M142*L142)/C142</f>
+        <v>579.71014492753625</v>
+      </c>
+      <c r="Q142" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="R142" s="12"/>
+      <c r="S142" s="12"/>
+      <c r="T142" s="12"/>
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B143" s="11" t="s">
@@ -9143,26 +9142,26 @@
         <v>188</v>
       </c>
       <c r="E143" s="26">
-        <f>((F143/$F$13)+(G143/$G$13))/2</f>
-        <v>4.0197678215361323</v>
+        <f t="shared" si="14"/>
+        <v>3.8451995529615739</v>
       </c>
       <c r="F143" s="29">
-        <v>14.7165642423</v>
+        <v>0.34151055159425298</v>
       </c>
       <c r="G143" s="29">
-        <v>0.34832704199999998</v>
+        <v>13.969189800000001</v>
       </c>
       <c r="H143" s="29">
-        <v>293.48100548871997</v>
+        <v>242.00053260022599</v>
       </c>
       <c r="I143" s="29">
-        <v>8.7628885399999995E-2</v>
+        <v>0.101280667689</v>
       </c>
       <c r="J143" s="29">
-        <v>6.6904239000000004E-2</v>
+        <v>8.6097344000000006E-2</v>
       </c>
       <c r="K143" s="12">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L143" s="11">
         <v>150</v>
@@ -9172,112 +9171,90 @@
       </c>
       <c r="N143" s="12"/>
       <c r="O143" s="73">
-        <f t="shared" si="11"/>
+        <f>(32*M143*L143)/C143</f>
         <v>579.71014492753625</v>
       </c>
       <c r="Q143" s="12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R143" s="12"/>
       <c r="S143" s="12"/>
       <c r="T143" s="12"/>
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B144" s="11" t="s">
+      <c r="B144" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C144" s="11">
+      <c r="C144" s="15">
         <v>414</v>
       </c>
       <c r="D144" s="12" t="s">
         <v>188</v>
       </c>
       <c r="E144" s="26">
-        <f>((F144/$F$13)+(G144/$G$13))/2</f>
-        <v>3.8451995529615739</v>
+        <f t="shared" si="14"/>
+        <v>4.0545447316794574</v>
       </c>
       <c r="F144" s="29">
-        <v>13.969189800000001</v>
+        <v>0.33589392000000001</v>
       </c>
       <c r="G144" s="29">
-        <v>0.34151055159425298</v>
+        <v>15.0451286</v>
       </c>
       <c r="H144" s="29">
-        <v>242.00053260022599</v>
+        <v>301.010694</v>
       </c>
       <c r="I144" s="29">
-        <v>0.101280667689</v>
+        <v>8.3964380000000005E-2</v>
       </c>
       <c r="J144" s="29">
-        <v>8.6097344000000006E-2</v>
-      </c>
-      <c r="K144" s="12">
-        <v>43</v>
+        <v>8.55931446113503E-2</v>
+      </c>
+      <c r="K144" s="16">
+        <v>44</v>
       </c>
       <c r="L144" s="11">
         <v>150</v>
       </c>
-      <c r="M144" s="12">
+      <c r="M144" s="16">
         <v>50</v>
       </c>
-      <c r="N144" s="12"/>
+      <c r="N144" s="16"/>
       <c r="O144" s="73">
-        <f t="shared" si="11"/>
+        <f>(32*M144*L144)/C144</f>
         <v>579.71014492753625</v>
       </c>
       <c r="Q144" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="R144" s="12"/>
-      <c r="S144" s="12"/>
-      <c r="T144" s="12"/>
+        <v>114</v>
+      </c>
+      <c r="R144" s="16"/>
+      <c r="S144" s="16"/>
+      <c r="T144" s="16"/>
     </row>
     <row r="145" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B145" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C145" s="15">
-        <v>414</v>
-      </c>
-      <c r="D145" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="E145" s="26">
-        <f>((F145/$F$13)+(G145/$G$13))/2</f>
-        <v>4.0545447316794574</v>
-      </c>
-      <c r="F145" s="29">
-        <v>15.0451286</v>
-      </c>
-      <c r="G145" s="29">
-        <v>0.33589392000000001</v>
-      </c>
-      <c r="H145" s="29">
-        <v>301.010694</v>
-      </c>
-      <c r="I145" s="29">
-        <v>8.3964380000000005E-2</v>
-      </c>
-      <c r="J145" s="29">
-        <v>8.55931446113503E-2</v>
-      </c>
-      <c r="K145" s="16">
-        <v>44</v>
-      </c>
-      <c r="L145" s="11">
-        <v>150</v>
-      </c>
-      <c r="M145" s="16">
-        <v>50</v>
-      </c>
+      <c r="B145" s="15"/>
+      <c r="C145" s="15"/>
+      <c r="D145" s="12"/>
+      <c r="E145" s="64">
+        <f>MEDIAN(E142:E144)</f>
+        <v>4.0197678215361323</v>
+      </c>
+      <c r="F145" s="64">
+        <f>MEDIAN(F142:F144)</f>
+        <v>0.34151055159425298</v>
+      </c>
+      <c r="G145" s="64">
+        <f>MEDIAN(G142:G144)</f>
+        <v>14.7165642423</v>
+      </c>
+      <c r="H145" s="29"/>
+      <c r="I145" s="29"/>
+      <c r="J145" s="29"/>
+      <c r="K145" s="16"/>
+      <c r="M145" s="16"/>
       <c r="N145" s="16"/>
-      <c r="O145" s="73">
-        <f t="shared" si="11"/>
-        <v>579.71014492753625</v>
-      </c>
-      <c r="Q145" s="12" t="s">
-        <v>114</v>
-      </c>
+      <c r="O145" s="73"/>
+      <c r="Q145" s="12"/>
       <c r="R145" s="16"/>
       <c r="S145" s="16"/>
       <c r="T145" s="16"/>
@@ -9285,19 +9262,10 @@
     <row r="146" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B146" s="15"/>
       <c r="C146" s="15"/>
-      <c r="D146" s="12"/>
-      <c r="E146" s="64">
-        <f>MEDIAN(E143:E145)</f>
-        <v>4.0197678215361323</v>
-      </c>
-      <c r="F146" s="64">
-        <f>MEDIAN(F143:F145)</f>
-        <v>14.7165642423</v>
-      </c>
-      <c r="G146" s="64">
-        <f>MEDIAN(G143:G145)</f>
-        <v>0.34151055159425298</v>
-      </c>
+      <c r="D146" s="16"/>
+      <c r="E146" s="26"/>
+      <c r="F146" s="29"/>
+      <c r="G146" s="29"/>
       <c r="H146" s="29"/>
       <c r="I146" s="29"/>
       <c r="J146" s="29"/>
@@ -9311,23 +9279,57 @@
       <c r="T146" s="16"/>
     </row>
     <row r="147" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B147" s="15"/>
-      <c r="C147" s="15"/>
-      <c r="D147" s="16"/>
-      <c r="E147" s="26"/>
-      <c r="F147" s="29"/>
-      <c r="G147" s="29"/>
-      <c r="H147" s="29"/>
-      <c r="I147" s="29"/>
-      <c r="J147" s="29"/>
-      <c r="K147" s="16"/>
-      <c r="M147" s="16"/>
-      <c r="N147" s="16"/>
-      <c r="O147" s="73"/>
-      <c r="Q147" s="12"/>
-      <c r="R147" s="16"/>
-      <c r="S147" s="16"/>
-      <c r="T147" s="16"/>
+      <c r="B147" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C147" s="11">
+        <v>414</v>
+      </c>
+      <c r="D147" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="E147" s="26">
+        <f t="shared" ref="E147:E149" si="15">((F147/$F$13)+(G147/$G$13))/2</f>
+        <v>4.1195612986718784</v>
+      </c>
+      <c r="F147" s="29">
+        <v>0.35056138091400002</v>
+      </c>
+      <c r="G147" s="29">
+        <v>15.1654652676</v>
+      </c>
+      <c r="H147" s="29">
+        <v>305.80285329999998</v>
+      </c>
+      <c r="I147" s="29">
+        <v>9.8102664315859997E-2</v>
+      </c>
+      <c r="J147" s="29">
+        <v>5.0823350000000003E-2</v>
+      </c>
+      <c r="K147" s="12">
+        <v>42</v>
+      </c>
+      <c r="L147" s="11">
+        <v>200</v>
+      </c>
+      <c r="M147" s="12">
+        <v>50</v>
+      </c>
+      <c r="N147" s="12"/>
+      <c r="O147" s="73">
+        <f>(32*M147*L147)/C147</f>
+        <v>772.94685990338166</v>
+      </c>
+      <c r="P147" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q147" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="R147" s="12"/>
+      <c r="S147" s="12"/>
+      <c r="T147" s="12"/>
     </row>
     <row r="148" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B148" s="11" t="s">
@@ -9340,26 +9342,26 @@
         <v>188</v>
       </c>
       <c r="E148" s="26">
-        <f>((F148/$F$13)+(G148/$G$13))/2</f>
-        <v>4.1195612986718784</v>
+        <f t="shared" si="15"/>
+        <v>3.8380023236014829</v>
       </c>
       <c r="F148" s="29">
-        <v>15.1654652676</v>
+        <v>0.33959842979260302</v>
       </c>
       <c r="G148" s="29">
-        <v>0.35056138091400002</v>
+        <v>13.959626846999999</v>
       </c>
       <c r="H148" s="29">
-        <v>305.80285329999998</v>
+        <v>246.59950749999999</v>
       </c>
       <c r="I148" s="29">
-        <v>9.8102664315859997E-2</v>
+        <v>9.7938040000000004E-2</v>
       </c>
       <c r="J148" s="29">
-        <v>5.0823350000000003E-2</v>
+        <v>7.7259273000000003E-2</v>
       </c>
       <c r="K148" s="12">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L148" s="11">
         <v>200</v>
@@ -9369,121 +9371,95 @@
       </c>
       <c r="N148" s="12"/>
       <c r="O148" s="73">
-        <f t="shared" si="11"/>
+        <f>(32*M148*L148)/C148</f>
         <v>772.94685990338166</v>
       </c>
       <c r="P148" s="11" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="Q148" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="R148" s="12"/>
       <c r="S148" s="12"/>
       <c r="T148" s="12"/>
     </row>
     <row r="149" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B149" s="11" t="s">
+      <c r="B149" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C149" s="11">
+      <c r="C149" s="15">
         <v>414</v>
       </c>
       <c r="D149" s="12" t="s">
         <v>188</v>
       </c>
       <c r="E149" s="26">
-        <f>((F149/$F$13)+(G149/$G$13))/2</f>
-        <v>3.8380023236014829</v>
+        <f t="shared" si="15"/>
+        <v>4.1481223654320267</v>
       </c>
       <c r="F149" s="29">
-        <v>13.959626846999999</v>
+        <v>0.34231472699999999</v>
       </c>
       <c r="G149" s="29">
-        <v>0.33959842979260302</v>
+        <v>15.409713</v>
       </c>
       <c r="H149" s="29">
-        <v>246.59950749999999</v>
+        <v>315.272921333</v>
       </c>
       <c r="I149" s="29">
-        <v>9.7938040000000004E-2</v>
+        <v>0.10821991</v>
       </c>
       <c r="J149" s="29">
-        <v>7.7259273000000003E-2</v>
-      </c>
-      <c r="K149" s="12">
-        <v>43</v>
+        <v>5.0431223184539999E-2</v>
+      </c>
+      <c r="K149" s="16">
+        <v>44</v>
       </c>
       <c r="L149" s="11">
         <v>200</v>
       </c>
-      <c r="M149" s="12">
+      <c r="M149" s="16">
         <v>50</v>
       </c>
-      <c r="N149" s="12"/>
+      <c r="N149" s="16"/>
       <c r="O149" s="73">
-        <f t="shared" si="11"/>
+        <f>(32*M149*L149)/C149</f>
         <v>772.94685990338166</v>
       </c>
       <c r="P149" s="11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q149" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="R149" s="12"/>
-      <c r="S149" s="12"/>
-      <c r="T149" s="12"/>
+        <v>118</v>
+      </c>
+      <c r="R149" s="16"/>
+      <c r="S149" s="16"/>
+      <c r="T149" s="16"/>
     </row>
     <row r="150" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B150" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C150" s="15">
-        <v>414</v>
-      </c>
-      <c r="D150" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="E150" s="26">
-        <f>((F150/$F$13)+(G150/$G$13))/2</f>
-        <v>4.1481223654320267</v>
-      </c>
-      <c r="F150" s="29">
-        <v>15.409713</v>
-      </c>
-      <c r="G150" s="29">
+      <c r="B150" s="15"/>
+      <c r="C150" s="15"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="64">
+        <f>MEDIAN(E147:E149)</f>
+        <v>4.1195612986718784</v>
+      </c>
+      <c r="F150" s="64">
+        <f>MEDIAN(F147:F149)</f>
         <v>0.34231472699999999</v>
       </c>
-      <c r="H150" s="29">
-        <v>315.272921333</v>
-      </c>
-      <c r="I150" s="29">
-        <v>0.10821991</v>
-      </c>
-      <c r="J150" s="29">
-        <v>5.0431223184539999E-2</v>
-      </c>
-      <c r="K150" s="16">
-        <v>44</v>
-      </c>
-      <c r="L150" s="11">
-        <v>200</v>
-      </c>
-      <c r="M150" s="16">
-        <v>50</v>
-      </c>
+      <c r="G150" s="64">
+        <f>MEDIAN(G147:G149)</f>
+        <v>15.1654652676</v>
+      </c>
+      <c r="H150" s="29"/>
+      <c r="I150" s="29"/>
+      <c r="J150" s="29"/>
+      <c r="K150" s="16"/>
+      <c r="M150" s="16"/>
       <c r="N150" s="16"/>
-      <c r="O150" s="73">
-        <f t="shared" si="11"/>
-        <v>772.94685990338166</v>
-      </c>
-      <c r="P150" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q150" s="11" t="s">
-        <v>118</v>
-      </c>
+      <c r="O150" s="73"/>
       <c r="R150" s="16"/>
       <c r="S150" s="16"/>
       <c r="T150" s="16"/>
@@ -9491,19 +9467,10 @@
     <row r="151" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B151" s="15"/>
       <c r="C151" s="15"/>
-      <c r="D151" s="12"/>
-      <c r="E151" s="64">
-        <f>MEDIAN(E148:E150)</f>
-        <v>4.1195612986718784</v>
-      </c>
-      <c r="F151" s="64">
-        <f>MEDIAN(F148:F150)</f>
-        <v>15.1654652676</v>
-      </c>
-      <c r="G151" s="64">
-        <f>MEDIAN(G148:G150)</f>
-        <v>0.34231472699999999</v>
-      </c>
+      <c r="D151" s="16"/>
+      <c r="E151" s="26"/>
+      <c r="F151" s="29"/>
+      <c r="G151" s="29"/>
       <c r="H151" s="29"/>
       <c r="I151" s="29"/>
       <c r="J151" s="29"/>
@@ -9516,19 +9483,48 @@
       <c r="T151" s="16"/>
     </row>
     <row r="152" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B152" s="15"/>
-      <c r="C152" s="15"/>
-      <c r="D152" s="16"/>
-      <c r="E152" s="26"/>
-      <c r="F152" s="29"/>
-      <c r="G152" s="29"/>
-      <c r="H152" s="29"/>
-      <c r="I152" s="29"/>
-      <c r="J152" s="29"/>
-      <c r="K152" s="16"/>
-      <c r="M152" s="16"/>
+      <c r="B152" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152" s="15">
+        <v>414</v>
+      </c>
+      <c r="D152" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="E152" s="26">
+        <f t="shared" ref="E152:E154" si="16">((F152/$F$13)+(G152/$G$13))/2</f>
+        <v>7.3231186981209495</v>
+      </c>
+      <c r="F152" s="29">
+        <v>0.44519900000000001</v>
+      </c>
+      <c r="G152" s="29">
+        <v>29.277533999999999</v>
+      </c>
+      <c r="H152" s="29">
+        <v>703.43104100000005</v>
+      </c>
+      <c r="I152" s="29">
+        <v>0.141678</v>
+      </c>
+      <c r="J152" s="29">
+        <v>5.6590000000000001E-2</v>
+      </c>
+      <c r="K152" s="16">
+        <v>42</v>
+      </c>
+      <c r="L152" s="11">
+        <v>200</v>
+      </c>
+      <c r="M152" s="16">
+        <v>100</v>
+      </c>
       <c r="N152" s="16"/>
-      <c r="O152" s="73"/>
+      <c r="O152" s="73">
+        <f t="shared" ref="O152:O154" si="17">(32*M152*L152)/C152</f>
+        <v>1545.8937198067633</v>
+      </c>
       <c r="R152" s="16"/>
       <c r="S152" s="16"/>
       <c r="T152" s="16"/>
@@ -9544,26 +9540,26 @@
         <v>188</v>
       </c>
       <c r="E153" s="26">
-        <f>((F153/$F$13)+(G153/$G$13))/2</f>
-        <v>7.3231186981209495</v>
+        <f t="shared" si="16"/>
+        <v>5.9050590288158809</v>
       </c>
       <c r="F153" s="29">
-        <v>29.277533999999999</v>
+        <v>0.39757199999999998</v>
       </c>
       <c r="G153" s="29">
-        <v>0.44519900000000001</v>
+        <v>23.105529000000001</v>
       </c>
       <c r="H153" s="29">
-        <v>703.43104100000005</v>
+        <v>545.57409099999995</v>
       </c>
       <c r="I153" s="29">
-        <v>0.141678</v>
+        <v>0.19170000000000001</v>
       </c>
       <c r="J153" s="29">
-        <v>5.6590000000000001E-2</v>
+        <v>5.2736999999999999E-2</v>
       </c>
       <c r="K153" s="16">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L153" s="11">
         <v>200</v>
@@ -9572,7 +9568,10 @@
         <v>100</v>
       </c>
       <c r="N153" s="16"/>
-      <c r="O153" s="73"/>
+      <c r="O153" s="73">
+        <f t="shared" si="17"/>
+        <v>1545.8937198067633</v>
+      </c>
       <c r="R153" s="16"/>
       <c r="S153" s="16"/>
       <c r="T153" s="16"/>
@@ -9588,26 +9587,26 @@
         <v>188</v>
       </c>
       <c r="E154" s="26">
-        <f>((F154/$F$13)+(G154/$G$13))/2</f>
-        <v>5.9050590288158809</v>
+        <f t="shared" si="16"/>
+        <v>4.8219000039066682</v>
       </c>
       <c r="F154" s="29">
-        <v>23.105529000000001</v>
+        <v>0.36956600000000001</v>
       </c>
       <c r="G154" s="29">
-        <v>0.39757199999999998</v>
+        <v>18.282069</v>
       </c>
       <c r="H154" s="29">
-        <v>545.57409099999995</v>
+        <v>415.04967299999998</v>
       </c>
       <c r="I154" s="29">
-        <v>0.19170000000000001</v>
+        <v>0.14060700000000001</v>
       </c>
       <c r="J154" s="29">
-        <v>5.2736999999999999E-2</v>
+        <v>5.1845000000000002E-2</v>
       </c>
       <c r="K154" s="16">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L154" s="11">
         <v>200</v>
@@ -9616,49 +9615,35 @@
         <v>100</v>
       </c>
       <c r="N154" s="16"/>
-      <c r="O154" s="73"/>
+      <c r="O154" s="73">
+        <f t="shared" si="17"/>
+        <v>1545.8937198067633</v>
+      </c>
       <c r="R154" s="16"/>
       <c r="S154" s="16"/>
       <c r="T154" s="16"/>
     </row>
     <row r="155" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B155" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C155" s="15">
-        <v>414</v>
-      </c>
-      <c r="D155" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="E155" s="26">
-        <f>((F155/$F$13)+(G155/$G$13))/2</f>
-        <v>4.8219000039066682</v>
-      </c>
-      <c r="F155" s="29">
-        <v>18.282069</v>
-      </c>
-      <c r="G155" s="29">
-        <v>0.36956600000000001</v>
-      </c>
-      <c r="H155" s="29">
-        <v>415.04967299999998</v>
-      </c>
-      <c r="I155" s="29">
-        <v>0.14060700000000001</v>
-      </c>
-      <c r="J155" s="29">
-        <v>5.1845000000000002E-2</v>
-      </c>
-      <c r="K155" s="16">
-        <v>44</v>
-      </c>
-      <c r="L155" s="11">
-        <v>200</v>
-      </c>
-      <c r="M155" s="16">
-        <v>100</v>
-      </c>
+      <c r="B155" s="15"/>
+      <c r="C155" s="15"/>
+      <c r="D155" s="16"/>
+      <c r="E155" s="64">
+        <f>MEDIAN(E152:E154)</f>
+        <v>5.9050590288158809</v>
+      </c>
+      <c r="F155" s="64">
+        <f>MEDIAN(F152:F154)</f>
+        <v>0.39757199999999998</v>
+      </c>
+      <c r="G155" s="64">
+        <f>MEDIAN(G152:G154)</f>
+        <v>23.105529000000001</v>
+      </c>
+      <c r="H155" s="29"/>
+      <c r="I155" s="29"/>
+      <c r="J155" s="29"/>
+      <c r="K155" s="16"/>
+      <c r="M155" s="16"/>
       <c r="N155" s="16"/>
       <c r="O155" s="73"/>
       <c r="R155" s="16"/>
@@ -9669,18 +9654,9 @@
       <c r="B156" s="15"/>
       <c r="C156" s="15"/>
       <c r="D156" s="16"/>
-      <c r="E156" s="64">
-        <f>MEDIAN(E153:E155)</f>
-        <v>5.9050590288158809</v>
-      </c>
-      <c r="F156" s="64">
-        <f>MEDIAN(F153:F155)</f>
-        <v>23.105529000000001</v>
-      </c>
-      <c r="G156" s="64">
-        <f>MEDIAN(G153:G155)</f>
-        <v>0.39757199999999998</v>
-      </c>
+      <c r="E156" s="26"/>
+      <c r="F156" s="29"/>
+      <c r="G156" s="29"/>
       <c r="H156" s="29"/>
       <c r="I156" s="29"/>
       <c r="J156" s="29"/>
@@ -9693,22 +9669,57 @@
       <c r="T156" s="16"/>
     </row>
     <row r="157" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B157" s="15"/>
-      <c r="C157" s="15"/>
-      <c r="D157" s="16"/>
-      <c r="E157" s="26"/>
-      <c r="F157" s="29"/>
-      <c r="G157" s="29"/>
-      <c r="H157" s="29"/>
-      <c r="I157" s="29"/>
-      <c r="J157" s="29"/>
-      <c r="K157" s="16"/>
-      <c r="M157" s="16"/>
-      <c r="N157" s="16"/>
-      <c r="O157" s="73"/>
-      <c r="R157" s="16"/>
-      <c r="S157" s="16"/>
-      <c r="T157" s="16"/>
+      <c r="B157" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C157" s="11">
+        <v>414</v>
+      </c>
+      <c r="D157" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="E157" s="26">
+        <f t="shared" ref="E157:E159" si="18">((F157/$F$13)+(G157/$G$13))/2</f>
+        <v>4.1627159909826261</v>
+      </c>
+      <c r="F157" s="29">
+        <v>0.35152056599999998</v>
+      </c>
+      <c r="G157" s="29">
+        <v>15.359679653000001</v>
+      </c>
+      <c r="H157" s="29">
+        <v>312.25125229999998</v>
+      </c>
+      <c r="I157" s="29">
+        <v>9.2657845000000003E-2</v>
+      </c>
+      <c r="J157" s="29">
+        <v>5.2024486170000002E-2</v>
+      </c>
+      <c r="K157" s="12">
+        <v>42</v>
+      </c>
+      <c r="L157" s="11">
+        <v>250</v>
+      </c>
+      <c r="M157" s="12">
+        <v>50</v>
+      </c>
+      <c r="N157" s="12"/>
+      <c r="O157" s="73">
+        <f>(32*M157*L157)/C157</f>
+        <v>966.18357487922708</v>
+      </c>
+      <c r="P157" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q157" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="R157" s="12"/>
+      <c r="S157" s="12"/>
+      <c r="T157" s="12"/>
     </row>
     <row r="158" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B158" s="11" t="s">
@@ -9721,26 +9732,26 @@
         <v>188</v>
       </c>
       <c r="E158" s="26">
-        <f>((F158/$F$13)+(G158/$G$13))/2</f>
-        <v>4.1627159909826261</v>
+        <f t="shared" si="18"/>
+        <v>3.8618683352442695</v>
       </c>
       <c r="F158" s="29">
-        <v>15.359679653000001</v>
+        <v>0.33862513189999999</v>
       </c>
       <c r="G158" s="29">
-        <v>0.35152056599999998</v>
+        <v>14.0866255</v>
       </c>
       <c r="H158" s="29">
-        <v>312.25125229999998</v>
+        <v>252.81450193000001</v>
       </c>
       <c r="I158" s="29">
-        <v>9.2657845000000003E-2</v>
+        <v>0.1089630217</v>
       </c>
       <c r="J158" s="29">
-        <v>5.2024486170000002E-2</v>
+        <v>6.7984618234510005E-2</v>
       </c>
       <c r="K158" s="12">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L158" s="11">
         <v>250</v>
@@ -9750,121 +9761,95 @@
       </c>
       <c r="N158" s="12"/>
       <c r="O158" s="73">
-        <f t="shared" si="11"/>
+        <f>(32*M158*L158)/C158</f>
         <v>966.18357487922708</v>
       </c>
       <c r="P158" s="11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q158" s="11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="R158" s="12"/>
       <c r="S158" s="12"/>
       <c r="T158" s="12"/>
     </row>
     <row r="159" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B159" s="11" t="s">
+      <c r="B159" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C159" s="11">
+      <c r="C159" s="15">
         <v>414</v>
       </c>
       <c r="D159" s="12" t="s">
         <v>188</v>
       </c>
       <c r="E159" s="26">
-        <f>((F159/$F$13)+(G159/$G$13))/2</f>
-        <v>3.8618683352442695</v>
+        <f t="shared" si="18"/>
+        <v>4.1609665149836346</v>
       </c>
       <c r="F159" s="29">
-        <v>14.0866255</v>
+        <v>0.3434173807</v>
       </c>
       <c r="G159" s="29">
-        <v>0.33862513189999999</v>
+        <v>15.4568707275</v>
       </c>
       <c r="H159" s="29">
-        <v>252.81450193000001</v>
+        <v>320.67832979999997</v>
       </c>
       <c r="I159" s="29">
-        <v>0.1089630217</v>
+        <v>0.109215592778</v>
       </c>
       <c r="J159" s="29">
-        <v>6.7984618234510005E-2</v>
-      </c>
-      <c r="K159" s="12">
-        <v>43</v>
+        <v>5.0618870476E-2</v>
+      </c>
+      <c r="K159" s="16">
+        <v>44</v>
       </c>
       <c r="L159" s="11">
         <v>250</v>
       </c>
-      <c r="M159" s="12">
+      <c r="M159" s="16">
         <v>50</v>
       </c>
-      <c r="N159" s="12"/>
+      <c r="N159" s="16"/>
       <c r="O159" s="73">
-        <f t="shared" si="11"/>
+        <f>(32*M159*L159)/C159</f>
         <v>966.18357487922708</v>
       </c>
       <c r="P159" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q159" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="R159" s="12"/>
-      <c r="S159" s="12"/>
-      <c r="T159" s="12"/>
+        <v>124</v>
+      </c>
+      <c r="R159" s="16"/>
+      <c r="S159" s="16"/>
+      <c r="T159" s="16"/>
     </row>
     <row r="160" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B160" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C160" s="15">
-        <v>414</v>
-      </c>
-      <c r="D160" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="E160" s="26">
-        <f>((F160/$F$13)+(G160/$G$13))/2</f>
+      <c r="B160" s="15"/>
+      <c r="C160" s="15"/>
+      <c r="D160" s="12"/>
+      <c r="E160" s="64">
+        <f>MEDIAN(E157:E159)</f>
         <v>4.1609665149836346</v>
       </c>
-      <c r="F160" s="29">
-        <v>15.4568707275</v>
-      </c>
-      <c r="G160" s="29">
+      <c r="F160" s="64">
+        <f>MEDIAN(F157:F159)</f>
         <v>0.3434173807</v>
       </c>
-      <c r="H160" s="29">
-        <v>320.67832979999997</v>
-      </c>
-      <c r="I160" s="29">
-        <v>0.109215592778</v>
-      </c>
-      <c r="J160" s="29">
-        <v>5.0618870476E-2</v>
-      </c>
-      <c r="K160" s="16">
-        <v>44</v>
-      </c>
-      <c r="L160" s="11">
-        <v>250</v>
-      </c>
-      <c r="M160" s="16">
-        <v>50</v>
-      </c>
+      <c r="G160" s="64">
+        <f>MEDIAN(G157:G159)</f>
+        <v>15.359679653000001</v>
+      </c>
+      <c r="H160" s="29"/>
+      <c r="I160" s="29"/>
+      <c r="J160" s="29"/>
+      <c r="K160" s="16"/>
+      <c r="M160" s="16"/>
       <c r="N160" s="16"/>
-      <c r="O160" s="73">
-        <f t="shared" si="11"/>
-        <v>966.18357487922708</v>
-      </c>
-      <c r="P160" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q160" s="11" t="s">
-        <v>124</v>
-      </c>
+      <c r="O160" s="73"/>
       <c r="R160" s="16"/>
       <c r="S160" s="16"/>
       <c r="T160" s="16"/>
@@ -9872,19 +9857,10 @@
     <row r="161" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B161" s="15"/>
       <c r="C161" s="15"/>
-      <c r="D161" s="12"/>
-      <c r="E161" s="64">
-        <f>MEDIAN(E158:E160)</f>
-        <v>4.1609665149836346</v>
-      </c>
-      <c r="F161" s="64">
-        <f>MEDIAN(F158:F160)</f>
-        <v>15.359679653000001</v>
-      </c>
-      <c r="G161" s="64">
-        <f>MEDIAN(G158:G160)</f>
-        <v>0.3434173807</v>
-      </c>
+      <c r="D161" s="16"/>
+      <c r="E161" s="26"/>
+      <c r="F161" s="29"/>
+      <c r="G161" s="29"/>
       <c r="H161" s="29"/>
       <c r="I161" s="29"/>
       <c r="J161" s="29"/>
@@ -9897,22 +9873,57 @@
       <c r="T161" s="16"/>
     </row>
     <row r="162" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B162" s="15"/>
-      <c r="C162" s="15"/>
-      <c r="D162" s="16"/>
-      <c r="E162" s="26"/>
-      <c r="F162" s="29"/>
-      <c r="G162" s="29"/>
-      <c r="H162" s="29"/>
-      <c r="I162" s="29"/>
-      <c r="J162" s="29"/>
-      <c r="K162" s="16"/>
-      <c r="M162" s="16"/>
-      <c r="N162" s="16"/>
-      <c r="O162" s="73"/>
-      <c r="R162" s="16"/>
-      <c r="S162" s="16"/>
-      <c r="T162" s="16"/>
+      <c r="B162" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C162" s="11">
+        <v>414</v>
+      </c>
+      <c r="D162" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="E162" s="26">
+        <f t="shared" ref="E162:E164" si="19">((F162/$F$13)+(G162/$G$13))/2</f>
+        <v>4.4342785082564609</v>
+      </c>
+      <c r="F162" s="29">
+        <v>0.36345001403593702</v>
+      </c>
+      <c r="G162" s="29">
+        <v>16.5050431889875</v>
+      </c>
+      <c r="H162" s="29">
+        <v>352.23572202418899</v>
+      </c>
+      <c r="I162" s="29">
+        <v>0.149904881236786</v>
+      </c>
+      <c r="J162" s="29">
+        <v>5.1993752166000003E-2</v>
+      </c>
+      <c r="K162" s="12">
+        <v>42</v>
+      </c>
+      <c r="L162" s="11">
+        <v>500</v>
+      </c>
+      <c r="M162" s="12">
+        <v>50</v>
+      </c>
+      <c r="N162" s="12"/>
+      <c r="O162" s="73">
+        <f>(32*M162*L162)/C162</f>
+        <v>1932.3671497584542</v>
+      </c>
+      <c r="P162" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q162" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="R162" s="12"/>
+      <c r="S162" s="12"/>
+      <c r="T162" s="12"/>
     </row>
     <row r="163" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B163" s="11" t="s">
@@ -9925,26 +9936,26 @@
         <v>188</v>
       </c>
       <c r="E163" s="26">
-        <f>((F163/$F$13)+(G163/$G$13))/2</f>
-        <v>4.4342785082564609</v>
+        <f t="shared" si="19"/>
+        <v>3.8714729407162816</v>
       </c>
       <c r="F163" s="29">
-        <v>16.5050431889875</v>
+        <v>0.33345712373000003</v>
       </c>
       <c r="G163" s="29">
-        <v>0.36345001403593702</v>
+        <v>14.19996213502</v>
       </c>
       <c r="H163" s="29">
-        <v>352.23572202418899</v>
+        <v>280.41353046697998</v>
       </c>
       <c r="I163" s="29">
-        <v>0.149904881236786</v>
+        <v>0.1077331925174</v>
       </c>
       <c r="J163" s="29">
-        <v>5.1993752166000003E-2</v>
+        <v>5.7041712299999998E-2</v>
       </c>
       <c r="K163" s="12">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L163" s="11">
         <v>500</v>
@@ -9954,121 +9965,95 @@
       </c>
       <c r="N163" s="12"/>
       <c r="O163" s="73">
-        <f t="shared" si="11"/>
+        <f>(32*M163*L163)/C163</f>
         <v>1932.3671497584542</v>
       </c>
       <c r="P163" s="11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q163" s="11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="R163" s="12"/>
       <c r="S163" s="12"/>
       <c r="T163" s="12"/>
     </row>
     <row r="164" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B164" s="11" t="s">
+      <c r="B164" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C164" s="11">
+      <c r="C164" s="15">
         <v>414</v>
       </c>
       <c r="D164" s="12" t="s">
         <v>188</v>
       </c>
       <c r="E164" s="26">
-        <f>((F164/$F$13)+(G164/$G$13))/2</f>
-        <v>3.8714729407162816</v>
+        <f t="shared" si="19"/>
+        <v>4.3339191591424377</v>
       </c>
       <c r="F164" s="29">
-        <v>14.19996213502</v>
+        <v>0.3554392636</v>
       </c>
       <c r="G164" s="29">
-        <v>0.33345712373000003</v>
+        <v>16.1286886983</v>
       </c>
       <c r="H164" s="29">
-        <v>280.41353046697998</v>
+        <v>353.53304974000002</v>
       </c>
       <c r="I164" s="29">
-        <v>0.1077331925174</v>
+        <v>0.14522530114000001</v>
       </c>
       <c r="J164" s="29">
-        <v>5.7041712299999998E-2</v>
-      </c>
-      <c r="K164" s="12">
-        <v>43</v>
+        <v>5.1319925129999999E-2</v>
+      </c>
+      <c r="K164" s="16">
+        <v>44</v>
       </c>
       <c r="L164" s="11">
         <v>500</v>
       </c>
-      <c r="M164" s="12">
+      <c r="M164" s="16">
         <v>50</v>
       </c>
-      <c r="N164" s="12"/>
+      <c r="N164" s="16"/>
       <c r="O164" s="73">
-        <f t="shared" si="11"/>
+        <f>(32*M164*L164)/C164</f>
         <v>1932.3671497584542</v>
       </c>
       <c r="P164" s="11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q164" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="R164" s="12"/>
-      <c r="S164" s="12"/>
-      <c r="T164" s="12"/>
+        <v>129</v>
+      </c>
+      <c r="R164" s="16"/>
+      <c r="S164" s="16"/>
+      <c r="T164" s="16"/>
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B165" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C165" s="15">
-        <v>414</v>
-      </c>
-      <c r="D165" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="E165" s="26">
-        <f>((F165/$F$13)+(G165/$G$13))/2</f>
+      <c r="B165" s="15"/>
+      <c r="C165" s="15"/>
+      <c r="D165" s="12"/>
+      <c r="E165" s="64">
+        <f>MEDIAN(E162:E164)</f>
         <v>4.3339191591424377</v>
       </c>
-      <c r="F165" s="29">
+      <c r="F165" s="64">
+        <f>MEDIAN(F162:F164)</f>
+        <v>0.3554392636</v>
+      </c>
+      <c r="G165" s="64">
+        <f>MEDIAN(G162:G164)</f>
         <v>16.1286886983</v>
       </c>
-      <c r="G165" s="29">
-        <v>0.3554392636</v>
-      </c>
-      <c r="H165" s="29">
-        <v>353.53304974000002</v>
-      </c>
-      <c r="I165" s="29">
-        <v>0.14522530114000001</v>
-      </c>
-      <c r="J165" s="29">
-        <v>5.1319925129999999E-2</v>
-      </c>
-      <c r="K165" s="16">
-        <v>44</v>
-      </c>
-      <c r="L165" s="11">
-        <v>500</v>
-      </c>
-      <c r="M165" s="16">
-        <v>50</v>
-      </c>
+      <c r="H165" s="29"/>
+      <c r="I165" s="29"/>
+      <c r="J165" s="29"/>
+      <c r="K165" s="16"/>
+      <c r="M165" s="16"/>
       <c r="N165" s="16"/>
-      <c r="O165" s="73">
-        <f t="shared" si="11"/>
-        <v>1932.3671497584542</v>
-      </c>
-      <c r="P165" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q165" s="11" t="s">
-        <v>129</v>
-      </c>
+      <c r="O165" s="73"/>
       <c r="R165" s="16"/>
       <c r="S165" s="16"/>
       <c r="T165" s="16"/>
@@ -10076,22 +10061,13 @@
     <row r="166" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B166" s="15"/>
       <c r="C166" s="15"/>
-      <c r="D166" s="12"/>
-      <c r="E166" s="64">
-        <f>MEDIAN(E163:E165)</f>
-        <v>4.3339191591424377</v>
-      </c>
-      <c r="F166" s="64">
-        <f>MEDIAN(F163:F165)</f>
-        <v>16.1286886983</v>
-      </c>
-      <c r="G166" s="64">
-        <f>MEDIAN(G163:G165)</f>
-        <v>0.3554392636</v>
-      </c>
-      <c r="H166" s="29"/>
-      <c r="I166" s="29"/>
-      <c r="J166" s="29"/>
+      <c r="D166" s="16"/>
+      <c r="E166" s="12"/>
+      <c r="F166" s="14"/>
+      <c r="G166" s="14"/>
+      <c r="H166" s="14"/>
+      <c r="I166" s="14"/>
+      <c r="J166" s="14"/>
       <c r="K166" s="16"/>
       <c r="M166" s="16"/>
       <c r="N166" s="16"/>
@@ -10101,22 +10077,61 @@
       <c r="T166" s="16"/>
     </row>
     <row r="167" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B167" s="15"/>
-      <c r="C167" s="15"/>
-      <c r="D167" s="16"/>
-      <c r="E167" s="12"/>
-      <c r="F167" s="14"/>
-      <c r="G167" s="14"/>
-      <c r="H167" s="14"/>
-      <c r="I167" s="14"/>
-      <c r="J167" s="14"/>
-      <c r="K167" s="16"/>
-      <c r="M167" s="16"/>
-      <c r="N167" s="16"/>
-      <c r="O167" s="73"/>
-      <c r="R167" s="16"/>
-      <c r="S167" s="16"/>
-      <c r="T167" s="16"/>
+      <c r="B167" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C167" s="11">
+        <v>414</v>
+      </c>
+      <c r="D167" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="E167" s="26">
+        <f t="shared" ref="E167:E171" si="20">((F167/$F$13)+(G167/$G$13))/2</f>
+        <v>4.4297429941849398</v>
+      </c>
+      <c r="F167" s="29">
+        <v>0.40205704435930001</v>
+      </c>
+      <c r="G167" s="29">
+        <v>15.980332505</v>
+      </c>
+      <c r="H167" s="29">
+        <v>302.94736621959999</v>
+      </c>
+      <c r="I167" s="29">
+        <v>0.31907052959999999</v>
+      </c>
+      <c r="J167" s="29">
+        <v>0.54858797000000004</v>
+      </c>
+      <c r="K167" s="12">
+        <v>42</v>
+      </c>
+      <c r="L167" s="11">
+        <v>100</v>
+      </c>
+      <c r="M167" s="12">
+        <v>50</v>
+      </c>
+      <c r="N167" s="12"/>
+      <c r="O167" s="73">
+        <f>(32*M167*L167)/C167</f>
+        <v>386.47342995169083</v>
+      </c>
+      <c r="P167" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q167" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="R167" s="12"/>
+      <c r="S167" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="T167" s="12">
+        <v>37016</v>
+      </c>
     </row>
     <row r="168" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B168" s="15" t="s">
@@ -10129,43 +10144,43 @@
         <v>188</v>
       </c>
       <c r="E168" s="26">
-        <f t="shared" ref="E168:E172" si="15">((F168/$F$13)+(G168/$G$13))/2</f>
-        <v>4.4297429941849398</v>
+        <f t="shared" si="20"/>
+        <v>4.3871029292865256</v>
       </c>
       <c r="F168" s="29">
-        <v>15.980332505</v>
+        <v>0.36811413275179999</v>
       </c>
       <c r="G168" s="29">
-        <v>0.40205704435930001</v>
+        <v>16.218306434750001</v>
       </c>
       <c r="H168" s="29">
-        <v>302.94736621959999</v>
+        <v>339.22807427999999</v>
       </c>
       <c r="I168" s="29">
-        <v>0.31907052959999999</v>
+        <v>0.202724971</v>
       </c>
       <c r="J168" s="29">
-        <v>0.54858797000000004</v>
+        <v>9.3437584000000004E-2</v>
       </c>
       <c r="K168" s="12">
         <v>42</v>
       </c>
       <c r="L168" s="11">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M168" s="12">
         <v>50</v>
       </c>
       <c r="N168" s="12"/>
       <c r="O168" s="73">
-        <f t="shared" si="11"/>
-        <v>386.47342995169083</v>
+        <f>(32*M168*L168)/C168</f>
+        <v>579.71014492753625</v>
       </c>
       <c r="P168" s="11" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q168" s="11" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="R168" s="12"/>
       <c r="S168" s="12" t="s">
@@ -10186,43 +10201,43 @@
         <v>188</v>
       </c>
       <c r="E169" s="26">
-        <f t="shared" si="15"/>
-        <v>4.3871029292865256</v>
+        <f t="shared" si="20"/>
+        <v>4.1202878176978439</v>
       </c>
       <c r="F169" s="29">
-        <v>16.218306434750001</v>
+        <v>0.36335503260000002</v>
       </c>
       <c r="G169" s="29">
-        <v>0.36811413275179999</v>
+        <v>15.002265231786</v>
       </c>
       <c r="H169" s="29">
-        <v>339.22807427999999</v>
+        <v>308.29770306929998</v>
       </c>
       <c r="I169" s="29">
-        <v>0.202724971</v>
+        <v>0.16385071234000001</v>
       </c>
       <c r="J169" s="29">
-        <v>9.3437584000000004E-2</v>
+        <v>0.21228941600000001</v>
       </c>
       <c r="K169" s="12">
         <v>42</v>
       </c>
       <c r="L169" s="11">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M169" s="12">
         <v>50</v>
       </c>
       <c r="N169" s="12"/>
       <c r="O169" s="73">
-        <f t="shared" si="11"/>
-        <v>579.71014492753625</v>
+        <f>(32*M169*L169)/C169</f>
+        <v>772.94685990338166</v>
       </c>
       <c r="P169" s="11" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q169" s="11" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="R169" s="12"/>
       <c r="S169" s="12" t="s">
@@ -10243,43 +10258,43 @@
         <v>188</v>
       </c>
       <c r="E170" s="26">
-        <f t="shared" si="15"/>
-        <v>4.1202878176978439</v>
+        <f t="shared" si="20"/>
+        <v>4.3972485703860205</v>
       </c>
       <c r="F170" s="29">
-        <v>15.002265231786</v>
+        <v>0.36693963899999998</v>
       </c>
       <c r="G170" s="29">
-        <v>0.36335503260000002</v>
+        <v>16.282205761189999</v>
       </c>
       <c r="H170" s="29">
-        <v>308.29770306929998</v>
+        <v>333.53385159999999</v>
       </c>
       <c r="I170" s="29">
-        <v>0.16385071234000001</v>
+        <v>0.21190996557</v>
       </c>
       <c r="J170" s="29">
-        <v>0.21228941600000001</v>
+        <v>6.8634601500000003E-2</v>
       </c>
       <c r="K170" s="12">
         <v>42</v>
       </c>
       <c r="L170" s="11">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="M170" s="12">
         <v>50</v>
       </c>
       <c r="N170" s="12"/>
       <c r="O170" s="73">
-        <f t="shared" si="11"/>
-        <v>772.94685990338166</v>
+        <f>(32*M170*L170)/C170</f>
+        <v>966.18357487922708</v>
       </c>
       <c r="P170" s="11" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="Q170" s="11" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="R170" s="12"/>
       <c r="S170" s="12" t="s">
@@ -10300,43 +10315,40 @@
         <v>188</v>
       </c>
       <c r="E171" s="26">
-        <f t="shared" si="15"/>
-        <v>4.3972485703860205</v>
+        <f t="shared" si="20"/>
+        <v>5.0278402107806555</v>
       </c>
       <c r="F171" s="29">
-        <v>16.282205761189999</v>
+        <v>0.39891390999999998</v>
       </c>
       <c r="G171" s="29">
-        <v>0.36693963899999998</v>
+        <v>18.886168000000001</v>
       </c>
       <c r="H171" s="29">
-        <v>333.53385159999999</v>
+        <v>419.92427500000002</v>
       </c>
       <c r="I171" s="29">
-        <v>0.21190996557</v>
+        <v>0.28305669</v>
       </c>
       <c r="J171" s="29">
-        <v>6.8634601500000003E-2</v>
+        <v>7.2857166599999995E-2</v>
       </c>
       <c r="K171" s="12">
         <v>42</v>
       </c>
       <c r="L171" s="11">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="M171" s="12">
         <v>50</v>
       </c>
       <c r="N171" s="12"/>
       <c r="O171" s="73">
-        <f t="shared" si="11"/>
-        <v>966.18357487922708</v>
-      </c>
-      <c r="P171" s="11" t="s">
-        <v>92</v>
+        <f>(32*M171*L171)/C171</f>
+        <v>1159.4202898550725</v>
       </c>
       <c r="Q171" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="R171" s="12"/>
       <c r="S171" s="12" t="s">
@@ -10346,83 +10358,72 @@
         <v>37016</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B172" s="15" t="s">
+    <row r="173" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A173" s="88" t="s">
+        <v>366</v>
+      </c>
+      <c r="B173" s="88"/>
+      <c r="C173" s="88"/>
+      <c r="D173" s="88"/>
+      <c r="E173" s="88"/>
+      <c r="F173" s="88"/>
+      <c r="G173" s="88"/>
+      <c r="H173" s="88"/>
+      <c r="I173" s="88"/>
+      <c r="J173" s="88"/>
+      <c r="K173" s="88"/>
+      <c r="L173" s="88"/>
+      <c r="M173" s="88"/>
+      <c r="N173" s="88"/>
+      <c r="O173" s="88"/>
+      <c r="P173" s="88"/>
+      <c r="Q173" s="88"/>
+      <c r="R173" s="88"/>
+      <c r="S173" s="88"/>
+      <c r="T173" s="88"/>
+    </row>
+    <row r="175" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B175" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C172" s="11">
+      <c r="C175" s="11">
         <v>414</v>
       </c>
-      <c r="D172" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="E172" s="26">
-        <f t="shared" si="15"/>
-        <v>5.0278402107806555</v>
-      </c>
-      <c r="F172" s="29">
-        <v>18.886168000000001</v>
-      </c>
-      <c r="G172" s="29">
-        <v>0.39891390999999998</v>
-      </c>
-      <c r="H172" s="29">
-        <v>419.92427500000002</v>
-      </c>
-      <c r="I172" s="29">
-        <v>0.28305669</v>
-      </c>
-      <c r="J172" s="29">
-        <v>7.2857166599999995E-2</v>
-      </c>
-      <c r="K172" s="12">
+      <c r="D175" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="E175" s="26">
+        <f t="shared" ref="E175:E177" si="21">((F175/$F$13)+(G175/$G$13))/2</f>
+        <v>5.2813467531327447</v>
+      </c>
+      <c r="F175" s="11">
+        <v>0.55159400000000003</v>
+      </c>
+      <c r="G175" s="11">
+        <v>18.111295999999999</v>
+      </c>
+      <c r="H175" s="11">
+        <v>177.57124400000001</v>
+      </c>
+      <c r="I175" s="11">
+        <v>0.89726300000000003</v>
+      </c>
+      <c r="J175" s="11">
+        <v>1.55372</v>
+      </c>
+      <c r="K175" s="11">
         <v>42</v>
       </c>
-      <c r="L172" s="11">
-        <v>300</v>
-      </c>
-      <c r="M172" s="12">
+      <c r="L175" s="11">
+        <v>100</v>
+      </c>
+      <c r="M175" s="11">
         <v>50</v>
       </c>
-      <c r="N172" s="12"/>
-      <c r="O172" s="73">
-        <f t="shared" si="11"/>
-        <v>1159.4202898550725</v>
-      </c>
-      <c r="Q172" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="R172" s="12"/>
-      <c r="S172" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="T172" s="12">
-        <v>37016</v>
-      </c>
-    </row>
-    <row r="174" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A174" s="88" t="s">
-        <v>366</v>
-      </c>
-      <c r="B174" s="88"/>
-      <c r="C174" s="88"/>
-      <c r="D174" s="88"/>
-      <c r="E174" s="88"/>
-      <c r="F174" s="88"/>
-      <c r="G174" s="88"/>
-      <c r="H174" s="88"/>
-      <c r="I174" s="88"/>
-      <c r="J174" s="88"/>
-      <c r="K174" s="88"/>
-      <c r="L174" s="88"/>
-      <c r="M174" s="88"/>
-      <c r="N174" s="88"/>
-      <c r="O174" s="88"/>
-      <c r="P174" s="88"/>
-      <c r="Q174" s="88"/>
-      <c r="R174" s="88"/>
-      <c r="S174" s="88"/>
-      <c r="T174" s="88"/>
+      <c r="O175" s="73">
+        <f>(32*M175*L175)/C175</f>
+        <v>386.47342995169083</v>
+      </c>
     </row>
     <row r="176" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B176" s="11" t="s">
@@ -10435,26 +10436,26 @@
         <v>366</v>
       </c>
       <c r="E176" s="26">
-        <f t="shared" ref="E176:E184" si="16">((F176/$F$13)+(G176/$G$13))/2</f>
-        <v>5.2813467531327447</v>
+        <f t="shared" si="21"/>
+        <v>4.7107193764616646</v>
       </c>
       <c r="F176" s="11">
-        <v>18.111295999999999</v>
+        <v>0.51739900000000005</v>
       </c>
       <c r="G176" s="11">
-        <v>0.55159400000000003</v>
+        <v>15.823494999999999</v>
       </c>
       <c r="H176" s="11">
-        <v>177.57124400000001</v>
+        <v>168.27084500000001</v>
       </c>
       <c r="I176" s="11">
-        <v>0.89726300000000003</v>
+        <v>0.88504000000000005</v>
       </c>
       <c r="J176" s="11">
-        <v>1.55372</v>
+        <v>1.5406230000000001</v>
       </c>
       <c r="K176" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L176" s="11">
         <v>100</v>
@@ -10463,7 +10464,7 @@
         <v>50</v>
       </c>
       <c r="O176" s="73">
-        <f t="shared" ref="O176:O178" si="17">(32*M176*L176)/C176</f>
+        <f>(32*M176*L176)/C176</f>
         <v>386.47342995169083</v>
       </c>
     </row>
@@ -10478,26 +10479,26 @@
         <v>366</v>
       </c>
       <c r="E177" s="26">
-        <f t="shared" si="16"/>
-        <v>4.7107193764616646</v>
+        <f t="shared" si="21"/>
+        <v>5.1984996289346475</v>
       </c>
       <c r="F177" s="11">
-        <v>15.823494999999999</v>
+        <v>0.53611399999999998</v>
       </c>
       <c r="G177" s="11">
-        <v>0.51739900000000005</v>
+        <v>17.916136999999999</v>
       </c>
       <c r="H177" s="11">
-        <v>168.27084500000001</v>
+        <v>169.172459</v>
       </c>
       <c r="I177" s="11">
-        <v>0.88504000000000005</v>
+        <v>0.88850099999999999</v>
       </c>
       <c r="J177" s="11">
-        <v>1.5406230000000001</v>
+        <v>1.5369139999999999</v>
       </c>
       <c r="K177" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L177" s="11">
         <v>100</v>
@@ -10506,72 +10507,72 @@
         <v>50</v>
       </c>
       <c r="O177" s="73">
-        <f t="shared" si="17"/>
+        <f>(32*M177*L177)/C177</f>
         <v>386.47342995169083</v>
       </c>
     </row>
     <row r="178" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B178" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C178" s="11">
-        <v>414</v>
-      </c>
-      <c r="D178" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="E178" s="26">
-        <f t="shared" si="16"/>
+      <c r="E178" s="64">
+        <f>MEDIAN(E175:E177)</f>
         <v>5.1984996289346475</v>
       </c>
-      <c r="F178" s="11">
+      <c r="F178" s="64">
+        <f>MEDIAN(F175:F177)</f>
+        <v>0.53611399999999998</v>
+      </c>
+      <c r="G178" s="64">
+        <f>MEDIAN(G175:G177)</f>
         <v>17.916136999999999</v>
       </c>
-      <c r="G178" s="11">
-        <v>0.53611399999999998</v>
-      </c>
-      <c r="H178" s="11">
-        <v>169.172459</v>
-      </c>
-      <c r="I178" s="11">
-        <v>0.88850099999999999</v>
-      </c>
-      <c r="J178" s="11">
-        <v>1.5369139999999999</v>
-      </c>
-      <c r="K178" s="11">
-        <v>44</v>
-      </c>
-      <c r="L178" s="11">
-        <v>100</v>
-      </c>
-      <c r="M178" s="11">
-        <v>50</v>
-      </c>
-      <c r="O178" s="73">
-        <f t="shared" si="17"/>
-        <v>386.47342995169083</v>
-      </c>
     </row>
     <row r="179" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="E179" s="64">
-        <f>MEDIAN(E176:E178)</f>
-        <v>5.1984996289346475</v>
-      </c>
-      <c r="F179" s="64">
-        <f>MEDIAN(F176:F178)</f>
-        <v>17.916136999999999</v>
-      </c>
-      <c r="G179" s="64">
-        <f>MEDIAN(G176:G178)</f>
-        <v>0.53611399999999998</v>
-      </c>
+      <c r="E179" s="26"/>
     </row>
     <row r="180" spans="2:15" x14ac:dyDescent="0.35">
       <c r="E180" s="26"/>
     </row>
     <row r="181" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="E181" s="26"/>
+      <c r="B181" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C181" s="11">
+        <v>414</v>
+      </c>
+      <c r="D181" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="E181" s="26">
+        <f t="shared" ref="E181:E183" si="22">((F181/$F$13)+(G181/$G$13))/2</f>
+        <v>5.7706397111245913</v>
+      </c>
+      <c r="F181" s="11">
+        <v>0.52521099999999998</v>
+      </c>
+      <c r="G181" s="11">
+        <v>20.798736000000002</v>
+      </c>
+      <c r="H181" s="11">
+        <v>173.50278299999999</v>
+      </c>
+      <c r="I181" s="11">
+        <v>0.87062200000000001</v>
+      </c>
+      <c r="J181" s="11">
+        <v>1.5109090000000001</v>
+      </c>
+      <c r="K181" s="11">
+        <v>42</v>
+      </c>
+      <c r="L181" s="11">
+        <v>100</v>
+      </c>
+      <c r="M181" s="11">
+        <v>100</v>
+      </c>
+      <c r="O181" s="73">
+        <f>(32*M181*L181)/C181</f>
+        <v>772.94685990338166</v>
+      </c>
     </row>
     <row r="182" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B182" s="11" t="s">
@@ -10584,26 +10585,26 @@
         <v>366</v>
       </c>
       <c r="E182" s="26">
-        <f t="shared" si="16"/>
-        <v>5.7706397111245913</v>
+        <f t="shared" si="22"/>
+        <v>5.483163807273149</v>
       </c>
       <c r="F182" s="11">
-        <v>20.798736000000002</v>
+        <v>0.52176800000000001</v>
       </c>
       <c r="G182" s="11">
-        <v>0.52521099999999998</v>
+        <v>19.466583</v>
       </c>
       <c r="H182" s="11">
-        <v>173.50278299999999</v>
+        <v>269.64762400000001</v>
       </c>
       <c r="I182" s="11">
-        <v>0.87062200000000001</v>
+        <v>0.86833099999999996</v>
       </c>
       <c r="J182" s="11">
-        <v>1.5109090000000001</v>
+        <v>1.513215</v>
       </c>
       <c r="K182" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L182" s="11">
         <v>100</v>
@@ -10612,7 +10613,7 @@
         <v>100</v>
       </c>
       <c r="O182" s="73">
-        <f t="shared" ref="O182:O184" si="18">(32*M182*L182)/C182</f>
+        <f>(32*M182*L182)/C182</f>
         <v>772.94685990338166</v>
       </c>
     </row>
@@ -10627,99 +10628,99 @@
         <v>366</v>
       </c>
       <c r="E183" s="26">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
+        <v>4.4132376152424566</v>
+      </c>
+      <c r="F183" s="11">
+        <v>0.48936099999999999</v>
+      </c>
+      <c r="G183" s="11">
+        <v>14.763845999999999</v>
+      </c>
+      <c r="H183" s="11">
+        <v>196.29197400000001</v>
+      </c>
+      <c r="I183" s="11">
+        <v>0.87393500000000002</v>
+      </c>
+      <c r="J183" s="11">
+        <v>1.5147040000000001</v>
+      </c>
+      <c r="K183" s="11">
+        <v>44</v>
+      </c>
+      <c r="L183" s="11">
+        <v>100</v>
+      </c>
+      <c r="M183" s="11">
+        <v>100</v>
+      </c>
+      <c r="O183" s="73">
+        <f>(32*M183*L183)/C183</f>
+        <v>772.94685990338166</v>
+      </c>
+    </row>
+    <row r="184" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="E184" s="64">
+        <f>MEDIAN(E181:E183)</f>
         <v>5.483163807273149</v>
       </c>
-      <c r="F183" s="11">
+      <c r="F184" s="64">
+        <f>MEDIAN(F181:F183)</f>
+        <v>0.52176800000000001</v>
+      </c>
+      <c r="G184" s="64">
+        <f>MEDIAN(G181:G183)</f>
         <v>19.466583</v>
       </c>
-      <c r="G183" s="11">
-        <v>0.52176800000000001</v>
-      </c>
-      <c r="H183" s="11">
-        <v>269.64762400000001</v>
-      </c>
-      <c r="I183" s="11">
-        <v>0.86833099999999996</v>
-      </c>
-      <c r="J183" s="11">
-        <v>1.513215</v>
-      </c>
-      <c r="K183" s="11">
-        <v>43</v>
-      </c>
-      <c r="L183" s="11">
-        <v>100</v>
-      </c>
-      <c r="M183" s="11">
-        <v>100</v>
-      </c>
-      <c r="O183" s="73">
-        <f t="shared" si="18"/>
-        <v>772.94685990338166</v>
-      </c>
-    </row>
-    <row r="184" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B184" s="11" t="s">
+    </row>
+    <row r="185" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="E185" s="26"/>
+      <c r="F185" s="26"/>
+      <c r="G185" s="26"/>
+    </row>
+    <row r="186" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B186" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C184" s="11">
+      <c r="C186" s="11">
         <v>414</v>
       </c>
-      <c r="D184" s="11" t="s">
+      <c r="D186" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="E184" s="26">
-        <f t="shared" si="16"/>
-        <v>4.4132376152424566</v>
-      </c>
-      <c r="F184" s="11">
-        <v>14.763845999999999</v>
-      </c>
-      <c r="G184" s="11">
-        <v>0.48936099999999999</v>
-      </c>
-      <c r="H184" s="11">
-        <v>196.29197400000001</v>
-      </c>
-      <c r="I184" s="11">
-        <v>0.87393500000000002</v>
-      </c>
-      <c r="J184" s="11">
-        <v>1.5147040000000001</v>
-      </c>
-      <c r="K184" s="11">
-        <v>44</v>
-      </c>
-      <c r="L184" s="11">
-        <v>100</v>
-      </c>
-      <c r="M184" s="11">
-        <v>100</v>
-      </c>
-      <c r="O184" s="73">
-        <f t="shared" si="18"/>
-        <v>772.94685990338166</v>
-      </c>
-    </row>
-    <row r="185" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="E185" s="64">
-        <f>MEDIAN(E182:E184)</f>
-        <v>5.483163807273149</v>
-      </c>
-      <c r="F185" s="64">
-        <f>MEDIAN(F182:F184)</f>
-        <v>19.466583</v>
-      </c>
-      <c r="G185" s="64">
-        <f>MEDIAN(G182:G184)</f>
-        <v>0.52176800000000001</v>
-      </c>
-    </row>
-    <row r="186" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="E186" s="26"/>
-      <c r="F186" s="26"/>
-      <c r="G186" s="26"/>
+      <c r="E186" s="26">
+        <f t="shared" ref="E186:E188" si="23">((F186/$F$13)+(G186/$G$13))/2</f>
+        <v>6.7647801403606875</v>
+      </c>
+      <c r="F186" s="11">
+        <v>0.48857400000000001</v>
+      </c>
+      <c r="G186" s="11">
+        <v>26.037987999999999</v>
+      </c>
+      <c r="H186" s="11">
+        <v>243.92272500000001</v>
+      </c>
+      <c r="I186" s="11">
+        <v>0.82595399999999997</v>
+      </c>
+      <c r="J186" s="11">
+        <v>1.4290959999999999</v>
+      </c>
+      <c r="K186" s="11">
+        <v>42</v>
+      </c>
+      <c r="L186" s="11">
+        <v>200</v>
+      </c>
+      <c r="M186" s="11">
+        <v>100</v>
+      </c>
+      <c r="O186" s="73">
+        <f>(32*M186*L186)/C186</f>
+        <v>1545.8937198067633</v>
+      </c>
     </row>
     <row r="187" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B187" s="11" t="s">
@@ -10732,26 +10733,26 @@
         <v>366</v>
       </c>
       <c r="E187" s="26">
-        <f t="shared" ref="E187:E189" si="19">((F187/$F$13)+(G187/$G$13))/2</f>
-        <v>6.7647801403606875</v>
+        <f t="shared" si="23"/>
+        <v>4.5062418456532125</v>
       </c>
       <c r="F187" s="11">
-        <v>26.037987999999999</v>
+        <v>0.46523599999999998</v>
       </c>
       <c r="G187" s="11">
-        <v>0.48857400000000001</v>
+        <v>15.523645</v>
       </c>
       <c r="H187" s="11">
-        <v>243.92272500000001</v>
+        <v>155.032555</v>
       </c>
       <c r="I187" s="11">
-        <v>0.82595399999999997</v>
+        <v>0.81109600000000004</v>
       </c>
       <c r="J187" s="11">
-        <v>1.4290959999999999</v>
+        <v>1.3885860000000001</v>
       </c>
       <c r="K187" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L187" s="11">
         <v>200</v>
@@ -10760,7 +10761,7 @@
         <v>100</v>
       </c>
       <c r="O187" s="73">
-        <f t="shared" ref="O187:O189" si="20">(32*M187*L187)/C187</f>
+        <f>(32*M187*L187)/C187</f>
         <v>1545.8937198067633</v>
       </c>
     </row>
@@ -10775,26 +10776,26 @@
         <v>366</v>
       </c>
       <c r="E188" s="26">
-        <f t="shared" si="19"/>
-        <v>4.5062418456532125</v>
+        <f t="shared" si="23"/>
+        <v>4.5134640882239276</v>
       </c>
       <c r="F188" s="11">
-        <v>15.523645</v>
+        <v>0.440274</v>
       </c>
       <c r="G188" s="11">
-        <v>0.46523599999999998</v>
+        <v>15.883452999999999</v>
       </c>
       <c r="H188" s="11">
-        <v>155.032555</v>
+        <v>179.11984000000001</v>
       </c>
       <c r="I188" s="11">
-        <v>0.81109600000000004</v>
+        <v>0.81220999999999999</v>
       </c>
       <c r="J188" s="11">
-        <v>1.3885860000000001</v>
+        <v>1.3899090000000001</v>
       </c>
       <c r="K188" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L188" s="11">
         <v>200</v>
@@ -10803,100 +10804,57 @@
         <v>100</v>
       </c>
       <c r="O188" s="73">
-        <f t="shared" si="20"/>
+        <f>(32*M188*L188)/C188</f>
         <v>1545.8937198067633</v>
       </c>
     </row>
     <row r="189" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B189" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C189" s="11">
-        <v>414</v>
-      </c>
-      <c r="D189" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="E189" s="26">
-        <f t="shared" si="19"/>
+      <c r="E189" s="72">
+        <f>MEDIAN(E186:E188)</f>
         <v>4.5134640882239276</v>
       </c>
-      <c r="F189" s="11">
+      <c r="F189" s="72">
+        <f>MEDIAN(F186:F188)</f>
+        <v>0.46523599999999998</v>
+      </c>
+      <c r="G189" s="72">
+        <f>MEDIAN(G186:G188)</f>
         <v>15.883452999999999</v>
       </c>
-      <c r="G189" s="11">
-        <v>0.440274</v>
-      </c>
-      <c r="H189" s="11">
-        <v>179.11984000000001</v>
-      </c>
-      <c r="I189" s="11">
-        <v>0.81220999999999999</v>
-      </c>
-      <c r="J189" s="11">
-        <v>1.3899090000000001</v>
-      </c>
-      <c r="K189" s="11">
-        <v>44</v>
-      </c>
-      <c r="L189" s="11">
-        <v>200</v>
-      </c>
-      <c r="M189" s="11">
-        <v>100</v>
-      </c>
-      <c r="O189" s="73">
-        <f t="shared" si="20"/>
-        <v>1545.8937198067633</v>
-      </c>
-    </row>
-    <row r="190" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="E190" s="72">
-        <f>MEDIAN(E187:E189)</f>
-        <v>4.5134640882239276</v>
-      </c>
-      <c r="F190" s="72">
-        <f>MEDIAN(F187:F189)</f>
-        <v>15.883452999999999</v>
-      </c>
-      <c r="G190" s="72">
-        <f>MEDIAN(G187:G189)</f>
-        <v>0.46523599999999998</v>
-      </c>
-    </row>
-    <row r="192" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="F192" s="11">
+    </row>
+    <row r="191" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="F191" s="11">
+        <v>0.33447399999999999</v>
+      </c>
+      <c r="G191" s="11">
         <v>12.835369999999999</v>
       </c>
-      <c r="G192" s="11">
-        <v>0.33447399999999999</v>
-      </c>
-      <c r="H192" s="11">
+      <c r="H191" s="11">
         <v>167.10718900000001</v>
       </c>
-      <c r="I192" s="11">
+      <c r="I191" s="11">
         <v>0.69409600000000005</v>
       </c>
-      <c r="J192" s="11">
+      <c r="J191" s="11">
         <v>1.159834</v>
       </c>
-      <c r="K192" s="11">
+      <c r="K191" s="11">
         <v>42</v>
       </c>
-      <c r="L192" s="11">
+      <c r="L191" s="11">
         <v>500</v>
       </c>
-      <c r="M192" s="11">
+      <c r="M191" s="11">
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A14:T14"/>
-    <mergeCell ref="A120:T120"/>
-    <mergeCell ref="A134:T134"/>
+    <mergeCell ref="A119:T119"/>
+    <mergeCell ref="A133:T133"/>
     <mergeCell ref="A2:T2"/>
-    <mergeCell ref="A174:T174"/>
+    <mergeCell ref="A173:T173"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -28425,7 +28383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F380316F-4817-4EA0-A0F4-1C2E6B415461}">
   <dimension ref="A1:R257"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G205" sqref="G205"/>
     </sheetView>

--- a/results/results_1_main.xlsx
+++ b/results/results_1_main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TM\Dropbox\DS\RNN-for-TS\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD85694-88ED-42F4-8218-E3D33912AF04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2338308D-BA40-4DFC-BC87-F4229B35455E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="19200" windowHeight="10200" tabRatio="818" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="818" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data dictionary" sheetId="30" r:id="rId1"/>
@@ -29153,7 +29153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F380316F-4817-4EA0-A0F4-1C2E6B415461}">
   <dimension ref="A1:R294"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K85" sqref="K85"/>
     </sheetView>
@@ -39228,9 +39228,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CCAEF6-E0AA-4EA9-B4C8-367C9CAD3E2A}">
   <dimension ref="A1:P209"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A133" sqref="A133"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O104" sqref="O104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -43050,7 +43050,7 @@
         <v>42</v>
       </c>
       <c r="K104" s="10">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L104" s="10">
         <v>100</v>
@@ -43060,7 +43060,7 @@
       </c>
       <c r="N104" s="76">
         <f>(32*L104*K104)/B104</f>
-        <v>133.33333333333334</v>
+        <v>106.66666666666667</v>
       </c>
     </row>
     <row r="105" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
